--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrFe_MoTi_TC_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrFe_MoTi_TC_wt_pct_ML.xlsx
@@ -497,16 +497,16 @@
         <v>99.60000000000002</v>
       </c>
       <c r="F2" t="n">
-        <v>307.6467895507812</v>
+        <v>180.231689453125</v>
       </c>
       <c r="G2" t="n">
-        <v>115.0670776367188</v>
+        <v>75.60057067871094</v>
       </c>
       <c r="H2" t="n">
-        <v>-475.6615295410156</v>
+        <v>-485.054443359375</v>
       </c>
       <c r="I2" t="n">
-        <v>12.39928245544434</v>
+        <v>26.0262279510498</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>97.16666666666669</v>
       </c>
       <c r="F3" t="n">
-        <v>309.2597351074219</v>
+        <v>182.8923187255859</v>
       </c>
       <c r="G3" t="n">
-        <v>114.0317077636719</v>
+        <v>76.30237579345703</v>
       </c>
       <c r="H3" t="n">
-        <v>-458.7801513671875</v>
+        <v>-460.5719299316406</v>
       </c>
       <c r="I3" t="n">
-        <v>19.73373794555664</v>
+        <v>28.00252914428711</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>94.73333333333335</v>
       </c>
       <c r="F4" t="n">
-        <v>310.8688659667969</v>
+        <v>185.6493072509766</v>
       </c>
       <c r="G4" t="n">
-        <v>112.9604110717773</v>
+        <v>76.90235137939453</v>
       </c>
       <c r="H4" t="n">
-        <v>-418.3223876953125</v>
+        <v>-416.4048156738281</v>
       </c>
       <c r="I4" t="n">
-        <v>31.27514839172363</v>
+        <v>39.28415298461914</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>92.30000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>312.3636169433594</v>
+        <v>188.5146331787109</v>
       </c>
       <c r="G5" t="n">
-        <v>112.1664962768555</v>
+        <v>77.39793395996094</v>
       </c>
       <c r="H5" t="n">
-        <v>-337.4322204589844</v>
+        <v>-338.8148498535156</v>
       </c>
       <c r="I5" t="n">
-        <v>40.10596466064453</v>
+        <v>83.47770690917969</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>89.86666666666669</v>
       </c>
       <c r="F6" t="n">
-        <v>314.1446228027344</v>
+        <v>191.5013275146484</v>
       </c>
       <c r="G6" t="n">
-        <v>111.9956893920898</v>
+        <v>77.78742980957031</v>
       </c>
       <c r="H6" t="n">
-        <v>-175.1145477294922</v>
+        <v>-204.4208221435547</v>
       </c>
       <c r="I6" t="n">
-        <v>53.1937255859375</v>
+        <v>98.86883544921875</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>97.16666666666669</v>
       </c>
       <c r="F7" t="n">
-        <v>310.3057556152344</v>
+        <v>179.9908294677734</v>
       </c>
       <c r="G7" t="n">
-        <v>116.0046615600586</v>
+        <v>71.97225952148438</v>
       </c>
       <c r="H7" t="n">
-        <v>-470.0194396972656</v>
+        <v>-474.9625244140625</v>
       </c>
       <c r="I7" t="n">
-        <v>15.25920486450195</v>
+        <v>24.97592163085938</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>94.73333333333335</v>
       </c>
       <c r="F8" t="n">
-        <v>311.8526306152344</v>
+        <v>182.7362060546875</v>
       </c>
       <c r="G8" t="n">
-        <v>114.9026031494141</v>
+        <v>72.57440948486328</v>
       </c>
       <c r="H8" t="n">
-        <v>-447.8110046386719</v>
+        <v>-458.9663391113281</v>
       </c>
       <c r="I8" t="n">
-        <v>23.74163818359375</v>
+        <v>29.83498764038086</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>92.30000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>312.8570861816406</v>
+        <v>185.5852508544922</v>
       </c>
       <c r="G9" t="n">
-        <v>113.3918838500977</v>
+        <v>73.07121276855469</v>
       </c>
       <c r="H9" t="n">
-        <v>-402.288818359375</v>
+        <v>-426.1627502441406</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29318618774414</v>
+        <v>33.13278198242188</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>89.86666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>313.8455810546875</v>
+        <v>188.5503540039062</v>
       </c>
       <c r="G10" t="n">
-        <v>112.1695556640625</v>
+        <v>73.45989990234375</v>
       </c>
       <c r="H10" t="n">
-        <v>-316.2517395019531</v>
+        <v>-358.3402404785156</v>
       </c>
       <c r="I10" t="n">
-        <v>48.32011795043945</v>
+        <v>51.5102653503418</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>87.43333333333335</v>
       </c>
       <c r="F11" t="n">
-        <v>315.0758972167969</v>
+        <v>191.6452178955078</v>
       </c>
       <c r="G11" t="n">
-        <v>111.8020553588867</v>
+        <v>73.73857879638672</v>
       </c>
       <c r="H11" t="n">
-        <v>-136.4895172119141</v>
+        <v>-245.0626678466797</v>
       </c>
       <c r="I11" t="n">
-        <v>58.31671905517578</v>
+        <v>110.7248992919922</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>85.00000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>316.5957641601562</v>
+        <v>194.8848114013672</v>
       </c>
       <c r="G12" t="n">
-        <v>111.9650802612305</v>
+        <v>73.90638732910156</v>
       </c>
       <c r="H12" t="n">
-        <v>-28.05122375488281</v>
+        <v>-112.2531661987305</v>
       </c>
       <c r="I12" t="n">
-        <v>60.94863510131836</v>
+        <v>115.5198364257812</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>94.73333333333335</v>
       </c>
       <c r="F13" t="n">
-        <v>312.8886413574219</v>
+        <v>179.5555572509766</v>
       </c>
       <c r="G13" t="n">
-        <v>116.6227569580078</v>
+        <v>68.16736602783203</v>
       </c>
       <c r="H13" t="n">
-        <v>-462.5873107910156</v>
+        <v>-440.0684814453125</v>
       </c>
       <c r="I13" t="n">
-        <v>20.19556045532227</v>
+        <v>49.60869979858398</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>92.30000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>314.1869812011719</v>
+        <v>182.3763885498047</v>
       </c>
       <c r="G14" t="n">
-        <v>115.4942398071289</v>
+        <v>68.66200256347656</v>
       </c>
       <c r="H14" t="n">
-        <v>-435.9598693847656</v>
+        <v>-431.892578125</v>
       </c>
       <c r="I14" t="n">
-        <v>28.47928619384766</v>
+        <v>30.86241912841797</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>89.86666666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>315.0947265625</v>
+        <v>185.307861328125</v>
       </c>
       <c r="G15" t="n">
-        <v>113.9019775390625</v>
+        <v>69.04778289794922</v>
       </c>
       <c r="H15" t="n">
-        <v>-385.5332336425781</v>
+        <v>-406.5284729003906</v>
       </c>
       <c r="I15" t="n">
-        <v>41.80428314208984</v>
+        <v>30.20574378967285</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>87.43333333333334</v>
       </c>
       <c r="F16" t="n">
-        <v>315.3791198730469</v>
+        <v>188.3629760742188</v>
       </c>
       <c r="G16" t="n">
-        <v>112.4624633789062</v>
+        <v>69.32173156738281</v>
       </c>
       <c r="H16" t="n">
-        <v>-289.0683898925781</v>
+        <v>-345.4951477050781</v>
       </c>
       <c r="I16" t="n">
-        <v>60.77721786499023</v>
+        <v>44.62476348876953</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>85.00000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>315.8499145507812</v>
+        <v>191.555908203125</v>
       </c>
       <c r="G17" t="n">
-        <v>111.6371765136719</v>
+        <v>69.48172760009766</v>
       </c>
       <c r="H17" t="n">
-        <v>-88.17547607421875</v>
+        <v>-227.931884765625</v>
       </c>
       <c r="I17" t="n">
-        <v>70.99050140380859</v>
+        <v>82.60335540771484</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>82.56666666666668</v>
       </c>
       <c r="F18" t="n">
-        <v>317.0859680175781</v>
+        <v>194.9023590087891</v>
       </c>
       <c r="G18" t="n">
-        <v>111.3299789428711</v>
+        <v>69.52687072753906</v>
       </c>
       <c r="H18" t="n">
-        <v>29.16475105285645</v>
+        <v>-64.38608551025391</v>
       </c>
       <c r="I18" t="n">
-        <v>67.09857177734375</v>
+        <v>147.6711120605469</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>80.13333333333334</v>
       </c>
       <c r="F19" t="n">
-        <v>318.0098571777344</v>
+        <v>198.4193115234375</v>
       </c>
       <c r="G19" t="n">
-        <v>111.2577285766602</v>
+        <v>69.45740509033203</v>
       </c>
       <c r="H19" t="n">
-        <v>152.9794464111328</v>
+        <v>86.81864166259766</v>
       </c>
       <c r="I19" t="n">
-        <v>67.21083831787109</v>
+        <v>161.0458374023438</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>92.30000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>314.3660583496094</v>
+        <v>178.9087982177734</v>
       </c>
       <c r="G20" t="n">
-        <v>116.0771484375</v>
+        <v>64.22762298583984</v>
       </c>
       <c r="H20" t="n">
-        <v>-455.2294006347656</v>
+        <v>-379.0177917480469</v>
       </c>
       <c r="I20" t="n">
-        <v>25.44967079162598</v>
+        <v>127.9595565795898</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>89.86666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>315.9292602539062</v>
+        <v>181.7937469482422</v>
       </c>
       <c r="G21" t="n">
-        <v>115.2878112792969</v>
+        <v>64.60867309570312</v>
       </c>
       <c r="H21" t="n">
-        <v>-424.886962890625</v>
+        <v>-369.0390625</v>
       </c>
       <c r="I21" t="n">
-        <v>34.53377151489258</v>
+        <v>102.286994934082</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>87.43333333333334</v>
       </c>
       <c r="F22" t="n">
-        <v>316.7822570800781</v>
+        <v>184.7960357666016</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0758361816406</v>
+        <v>64.87738037109375</v>
       </c>
       <c r="H22" t="n">
-        <v>-368.9504699707031</v>
+        <v>-339.2640380859375</v>
       </c>
       <c r="I22" t="n">
-        <v>48.85334777832031</v>
+        <v>79.33296966552734</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>85</v>
       </c>
       <c r="F23" t="n">
-        <v>316.9748229980469</v>
+        <v>187.9290771484375</v>
       </c>
       <c r="G23" t="n">
-        <v>112.7223510742188</v>
+        <v>65.03054809570312</v>
       </c>
       <c r="H23" t="n">
-        <v>-258.4591979980469</v>
+        <v>-271.8359069824219</v>
       </c>
       <c r="I23" t="n">
-        <v>75.18112945556641</v>
+        <v>68.84834289550781</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>82.56666666666668</v>
       </c>
       <c r="F24" t="n">
-        <v>316.8288269042969</v>
+        <v>191.2076568603516</v>
       </c>
       <c r="G24" t="n">
-        <v>111.5244750976562</v>
+        <v>65.06592559814453</v>
       </c>
       <c r="H24" t="n">
-        <v>-36.79704284667969</v>
+        <v>-149.9083251953125</v>
       </c>
       <c r="I24" t="n">
-        <v>78.2266845703125</v>
+        <v>84.26493072509766</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>80.13333333333334</v>
       </c>
       <c r="F25" t="n">
-        <v>316.9440612792969</v>
+        <v>194.6480102539062</v>
       </c>
       <c r="G25" t="n">
-        <v>110.2383804321289</v>
+        <v>64.98249816894531</v>
       </c>
       <c r="H25" t="n">
-        <v>109.0883407592773</v>
+        <v>19.70401191711426</v>
       </c>
       <c r="I25" t="n">
-        <v>66.04164886474609</v>
+        <v>93.68775177001953</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>77.7</v>
       </c>
       <c r="F26" t="n">
-        <v>317.088623046875</v>
+        <v>198.2677764892578</v>
       </c>
       <c r="G26" t="n">
-        <v>109.3846664428711</v>
+        <v>64.78049468994141</v>
       </c>
       <c r="H26" t="n">
-        <v>255.529541015625</v>
+        <v>196.1130523681641</v>
       </c>
       <c r="I26" t="n">
-        <v>33.05739974975586</v>
+        <v>105.1918258666992</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F27" t="n">
-        <v>317.0513610839844</v>
+        <v>202.0864105224609</v>
       </c>
       <c r="G27" t="n">
-        <v>109.1007766723633</v>
+        <v>64.46189117431641</v>
       </c>
       <c r="H27" t="n">
-        <v>292.7314453125</v>
+        <v>300.5600891113281</v>
       </c>
       <c r="I27" t="n">
-        <v>57.22654342651367</v>
+        <v>82.66378021240234</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>89.86666666666669</v>
       </c>
       <c r="F28" t="n">
-        <v>315.0359802246094</v>
+        <v>178.0307769775391</v>
       </c>
       <c r="G28" t="n">
-        <v>115.190673828125</v>
+        <v>60.20087814331055</v>
       </c>
       <c r="H28" t="n">
-        <v>-448.65966796875</v>
+        <v>-303.9894104003906</v>
       </c>
       <c r="I28" t="n">
-        <v>31.56270217895508</v>
+        <v>185.3554382324219</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>87.43333333333335</v>
       </c>
       <c r="F29" t="n">
-        <v>316.2875061035156</v>
+        <v>180.966552734375</v>
       </c>
       <c r="G29" t="n">
-        <v>114.4435806274414</v>
+        <v>60.46451950073242</v>
       </c>
       <c r="H29" t="n">
-        <v>-414.5336608886719</v>
+        <v>-287.4898986816406</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83620071411133</v>
+        <v>167.4196014404297</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>85.00000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>317.128662109375</v>
+        <v>184.0257568359375</v>
       </c>
       <c r="G30" t="n">
-        <v>113.3062133789062</v>
+        <v>60.61244964599609</v>
       </c>
       <c r="H30" t="n">
-        <v>-351.990966796875</v>
+        <v>-244.1278839111328</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42881774902344</v>
+        <v>153.3464202880859</v>
       </c>
     </row>
     <row r="31">
@@ -1338,16 +1338,16 @@
         <v>82.56666666666668</v>
       </c>
       <c r="F31" t="n">
-        <v>317.3622741699219</v>
+        <v>187.2222900390625</v>
       </c>
       <c r="G31" t="n">
-        <v>111.8347396850586</v>
+        <v>60.64128494262695</v>
       </c>
       <c r="H31" t="n">
-        <v>-223.2236938476562</v>
+        <v>-160.5658111572266</v>
       </c>
       <c r="I31" t="n">
-        <v>95.03439331054688</v>
+        <v>145.4406433105469</v>
       </c>
     </row>
     <row r="32">
@@ -1367,16 +1367,16 @@
         <v>80.13333333333335</v>
       </c>
       <c r="F32" t="n">
-        <v>317.2373962402344</v>
+        <v>190.5713958740234</v>
       </c>
       <c r="G32" t="n">
-        <v>110.3227615356445</v>
+        <v>60.54863739013672</v>
       </c>
       <c r="H32" t="n">
-        <v>16.05941581726074</v>
+        <v>-35.24140548706055</v>
       </c>
       <c r="I32" t="n">
-        <v>97.49008178710938</v>
+        <v>138.9429626464844</v>
       </c>
     </row>
     <row r="33">
@@ -1396,16 +1396,16 @@
         <v>77.70000000000002</v>
       </c>
       <c r="F33" t="n">
-        <v>316.7725830078125</v>
+        <v>194.0898590087891</v>
       </c>
       <c r="G33" t="n">
-        <v>108.6696929931641</v>
+        <v>60.33333587646484</v>
       </c>
       <c r="H33" t="n">
-        <v>194.8727874755859</v>
+        <v>104.5489273071289</v>
       </c>
       <c r="I33" t="n">
-        <v>52.92938613891602</v>
+        <v>102.6288223266602</v>
       </c>
     </row>
     <row r="34">
@@ -1425,16 +1425,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F34" t="n">
-        <v>316.0209350585938</v>
+        <v>197.7960968017578</v>
       </c>
       <c r="G34" t="n">
-        <v>107.4126129150391</v>
+        <v>59.99569320678711</v>
       </c>
       <c r="H34" t="n">
-        <v>272.4339599609375</v>
+        <v>226.8615570068359</v>
       </c>
       <c r="I34" t="n">
-        <v>37.00778198242188</v>
+        <v>46.46989059448242</v>
       </c>
     </row>
     <row r="35">
@@ -1454,16 +1454,16 @@
         <v>72.83333333333334</v>
       </c>
       <c r="F35" t="n">
-        <v>313.8049011230469</v>
+        <v>201.7100830078125</v>
       </c>
       <c r="G35" t="n">
-        <v>106.0002899169922</v>
+        <v>59.53785705566406</v>
       </c>
       <c r="H35" t="n">
-        <v>307.755615234375</v>
+        <v>293.4883117675781</v>
       </c>
       <c r="I35" t="n">
-        <v>34.65517425537109</v>
+        <v>36.35348892211914</v>
       </c>
     </row>
     <row r="36">
@@ -1483,16 +1483,16 @@
         <v>70.40000000000002</v>
       </c>
       <c r="F36" t="n">
-        <v>310.8678894042969</v>
+        <v>205.8536529541016</v>
       </c>
       <c r="G36" t="n">
-        <v>103.9262008666992</v>
+        <v>58.96404266357422</v>
       </c>
       <c r="H36" t="n">
-        <v>18.18156433105469</v>
+        <v>178.3507232666016</v>
       </c>
       <c r="I36" t="n">
-        <v>136.1526031494141</v>
+        <v>77.71186828613281</v>
       </c>
     </row>
     <row r="37">
@@ -1512,16 +1512,16 @@
         <v>87.43333333333335</v>
       </c>
       <c r="F37" t="n">
-        <v>315.40966796875</v>
+        <v>176.8992767333984</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0026321411133</v>
+        <v>56.13992309570312</v>
       </c>
       <c r="H37" t="n">
-        <v>-441.2791748046875</v>
+        <v>-215.4222412109375</v>
       </c>
       <c r="I37" t="n">
-        <v>38.70160675048828</v>
+        <v>211.9803466796875</v>
       </c>
     </row>
     <row r="38">
@@ -1541,16 +1541,16 @@
         <v>85.00000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>316.1259765625</v>
+        <v>179.870361328125</v>
       </c>
       <c r="G38" t="n">
-        <v>112.7577667236328</v>
+        <v>56.28517913818359</v>
       </c>
       <c r="H38" t="n">
-        <v>-405.0489196777344</v>
+        <v>-195.9812622070312</v>
       </c>
       <c r="I38" t="n">
-        <v>55.13764190673828</v>
+        <v>186.5432739257812</v>
       </c>
     </row>
     <row r="39">
@@ -1570,16 +1570,16 @@
         <v>82.56666666666668</v>
       </c>
       <c r="F39" t="n">
-        <v>316.3767395019531</v>
+        <v>182.9702758789062</v>
       </c>
       <c r="G39" t="n">
-        <v>111.3775253295898</v>
+        <v>56.31160354614258</v>
       </c>
       <c r="H39" t="n">
-        <v>-332.7442321777344</v>
+        <v>-144.8311309814453</v>
       </c>
       <c r="I39" t="n">
-        <v>81.53290557861328</v>
+        <v>176.2258605957031</v>
       </c>
     </row>
     <row r="40">
@@ -1599,16 +1599,16 @@
         <v>80.13333333333334</v>
       </c>
       <c r="F40" t="n">
-        <v>316.1997375488281</v>
+        <v>186.2132415771484</v>
       </c>
       <c r="G40" t="n">
-        <v>109.862548828125</v>
+        <v>56.2155876159668</v>
       </c>
       <c r="H40" t="n">
-        <v>-190.3659820556641</v>
+        <v>-58.2716178894043</v>
       </c>
       <c r="I40" t="n">
-        <v>120.1809768676758</v>
+        <v>170.719970703125</v>
       </c>
     </row>
     <row r="41">
@@ -1628,16 +1628,16 @@
         <v>77.70000000000002</v>
       </c>
       <c r="F41" t="n">
-        <v>315.7825317382812</v>
+        <v>189.6150360107422</v>
       </c>
       <c r="G41" t="n">
-        <v>108.1602935791016</v>
+        <v>55.9946174621582</v>
       </c>
       <c r="H41" t="n">
-        <v>51.18365859985352</v>
+        <v>50.52934646606445</v>
       </c>
       <c r="I41" t="n">
-        <v>121.4617385864258</v>
+        <v>138.6290588378906</v>
       </c>
     </row>
     <row r="42">
@@ -1657,16 +1657,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F42" t="n">
-        <v>314.7237243652344</v>
+        <v>193.1929321289062</v>
       </c>
       <c r="G42" t="n">
-        <v>106.271484375</v>
+        <v>55.64741134643555</v>
       </c>
       <c r="H42" t="n">
-        <v>224.6985321044922</v>
+        <v>154.2711639404297</v>
       </c>
       <c r="I42" t="n">
-        <v>49.73036575317383</v>
+        <v>76.56427764892578</v>
       </c>
     </row>
     <row r="43">
@@ -1686,16 +1686,16 @@
         <v>72.83333333333334</v>
       </c>
       <c r="F43" t="n">
-        <v>312.9750366210938</v>
+        <v>196.9658966064453</v>
       </c>
       <c r="G43" t="n">
-        <v>104.3973770141602</v>
+        <v>55.17433166503906</v>
       </c>
       <c r="H43" t="n">
-        <v>249.2494506835938</v>
+        <v>221.0556793212891</v>
       </c>
       <c r="I43" t="n">
-        <v>41.23561859130859</v>
+        <v>27.08645439147949</v>
       </c>
     </row>
     <row r="44">
@@ -1715,16 +1715,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>309.9653625488281</v>
+        <v>200.9546966552734</v>
       </c>
       <c r="G44" t="n">
-        <v>102.5146102905273</v>
+        <v>54.57773208618164</v>
       </c>
       <c r="H44" t="n">
-        <v>230.3787689208984</v>
+        <v>238.2283782958984</v>
       </c>
       <c r="I44" t="n">
-        <v>65.38297271728516</v>
+        <v>29.36919021606445</v>
       </c>
     </row>
     <row r="45">
@@ -1744,16 +1744,16 @@
         <v>67.96666666666668</v>
       </c>
       <c r="F45" t="n">
-        <v>305.4959716796875</v>
+        <v>205.1818237304688</v>
       </c>
       <c r="G45" t="n">
-        <v>99.53739929199219</v>
+        <v>53.86230087280273</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19735717773438</v>
+        <v>219.2464599609375</v>
       </c>
       <c r="I45" t="n">
-        <v>141.9048767089844</v>
+        <v>65.79206085205078</v>
       </c>
     </row>
     <row r="46">
@@ -1773,16 +1773,16 @@
         <v>65.53333333333335</v>
       </c>
       <c r="F46" t="n">
-        <v>300.9491882324219</v>
+        <v>209.6718139648438</v>
       </c>
       <c r="G46" t="n">
-        <v>96.74282073974609</v>
+        <v>53.03582000732422</v>
       </c>
       <c r="H46" t="n">
-        <v>101.400146484375</v>
+        <v>276.9053039550781</v>
       </c>
       <c r="I46" t="n">
-        <v>136.5415649414062</v>
+        <v>157.4066772460938</v>
       </c>
     </row>
     <row r="47">
@@ -1802,16 +1802,16 @@
         <v>85.00000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>315.5430908203125</v>
+        <v>175.4897613525391</v>
       </c>
       <c r="G47" t="n">
-        <v>112.2488174438477</v>
+        <v>52.10022735595703</v>
       </c>
       <c r="H47" t="n">
-        <v>-433.9999084472656</v>
+        <v>-127.8701553344727</v>
       </c>
       <c r="I47" t="n">
-        <v>47.0963249206543</v>
+        <v>230.8497924804688</v>
       </c>
     </row>
     <row r="48">
@@ -1831,16 +1831,16 @@
         <v>82.56666666666668</v>
       </c>
       <c r="F48" t="n">
-        <v>315.8247985839844</v>
+        <v>178.4784698486328</v>
       </c>
       <c r="G48" t="n">
-        <v>110.7759246826172</v>
+        <v>52.12939834594727</v>
       </c>
       <c r="H48" t="n">
-        <v>-395.6076965332031</v>
+        <v>-101.9836120605469</v>
       </c>
       <c r="I48" t="n">
-        <v>68.29503631591797</v>
+        <v>192.4533996582031</v>
       </c>
     </row>
     <row r="49">
@@ -1860,16 +1860,16 @@
         <v>80.13333333333334</v>
       </c>
       <c r="F49" t="n">
-        <v>315.3313293457031</v>
+        <v>181.6004180908203</v>
       </c>
       <c r="G49" t="n">
-        <v>109.2717666625977</v>
+        <v>52.03696060180664</v>
       </c>
       <c r="H49" t="n">
-        <v>-320.3841857910156</v>
+        <v>-53.35054016113281</v>
       </c>
       <c r="I49" t="n">
-        <v>110.6229400634766</v>
+        <v>179.0731353759766</v>
       </c>
     </row>
     <row r="50">
@@ -1889,16 +1889,16 @@
         <v>77.7</v>
       </c>
       <c r="F50" t="n">
-        <v>314.3117065429688</v>
+        <v>184.8702850341797</v>
       </c>
       <c r="G50" t="n">
-        <v>107.4657821655273</v>
+        <v>51.81912612915039</v>
       </c>
       <c r="H50" t="n">
-        <v>-173.6642608642578</v>
+        <v>18.58394432067871</v>
       </c>
       <c r="I50" t="n">
-        <v>169.7283325195312</v>
+        <v>163.7145843505859</v>
       </c>
     </row>
     <row r="51">
@@ -1918,16 +1918,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F51" t="n">
-        <v>313.2657165527344</v>
+        <v>188.3042144775391</v>
       </c>
       <c r="G51" t="n">
-        <v>105.4010543823242</v>
+        <v>51.47320556640625</v>
       </c>
       <c r="H51" t="n">
-        <v>32.69580078125</v>
+        <v>95.82506561279297</v>
       </c>
       <c r="I51" t="n">
-        <v>148.9337768554688</v>
+        <v>113.4135284423828</v>
       </c>
     </row>
     <row r="52">
@@ -1947,16 +1947,16 @@
         <v>72.83333333333334</v>
       </c>
       <c r="F52" t="n">
-        <v>311.8028869628906</v>
+        <v>191.9199066162109</v>
       </c>
       <c r="G52" t="n">
-        <v>103.3477554321289</v>
+        <v>50.99781036376953</v>
       </c>
       <c r="H52" t="n">
-        <v>190.7621307373047</v>
+        <v>156.6446380615234</v>
       </c>
       <c r="I52" t="n">
-        <v>57.28352355957031</v>
+        <v>56.57941818237305</v>
       </c>
     </row>
     <row r="53">
@@ -1976,16 +1976,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>309.1665344238281</v>
+        <v>195.7369232177734</v>
       </c>
       <c r="G53" t="n">
-        <v>101.2275314331055</v>
+        <v>50.39340972900391</v>
       </c>
       <c r="H53" t="n">
-        <v>177.5274047851562</v>
+        <v>188.4092864990234</v>
       </c>
       <c r="I53" t="n">
-        <v>23.87967300415039</v>
+        <v>27.38905715942383</v>
       </c>
     </row>
     <row r="54">
@@ -2005,16 +2005,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F54" t="n">
-        <v>304.4640502929688</v>
+        <v>199.7765502929688</v>
       </c>
       <c r="G54" t="n">
-        <v>98.44345855712891</v>
+        <v>49.66249465942383</v>
       </c>
       <c r="H54" t="n">
-        <v>156.4039764404297</v>
+        <v>208.5919342041016</v>
       </c>
       <c r="I54" t="n">
-        <v>53.5993537902832</v>
+        <v>47.94036102294922</v>
       </c>
     </row>
     <row r="55">
@@ -2034,16 +2034,16 @@
         <v>65.53333333333335</v>
       </c>
       <c r="F55" t="n">
-        <v>298.3964538574219</v>
+        <v>204.06201171875</v>
       </c>
       <c r="G55" t="n">
-        <v>94.62832641601562</v>
+        <v>48.81035614013672</v>
       </c>
       <c r="H55" t="n">
-        <v>99.78263092041016</v>
+        <v>269.1997680664062</v>
       </c>
       <c r="I55" t="n">
-        <v>153.8966064453125</v>
+        <v>87.83073425292969</v>
       </c>
     </row>
     <row r="56">
@@ -2063,16 +2063,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>292.8227844238281</v>
+        <v>208.6186065673828</v>
       </c>
       <c r="G56" t="n">
-        <v>91.25373840332031</v>
+        <v>47.84576797485352</v>
       </c>
       <c r="H56" t="n">
-        <v>162.3204193115234</v>
+        <v>333.7406311035156</v>
       </c>
       <c r="I56" t="n">
-        <v>153.1526794433594</v>
+        <v>161.0308532714844</v>
       </c>
     </row>
     <row r="57">
@@ -2092,16 +2092,16 @@
         <v>82.56666666666669</v>
       </c>
       <c r="F57" t="n">
-        <v>315.7082214355469</v>
+        <v>173.7764892578125</v>
       </c>
       <c r="G57" t="n">
-        <v>110.0595703125</v>
+        <v>48.13663864135742</v>
       </c>
       <c r="H57" t="n">
-        <v>-425.1589660644531</v>
+        <v>-58.15444946289062</v>
       </c>
       <c r="I57" t="n">
-        <v>57.66381072998047</v>
+        <v>244.5735626220703</v>
       </c>
     </row>
     <row r="58">
@@ -2121,16 +2121,16 @@
         <v>80.13333333333335</v>
       </c>
       <c r="F58" t="n">
-        <v>315.4085693359375</v>
+        <v>176.7630004882812</v>
       </c>
       <c r="G58" t="n">
-        <v>108.4933395385742</v>
+        <v>48.05540084838867</v>
       </c>
       <c r="H58" t="n">
-        <v>-383.325927734375</v>
+        <v>-22.83418846130371</v>
       </c>
       <c r="I58" t="n">
-        <v>83.27008056640625</v>
+        <v>210.5192108154297</v>
       </c>
     </row>
     <row r="59">
@@ -2150,16 +2150,16 @@
         <v>77.70000000000002</v>
       </c>
       <c r="F59" t="n">
-        <v>314.2127990722656</v>
+        <v>179.8861694335938</v>
       </c>
       <c r="G59" t="n">
-        <v>106.7710418701172</v>
+        <v>47.85035705566406</v>
       </c>
       <c r="H59" t="n">
-        <v>-303.4869384765625</v>
+        <v>17.80388832092285</v>
       </c>
       <c r="I59" t="n">
-        <v>143.1628112792969</v>
+        <v>177.6097869873047</v>
       </c>
     </row>
     <row r="60">
@@ -2179,16 +2179,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F60" t="n">
-        <v>312.1458435058594</v>
+        <v>183.1609954833984</v>
       </c>
       <c r="G60" t="n">
-        <v>104.4209823608398</v>
+        <v>47.51750183105469</v>
       </c>
       <c r="H60" t="n">
-        <v>-174.5281372070312</v>
+        <v>62.42608642578125</v>
       </c>
       <c r="I60" t="n">
-        <v>190.8651885986328</v>
+        <v>142.1883239746094</v>
       </c>
     </row>
     <row r="61">
@@ -2208,16 +2208,16 @@
         <v>72.83333333333336</v>
       </c>
       <c r="F61" t="n">
-        <v>310.0670166015625</v>
+        <v>186.6039428710938</v>
       </c>
       <c r="G61" t="n">
-        <v>102.1825256347656</v>
+        <v>47.05392837524414</v>
       </c>
       <c r="H61" t="n">
-        <v>14.85846042633057</v>
+        <v>100.7345275878906</v>
       </c>
       <c r="I61" t="n">
-        <v>161.6550140380859</v>
+        <v>95.70338439941406</v>
       </c>
     </row>
     <row r="62">
@@ -2237,16 +2237,16 @@
         <v>70.40000000000002</v>
       </c>
       <c r="F62" t="n">
-        <v>307.7928161621094</v>
+        <v>190.2332153320312</v>
       </c>
       <c r="G62" t="n">
-        <v>99.59377288818359</v>
+        <v>46.45824432373047</v>
       </c>
       <c r="H62" t="n">
-        <v>146.8272552490234</v>
+        <v>126.431999206543</v>
       </c>
       <c r="I62" t="n">
-        <v>65.07846832275391</v>
+        <v>56.81215667724609</v>
       </c>
     </row>
     <row r="63">
@@ -2266,16 +2266,16 @@
         <v>67.96666666666668</v>
       </c>
       <c r="F63" t="n">
-        <v>303.5222778320312</v>
+        <v>194.0687713623047</v>
       </c>
       <c r="G63" t="n">
-        <v>97.015869140625</v>
+        <v>45.73081207275391</v>
       </c>
       <c r="H63" t="n">
-        <v>151.2938690185547</v>
+        <v>152.8460845947266</v>
       </c>
       <c r="I63" t="n">
-        <v>14.41181755065918</v>
+        <v>49.10233688354492</v>
       </c>
     </row>
     <row r="64">
@@ -2295,16 +2295,16 @@
         <v>65.53333333333336</v>
       </c>
       <c r="F64" t="n">
-        <v>296.9863586425781</v>
+        <v>198.1324310302734</v>
       </c>
       <c r="G64" t="n">
-        <v>93.16345977783203</v>
+        <v>44.87442779541016</v>
       </c>
       <c r="H64" t="n">
-        <v>173.593017578125</v>
+        <v>191.6561431884766</v>
       </c>
       <c r="I64" t="n">
-        <v>71.49432373046875</v>
+        <v>58.24124908447266</v>
       </c>
     </row>
     <row r="65">
@@ -2324,16 +2324,16 @@
         <v>63.10000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>290.0674743652344</v>
+        <v>202.4480438232422</v>
       </c>
       <c r="G65" t="n">
-        <v>89.16298675537109</v>
+        <v>43.89495468139648</v>
       </c>
       <c r="H65" t="n">
-        <v>209.3948364257812</v>
+        <v>279.0039978027344</v>
       </c>
       <c r="I65" t="n">
-        <v>137.4020080566406</v>
+        <v>95.36710357666016</v>
       </c>
     </row>
     <row r="66">
@@ -2353,16 +2353,16 @@
         <v>60.66666666666667</v>
       </c>
       <c r="F66" t="n">
-        <v>282.8838500976562</v>
+        <v>207.04150390625</v>
       </c>
       <c r="G66" t="n">
-        <v>85.03571319580078</v>
+        <v>42.80232620239258</v>
       </c>
       <c r="H66" t="n">
-        <v>215.2995452880859</v>
+        <v>365.57568359375</v>
       </c>
       <c r="I66" t="n">
-        <v>194.3967742919922</v>
+        <v>147.1438598632812</v>
       </c>
     </row>
     <row r="67">
@@ -2382,16 +2382,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F67" t="n">
-        <v>276.5463256835938</v>
+        <v>211.9410552978516</v>
       </c>
       <c r="G67" t="n">
-        <v>81.49327850341797</v>
+        <v>41.61190795898438</v>
       </c>
       <c r="H67" t="n">
-        <v>557.8612670898438</v>
+        <v>450.7606506347656</v>
       </c>
       <c r="I67" t="n">
-        <v>315.31298828125</v>
+        <v>204.6345367431641</v>
       </c>
     </row>
     <row r="68">
@@ -2411,16 +2411,16 @@
         <v>80.13333333333335</v>
       </c>
       <c r="F68" t="n">
-        <v>315.5904541015625</v>
+        <v>171.7340698242188</v>
       </c>
       <c r="G68" t="n">
-        <v>107.60693359375</v>
+        <v>44.29865264892578</v>
       </c>
       <c r="H68" t="n">
-        <v>-414.9493408203125</v>
+        <v>-8.796058654785156</v>
       </c>
       <c r="I68" t="n">
-        <v>70.50558471679688</v>
+        <v>249.2438659667969</v>
       </c>
     </row>
     <row r="69">
@@ -2440,16 +2440,16 @@
         <v>77.70000000000002</v>
       </c>
       <c r="F69" t="n">
-        <v>314.7221069335938</v>
+        <v>174.6967315673828</v>
       </c>
       <c r="G69" t="n">
-        <v>105.6992874145508</v>
+        <v>44.11592483520508</v>
       </c>
       <c r="H69" t="n">
-        <v>-369.297119140625</v>
+        <v>26.20166206359863</v>
       </c>
       <c r="I69" t="n">
-        <v>103.5116729736328</v>
+        <v>218.7513732910156</v>
       </c>
     </row>
     <row r="70">
@@ -2469,16 +2469,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F70" t="n">
-        <v>312.6047058105469</v>
+        <v>177.7985076904297</v>
       </c>
       <c r="G70" t="n">
-        <v>103.2172012329102</v>
+        <v>43.80794143676758</v>
       </c>
       <c r="H70" t="n">
-        <v>-285.5298461914062</v>
+        <v>56.09750366210938</v>
       </c>
       <c r="I70" t="n">
-        <v>180.4293060302734</v>
+        <v>178.5465393066406</v>
       </c>
     </row>
     <row r="71">
@@ -2498,16 +2498,16 @@
         <v>72.83333333333334</v>
       </c>
       <c r="F71" t="n">
-        <v>309.6315307617188</v>
+        <v>181.0545043945312</v>
       </c>
       <c r="G71" t="n">
-        <v>100.3714752197266</v>
+        <v>43.37044525146484</v>
       </c>
       <c r="H71" t="n">
-        <v>-176.4081268310547</v>
+        <v>73.55438232421875</v>
       </c>
       <c r="I71" t="n">
-        <v>199.1099243164062</v>
+        <v>131.8883972167969</v>
       </c>
     </row>
     <row r="72">
@@ -2527,16 +2527,16 @@
         <v>70.40000000000002</v>
       </c>
       <c r="F72" t="n">
-        <v>306.2477111816406</v>
+        <v>184.4815521240234</v>
       </c>
       <c r="G72" t="n">
-        <v>97.57197570800781</v>
+        <v>42.80039215087891</v>
       </c>
       <c r="H72" t="n">
-        <v>3.701813936233521</v>
+        <v>80.63642883300781</v>
       </c>
       <c r="I72" t="n">
-        <v>162.1776123046875</v>
+        <v>94.67976379394531</v>
       </c>
     </row>
     <row r="73">
@@ -2556,16 +2556,16 @@
         <v>67.96666666666668</v>
       </c>
       <c r="F73" t="n">
-        <v>301.7122497558594</v>
+        <v>188.0982055664062</v>
       </c>
       <c r="G73" t="n">
-        <v>94.61963653564453</v>
+        <v>42.09622573852539</v>
       </c>
       <c r="H73" t="n">
-        <v>122.678466796875</v>
+        <v>92.21115112304688</v>
       </c>
       <c r="I73" t="n">
-        <v>62.37133407592773</v>
+        <v>72.98627471923828</v>
       </c>
     </row>
     <row r="74">
@@ -2585,16 +2585,16 @@
         <v>65.53333333333335</v>
       </c>
       <c r="F74" t="n">
-        <v>295.9568176269531</v>
+        <v>191.9247283935547</v>
       </c>
       <c r="G74" t="n">
-        <v>91.41038513183594</v>
+        <v>41.25835800170898</v>
       </c>
       <c r="H74" t="n">
-        <v>145.4957885742188</v>
+        <v>125.2744979858398</v>
       </c>
       <c r="I74" t="n">
-        <v>31.1938533782959</v>
+        <v>72.07301330566406</v>
       </c>
     </row>
     <row r="75">
@@ -2614,16 +2614,16 @@
         <v>63.1</v>
       </c>
       <c r="F75" t="n">
-        <v>287.7158508300781</v>
+        <v>195.9835662841797</v>
       </c>
       <c r="G75" t="n">
-        <v>86.66104125976562</v>
+        <v>40.28981781005859</v>
       </c>
       <c r="H75" t="n">
-        <v>159.532470703125</v>
+        <v>170.1194763183594</v>
       </c>
       <c r="I75" t="n">
-        <v>86.81606292724609</v>
+        <v>77.6722412109375</v>
       </c>
     </row>
     <row r="76">
@@ -2643,16 +2643,16 @@
         <v>60.66666666666667</v>
       </c>
       <c r="F76" t="n">
-        <v>279.8992004394531</v>
+        <v>200.2989044189453</v>
       </c>
       <c r="G76" t="n">
-        <v>82.46170806884766</v>
+        <v>39.19709014892578</v>
       </c>
       <c r="H76" t="n">
-        <v>126.3583679199219</v>
+        <v>248.7278289794922</v>
       </c>
       <c r="I76" t="n">
-        <v>135.4632263183594</v>
+        <v>98.75328063964844</v>
       </c>
     </row>
     <row r="77">
@@ -2672,16 +2672,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F77" t="n">
-        <v>271.9707641601562</v>
+        <v>204.8974456787109</v>
       </c>
       <c r="G77" t="n">
-        <v>77.87047576904297</v>
+        <v>37.99150085449219</v>
       </c>
       <c r="H77" t="n">
-        <v>155.9445037841797</v>
+        <v>362.7358703613281</v>
       </c>
       <c r="I77" t="n">
-        <v>198.8679351806641</v>
+        <v>125.9773178100586</v>
       </c>
     </row>
     <row r="78">
@@ -2701,16 +2701,16 @@
         <v>55.8</v>
       </c>
       <c r="F78" t="n">
-        <v>264.7057800292969</v>
+        <v>209.8078765869141</v>
       </c>
       <c r="G78" t="n">
-        <v>73.64154052734375</v>
+        <v>36.69079971313477</v>
       </c>
       <c r="H78" t="n">
-        <v>544.2024536132812</v>
+        <v>484.0797119140625</v>
       </c>
       <c r="I78" t="n">
-        <v>332.3866271972656</v>
+        <v>166.6668395996094</v>
       </c>
     </row>
     <row r="79">
@@ -2730,16 +2730,16 @@
         <v>77.70000000000002</v>
       </c>
       <c r="F79" t="n">
-        <v>314.4341125488281</v>
+        <v>169.3401641845703</v>
       </c>
       <c r="G79" t="n">
-        <v>104.5285797119141</v>
+        <v>40.62529373168945</v>
       </c>
       <c r="H79" t="n">
-        <v>-403.9412841796875</v>
+        <v>24.68533325195312</v>
       </c>
       <c r="I79" t="n">
-        <v>84.28948974609375</v>
+        <v>252.4713439941406</v>
       </c>
     </row>
     <row r="80">
@@ -2759,16 +2759,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F80" t="n">
-        <v>312.5305480957031</v>
+        <v>172.2563934326172</v>
       </c>
       <c r="G80" t="n">
-        <v>101.7779083251953</v>
+        <v>40.35253524780273</v>
       </c>
       <c r="H80" t="n">
-        <v>-353.3486633300781</v>
+        <v>48.54316329956055</v>
       </c>
       <c r="I80" t="n">
-        <v>127.5215530395508</v>
+        <v>217.7362670898438</v>
       </c>
     </row>
     <row r="81">
@@ -2788,16 +2788,16 @@
         <v>72.83333333333334</v>
       </c>
       <c r="F81" t="n">
-        <v>309.1442565917969</v>
+        <v>175.3129730224609</v>
       </c>
       <c r="G81" t="n">
-        <v>98.09931182861328</v>
+        <v>39.95394515991211</v>
       </c>
       <c r="H81" t="n">
-        <v>-274.499267578125</v>
+        <v>59.70149230957031</v>
       </c>
       <c r="I81" t="n">
-        <v>199.3285675048828</v>
+        <v>171.7757110595703</v>
       </c>
     </row>
     <row r="82">
@@ -2817,16 +2817,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>304.6310119628906</v>
+        <v>178.5253448486328</v>
       </c>
       <c r="G82" t="n">
-        <v>94.52751922607422</v>
+        <v>39.42519760131836</v>
       </c>
       <c r="H82" t="n">
-        <v>-178.2189788818359</v>
+        <v>56.85813522338867</v>
       </c>
       <c r="I82" t="n">
-        <v>199.1718444824219</v>
+        <v>131.1994171142578</v>
       </c>
     </row>
     <row r="83">
@@ -2846,16 +2846,16 @@
         <v>67.96666666666668</v>
       </c>
       <c r="F83" t="n">
-        <v>300.1300354003906</v>
+        <v>181.9105377197266</v>
       </c>
       <c r="G83" t="n">
-        <v>91.34461975097656</v>
+        <v>38.76305389404297</v>
       </c>
       <c r="H83" t="n">
-        <v>-2.621763467788696</v>
+        <v>51.24987411499023</v>
       </c>
       <c r="I83" t="n">
-        <v>158.4267120361328</v>
+        <v>111.647705078125</v>
       </c>
     </row>
     <row r="84">
@@ -2875,16 +2875,16 @@
         <v>65.53333333333335</v>
       </c>
       <c r="F84" t="n">
-        <v>294.3605651855469</v>
+        <v>185.4874114990234</v>
       </c>
       <c r="G84" t="n">
-        <v>87.98267364501953</v>
+        <v>37.96584320068359</v>
       </c>
       <c r="H84" t="n">
-        <v>117.7678604125977</v>
+        <v>64.94952392578125</v>
       </c>
       <c r="I84" t="n">
-        <v>58.28606796264648</v>
+        <v>100.6645202636719</v>
       </c>
     </row>
     <row r="85">
@@ -2904,16 +2904,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>286.5841369628906</v>
+        <v>189.2765960693359</v>
       </c>
       <c r="G85" t="n">
-        <v>83.85863494873047</v>
+        <v>37.03402709960938</v>
       </c>
       <c r="H85" t="n">
-        <v>138.1162719726562</v>
+        <v>103.2083969116211</v>
       </c>
       <c r="I85" t="n">
-        <v>56.2833251953125</v>
+        <v>95.45262145996094</v>
       </c>
     </row>
     <row r="86">
@@ -2933,16 +2933,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F86" t="n">
-        <v>277.7786865234375</v>
+        <v>193.3008270263672</v>
       </c>
       <c r="G86" t="n">
-        <v>79.24006652832031</v>
+        <v>35.97095108032227</v>
       </c>
       <c r="H86" t="n">
-        <v>110.1676940917969</v>
+        <v>137.9954681396484</v>
       </c>
       <c r="I86" t="n">
-        <v>101.0399017333984</v>
+        <v>95.65818023681641</v>
       </c>
     </row>
     <row r="87">
@@ -2962,16 +2962,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F87" t="n">
-        <v>269.3327331542969</v>
+        <v>197.5849151611328</v>
       </c>
       <c r="G87" t="n">
-        <v>74.28620147705078</v>
+        <v>34.78385543823242</v>
       </c>
       <c r="H87" t="n">
-        <v>72.99642181396484</v>
+        <v>181.4868316650391</v>
       </c>
       <c r="I87" t="n">
-        <v>130.6887054443359</v>
+        <v>102.4648361206055</v>
       </c>
     </row>
     <row r="88">
@@ -2991,16 +2991,16 @@
         <v>55.8</v>
       </c>
       <c r="F88" t="n">
-        <v>260.9134826660156</v>
+        <v>202.1558837890625</v>
       </c>
       <c r="G88" t="n">
-        <v>69.47780609130859</v>
+        <v>33.48564910888672</v>
       </c>
       <c r="H88" t="n">
-        <v>91.95702362060547</v>
+        <v>335.4691162109375</v>
       </c>
       <c r="I88" t="n">
-        <v>196.4591522216797</v>
+        <v>128.9758605957031</v>
       </c>
     </row>
     <row r="89">
@@ -3020,16 +3020,16 @@
         <v>53.36666666666666</v>
       </c>
       <c r="F89" t="n">
-        <v>252.7979125976562</v>
+        <v>207.0431976318359</v>
       </c>
       <c r="G89" t="n">
-        <v>64.38844299316406</v>
+        <v>32.09714508056641</v>
       </c>
       <c r="H89" t="n">
-        <v>498.5902404785156</v>
+        <v>504.0239562988281</v>
       </c>
       <c r="I89" t="n">
-        <v>333.4495849609375</v>
+        <v>151.7325439453125</v>
       </c>
     </row>
     <row r="90">
@@ -3049,16 +3049,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F90" t="n">
-        <v>245.3042449951172</v>
+        <v>212.2786865234375</v>
       </c>
       <c r="G90" t="n">
-        <v>59.01920700073242</v>
+        <v>30.65064811706543</v>
       </c>
       <c r="H90" t="n">
-        <v>747.7551879882812</v>
+        <v>591.5910034179688</v>
       </c>
       <c r="I90" t="n">
-        <v>211.0262908935547</v>
+        <v>198.0406799316406</v>
       </c>
     </row>
     <row r="91">
@@ -3078,16 +3078,16 @@
         <v>75.26666666666668</v>
       </c>
       <c r="F91" t="n">
-        <v>312.0830993652344</v>
+        <v>166.5794372558594</v>
       </c>
       <c r="G91" t="n">
-        <v>99.99932098388672</v>
+        <v>37.14040756225586</v>
       </c>
       <c r="H91" t="n">
-        <v>-392.6687927246094</v>
+        <v>40.39848327636719</v>
       </c>
       <c r="I91" t="n">
-        <v>98.42535400390625</v>
+        <v>251.6121826171875</v>
       </c>
     </row>
     <row r="92">
@@ -3107,16 +3107,16 @@
         <v>72.83333333333334</v>
       </c>
       <c r="F92" t="n">
-        <v>308.6460876464844</v>
+        <v>169.4264221191406</v>
       </c>
       <c r="G92" t="n">
-        <v>95.87641906738281</v>
+        <v>36.79051971435547</v>
       </c>
       <c r="H92" t="n">
-        <v>-336.7427978515625</v>
+        <v>48.40334701538086</v>
       </c>
       <c r="I92" t="n">
-        <v>152.9893035888672</v>
+        <v>207.1930999755859</v>
       </c>
     </row>
     <row r="93">
@@ -3136,16 +3136,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>304.0782775878906</v>
+        <v>172.4141845703125</v>
       </c>
       <c r="G93" t="n">
-        <v>91.98298645019531</v>
+        <v>36.31550598144531</v>
       </c>
       <c r="H93" t="n">
-        <v>-270.1763916015625</v>
+        <v>43.01668930053711</v>
       </c>
       <c r="I93" t="n">
-        <v>203.1640472412109</v>
+        <v>163.143310546875</v>
       </c>
     </row>
     <row r="94">
@@ -3165,16 +3165,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F94" t="n">
-        <v>298.5300598144531</v>
+        <v>175.5583343505859</v>
       </c>
       <c r="G94" t="n">
-        <v>87.87820434570312</v>
+        <v>35.71091461181641</v>
       </c>
       <c r="H94" t="n">
-        <v>-174.9710235595703</v>
+        <v>32.44857025146484</v>
       </c>
       <c r="I94" t="n">
-        <v>194.6752624511719</v>
+        <v>143.8897705078125</v>
       </c>
     </row>
     <row r="95">
@@ -3194,16 +3194,16 @@
         <v>65.53333333333335</v>
       </c>
       <c r="F95" t="n">
-        <v>292.74365234375</v>
+        <v>178.8759918212891</v>
       </c>
       <c r="G95" t="n">
-        <v>84.12797546386719</v>
+        <v>34.97342681884766</v>
       </c>
       <c r="H95" t="n">
-        <v>-6.192881107330322</v>
+        <v>30.32593727111816</v>
       </c>
       <c r="I95" t="n">
-        <v>155.3862457275391</v>
+        <v>130.5844421386719</v>
       </c>
     </row>
     <row r="96">
@@ -3223,16 +3223,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>286.06591796875</v>
+        <v>182.3863677978516</v>
       </c>
       <c r="G96" t="n">
-        <v>80.70729827880859</v>
+        <v>34.10141754150391</v>
       </c>
       <c r="H96" t="n">
-        <v>110.9912948608398</v>
+        <v>52.30717086791992</v>
       </c>
       <c r="I96" t="n">
-        <v>69.25495910644531</v>
+        <v>119.4554824829102</v>
       </c>
     </row>
     <row r="97">
@@ -3252,16 +3252,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F97" t="n">
-        <v>276.9308776855469</v>
+        <v>186.1103973388672</v>
       </c>
       <c r="G97" t="n">
-        <v>75.77311706542969</v>
+        <v>33.09547805786133</v>
       </c>
       <c r="H97" t="n">
-        <v>125.4854202270508</v>
+        <v>87.97847747802734</v>
       </c>
       <c r="I97" t="n">
-        <v>75.51442718505859</v>
+        <v>110.1775360107422</v>
       </c>
     </row>
     <row r="98">
@@ -3281,16 +3281,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F98" t="n">
-        <v>268.0346374511719</v>
+        <v>190.0711517333984</v>
       </c>
       <c r="G98" t="n">
-        <v>70.63385009765625</v>
+        <v>31.95941162109375</v>
       </c>
       <c r="H98" t="n">
-        <v>74.04155731201172</v>
+        <v>100.4965744018555</v>
       </c>
       <c r="I98" t="n">
-        <v>107.2595443725586</v>
+        <v>102.5900344848633</v>
       </c>
     </row>
     <row r="99">
@@ -3310,16 +3310,16 @@
         <v>55.8</v>
       </c>
       <c r="F99" t="n">
-        <v>259.4591369628906</v>
+        <v>194.293701171875</v>
       </c>
       <c r="G99" t="n">
-        <v>65.34406280517578</v>
+        <v>30.7015209197998</v>
       </c>
       <c r="H99" t="n">
-        <v>65.05176544189453</v>
+        <v>111.7740478515625</v>
       </c>
       <c r="I99" t="n">
-        <v>134.8219451904297</v>
+        <v>112.2555541992188</v>
       </c>
     </row>
     <row r="100">
@@ -3339,16 +3339,16 @@
         <v>53.36666666666666</v>
       </c>
       <c r="F100" t="n">
-        <v>250.5789337158203</v>
+        <v>198.8056640625</v>
       </c>
       <c r="G100" t="n">
-        <v>60.06679916381836</v>
+        <v>29.3368034362793</v>
       </c>
       <c r="H100" t="n">
-        <v>81.48499298095703</v>
+        <v>301.7981262207031</v>
       </c>
       <c r="I100" t="n">
-        <v>184.8532104492188</v>
+        <v>139.9080963134766</v>
       </c>
     </row>
     <row r="101">
@@ -3368,16 +3368,16 @@
         <v>50.93333333333332</v>
       </c>
       <c r="F101" t="n">
-        <v>241.257568359375</v>
+        <v>203.6368865966797</v>
       </c>
       <c r="G101" t="n">
-        <v>54.59293746948242</v>
+        <v>27.8900203704834</v>
       </c>
       <c r="H101" t="n">
-        <v>440.0574645996094</v>
+        <v>505.260009765625</v>
       </c>
       <c r="I101" t="n">
-        <v>349.8091430664062</v>
+        <v>161.2940216064453</v>
       </c>
     </row>
     <row r="102">
@@ -3397,16 +3397,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>233.0850677490234</v>
+        <v>208.8197479248047</v>
       </c>
       <c r="G102" t="n">
-        <v>49.38562393188477</v>
+        <v>26.40066909790039</v>
       </c>
       <c r="H102" t="n">
-        <v>761.005615234375</v>
+        <v>594.2802124023438</v>
       </c>
       <c r="I102" t="n">
-        <v>212.2019195556641</v>
+        <v>194.7759704589844</v>
       </c>
     </row>
     <row r="103">
@@ -3426,16 +3426,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F103" t="n">
-        <v>225.8538360595703</v>
+        <v>214.3893585205078</v>
       </c>
       <c r="G103" t="n">
-        <v>44.21641159057617</v>
+        <v>24.93016815185547</v>
       </c>
       <c r="H103" t="n">
-        <v>878.9663696289062</v>
+        <v>632.62890625</v>
       </c>
       <c r="I103" t="n">
-        <v>36.60849761962891</v>
+        <v>241.2852020263672</v>
       </c>
     </row>
     <row r="104">
@@ -3455,16 +3455,16 @@
         <v>72.83333333333334</v>
       </c>
       <c r="F104" t="n">
-        <v>309.0435791015625</v>
+        <v>163.4480133056641</v>
       </c>
       <c r="G104" t="n">
-        <v>94.13050842285156</v>
+        <v>33.8506965637207</v>
       </c>
       <c r="H104" t="n">
-        <v>-383.2069396972656</v>
+        <v>38.69892501831055</v>
       </c>
       <c r="I104" t="n">
-        <v>110.6835098266602</v>
+        <v>239.6207580566406</v>
       </c>
     </row>
     <row r="105">
@@ -3484,16 +3484,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>303.8699951171875</v>
+        <v>166.2042694091797</v>
       </c>
       <c r="G105" t="n">
-        <v>89.51309204101562</v>
+        <v>33.43706893920898</v>
       </c>
       <c r="H105" t="n">
-        <v>-324.2937316894531</v>
+        <v>34.32939529418945</v>
       </c>
       <c r="I105" t="n">
-        <v>171.3538055419922</v>
+        <v>192.1125946044922</v>
       </c>
     </row>
     <row r="106">
@@ -3513,16 +3513,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F106" t="n">
-        <v>298.1123046875</v>
+        <v>169.1009521484375</v>
       </c>
       <c r="G106" t="n">
-        <v>84.98961639404297</v>
+        <v>32.90046691894531</v>
       </c>
       <c r="H106" t="n">
-        <v>-267.4022216796875</v>
+        <v>25.75712013244629</v>
       </c>
       <c r="I106" t="n">
-        <v>197.9283294677734</v>
+        <v>164.8150024414062</v>
       </c>
     </row>
     <row r="107">
@@ -3542,16 +3542,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F107" t="n">
-        <v>292.0723571777344</v>
+        <v>172.1537933349609</v>
       </c>
       <c r="G107" t="n">
-        <v>80.57330322265625</v>
+        <v>32.23650741577148</v>
       </c>
       <c r="H107" t="n">
-        <v>-164.4042053222656</v>
+        <v>18.59343910217285</v>
       </c>
       <c r="I107" t="n">
-        <v>187.169677734375</v>
+        <v>150.4708404541016</v>
       </c>
     </row>
     <row r="108">
@@ -3571,16 +3571,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>285.2891540527344</v>
+        <v>175.3801879882812</v>
       </c>
       <c r="G108" t="n">
-        <v>76.70574188232422</v>
+        <v>31.44197273254395</v>
       </c>
       <c r="H108" t="n">
-        <v>-7.040956497192383</v>
+        <v>25.43351554870605</v>
       </c>
       <c r="I108" t="n">
-        <v>158.3023681640625</v>
+        <v>135.6328277587891</v>
       </c>
     </row>
     <row r="109">
@@ -3600,16 +3600,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F109" t="n">
-        <v>277.4378967285156</v>
+        <v>178.7994384765625</v>
       </c>
       <c r="G109" t="n">
-        <v>72.63473510742188</v>
+        <v>30.51540374755859</v>
       </c>
       <c r="H109" t="n">
-        <v>101.2412338256836</v>
+        <v>50.93173217773438</v>
       </c>
       <c r="I109" t="n">
-        <v>86.09993743896484</v>
+        <v>124.3298110961914</v>
       </c>
     </row>
     <row r="110">
@@ -3629,16 +3629,16 @@
         <v>58.23333333333332</v>
       </c>
       <c r="F110" t="n">
-        <v>268.0395812988281</v>
+        <v>182.4327545166016</v>
       </c>
       <c r="G110" t="n">
-        <v>67.20737457275391</v>
+        <v>29.45780944824219</v>
       </c>
       <c r="H110" t="n">
-        <v>104.5923538208008</v>
+        <v>80.64561462402344</v>
       </c>
       <c r="I110" t="n">
-        <v>90.97825622558594</v>
+        <v>113.5533218383789</v>
       </c>
     </row>
     <row r="111">
@@ -3658,16 +3658,16 @@
         <v>55.79999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>259.3285827636719</v>
+        <v>186.3034057617188</v>
       </c>
       <c r="G111" t="n">
-        <v>61.82834243774414</v>
+        <v>28.27382659912109</v>
       </c>
       <c r="H111" t="n">
-        <v>56.70951461791992</v>
+        <v>73.71954345703125</v>
       </c>
       <c r="I111" t="n">
-        <v>108.9924697875977</v>
+        <v>106.5094299316406</v>
       </c>
     </row>
     <row r="112">
@@ -3687,16 +3687,16 @@
         <v>53.36666666666666</v>
       </c>
       <c r="F112" t="n">
-        <v>250.1077880859375</v>
+        <v>190.4369049072266</v>
       </c>
       <c r="G112" t="n">
-        <v>56.00910568237305</v>
+        <v>26.97336959838867</v>
       </c>
       <c r="H112" t="n">
-        <v>64.29035186767578</v>
+        <v>72.95061492919922</v>
       </c>
       <c r="I112" t="n">
-        <v>133.8335723876953</v>
+        <v>123.0905456542969</v>
       </c>
     </row>
     <row r="113">
@@ -3716,16 +3716,16 @@
         <v>50.93333333333332</v>
       </c>
       <c r="F113" t="n">
-        <v>241.0049285888672</v>
+        <v>194.8610687255859</v>
       </c>
       <c r="G113" t="n">
-        <v>50.72345733642578</v>
+        <v>25.57443618774414</v>
       </c>
       <c r="H113" t="n">
-        <v>81.1336669921875</v>
+        <v>275.2740173339844</v>
       </c>
       <c r="I113" t="n">
-        <v>177.1653289794922</v>
+        <v>151.9546203613281</v>
       </c>
     </row>
     <row r="114">
@@ -3745,16 +3745,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>231.9358673095703</v>
+        <v>199.6060791015625</v>
       </c>
       <c r="G114" t="n">
-        <v>45.90435791015625</v>
+        <v>24.10732269287109</v>
       </c>
       <c r="H114" t="n">
-        <v>424.5750427246094</v>
+        <v>502.83203125</v>
       </c>
       <c r="I114" t="n">
-        <v>368.2616577148438</v>
+        <v>174.788330078125</v>
       </c>
     </row>
     <row r="115">
@@ -3774,16 +3774,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F115" t="n">
-        <v>223.5505523681641</v>
+        <v>204.7049407958984</v>
       </c>
       <c r="G115" t="n">
-        <v>41.71185684204102</v>
+        <v>22.62145805358887</v>
       </c>
       <c r="H115" t="n">
-        <v>768.9295043945312</v>
+        <v>598.130126953125</v>
       </c>
       <c r="I115" t="n">
-        <v>200.0689697265625</v>
+        <v>185.6144714355469</v>
       </c>
     </row>
     <row r="116">
@@ -3803,16 +3803,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F116" t="n">
-        <v>216.4736328125</v>
+        <v>210.1930999755859</v>
       </c>
       <c r="G116" t="n">
-        <v>37.65561294555664</v>
+        <v>21.1954174041748</v>
       </c>
       <c r="H116" t="n">
-        <v>880.725830078125</v>
+        <v>647.1178588867188</v>
       </c>
       <c r="I116" t="n">
-        <v>37.51515960693359</v>
+        <v>216.8995208740234</v>
       </c>
     </row>
     <row r="117">
@@ -3832,16 +3832,16 @@
         <v>70.40000000000002</v>
       </c>
       <c r="F117" t="n">
-        <v>304.9753112792969</v>
+        <v>159.9584503173828</v>
       </c>
       <c r="G117" t="n">
-        <v>86.95573425292969</v>
+        <v>30.74818229675293</v>
       </c>
       <c r="H117" t="n">
-        <v>-374.286865234375</v>
+        <v>26.39996528625488</v>
       </c>
       <c r="I117" t="n">
-        <v>121.839225769043</v>
+        <v>220.3340301513672</v>
       </c>
     </row>
     <row r="118">
@@ -3861,16 +3861,16 @@
         <v>67.96666666666668</v>
       </c>
       <c r="F118" t="n">
-        <v>298.660888671875</v>
+        <v>162.6050567626953</v>
       </c>
       <c r="G118" t="n">
-        <v>81.86569976806641</v>
+        <v>30.28399085998535</v>
       </c>
       <c r="H118" t="n">
-        <v>-317.8790283203125</v>
+        <v>21.58514976501465</v>
       </c>
       <c r="I118" t="n">
-        <v>175.4658966064453</v>
+        <v>183.0208892822266</v>
       </c>
     </row>
     <row r="119">
@@ -3890,16 +3890,16 @@
         <v>65.53333333333335</v>
       </c>
       <c r="F119" t="n">
-        <v>291.9209289550781</v>
+        <v>165.3912353515625</v>
       </c>
       <c r="G119" t="n">
-        <v>77.78493499755859</v>
+        <v>29.70072937011719</v>
       </c>
       <c r="H119" t="n">
-        <v>-263.1020812988281</v>
+        <v>15.93983840942383</v>
       </c>
       <c r="I119" t="n">
-        <v>192.0321350097656</v>
+        <v>164.4994354248047</v>
       </c>
     </row>
     <row r="120">
@@ -3919,16 +3919,16 @@
         <v>63.1</v>
       </c>
       <c r="F120" t="n">
-        <v>284.9934997558594</v>
+        <v>168.3328857421875</v>
       </c>
       <c r="G120" t="n">
-        <v>73.18149566650391</v>
+        <v>28.99427032470703</v>
       </c>
       <c r="H120" t="n">
-        <v>-147.4910736083984</v>
+        <v>15.05267810821533</v>
       </c>
       <c r="I120" t="n">
-        <v>187.2574157714844</v>
+        <v>148.7699432373047</v>
       </c>
     </row>
     <row r="121">
@@ -3948,16 +3948,16 @@
         <v>60.66666666666667</v>
       </c>
       <c r="F121" t="n">
-        <v>278.0855407714844</v>
+        <v>171.4474639892578</v>
       </c>
       <c r="G121" t="n">
-        <v>69.34793090820312</v>
+        <v>28.1617431640625</v>
       </c>
       <c r="H121" t="n">
-        <v>-1.849689483642578</v>
+        <v>28.61902809143066</v>
       </c>
       <c r="I121" t="n">
-        <v>159.5196075439453</v>
+        <v>134.5903625488281</v>
       </c>
     </row>
     <row r="122">
@@ -3977,16 +3977,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F122" t="n">
-        <v>269.5512390136719</v>
+        <v>174.7544097900391</v>
       </c>
       <c r="G122" t="n">
-        <v>63.91829299926758</v>
+        <v>27.20222282409668</v>
       </c>
       <c r="H122" t="n">
-        <v>90.61849975585938</v>
+        <v>55.34988784790039</v>
       </c>
       <c r="I122" t="n">
-        <v>99.96693420410156</v>
+        <v>120.9006729125977</v>
       </c>
     </row>
     <row r="123">
@@ -4006,16 +4006,16 @@
         <v>55.8</v>
       </c>
       <c r="F123" t="n">
-        <v>259.9305419921875</v>
+        <v>178.2750854492188</v>
       </c>
       <c r="G123" t="n">
-        <v>58.07106781005859</v>
+        <v>26.1175651550293</v>
       </c>
       <c r="H123" t="n">
-        <v>86.28295135498047</v>
+        <v>79.68536376953125</v>
       </c>
       <c r="I123" t="n">
-        <v>100.4747161865234</v>
+        <v>109.8279876708984</v>
       </c>
     </row>
     <row r="124">
@@ -4035,16 +4035,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F124" t="n">
-        <v>250.9027099609375</v>
+        <v>182.0329132080078</v>
       </c>
       <c r="G124" t="n">
-        <v>52.37158584594727</v>
+        <v>24.91384887695312</v>
       </c>
       <c r="H124" t="n">
-        <v>54.24587631225586</v>
+        <v>61.93354797363281</v>
       </c>
       <c r="I124" t="n">
-        <v>111.3216247558594</v>
+        <v>110.4234085083008</v>
       </c>
     </row>
     <row r="125">
@@ -4064,16 +4064,16 @@
         <v>50.93333333333334</v>
       </c>
       <c r="F125" t="n">
-        <v>241.7059478759766</v>
+        <v>186.0535736083984</v>
       </c>
       <c r="G125" t="n">
-        <v>47.47869110107422</v>
+        <v>23.60354804992676</v>
       </c>
       <c r="H125" t="n">
-        <v>65.78421020507812</v>
+        <v>62.1502685546875</v>
       </c>
       <c r="I125" t="n">
-        <v>131.8104095458984</v>
+        <v>130.2872314453125</v>
       </c>
     </row>
     <row r="126">
@@ -4093,16 +4093,16 @@
         <v>48.5</v>
       </c>
       <c r="F126" t="n">
-        <v>233.1776123046875</v>
+        <v>190.3651123046875</v>
       </c>
       <c r="G126" t="n">
-        <v>43.54501724243164</v>
+        <v>22.20921516418457</v>
       </c>
       <c r="H126" t="n">
-        <v>82.93364715576172</v>
+        <v>262.8239135742188</v>
       </c>
       <c r="I126" t="n">
-        <v>175.8103179931641</v>
+        <v>157.8349151611328</v>
       </c>
     </row>
     <row r="127">
@@ -4122,16 +4122,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F127" t="n">
-        <v>225.1267852783203</v>
+        <v>194.9980621337891</v>
       </c>
       <c r="G127" t="n">
-        <v>40.24915313720703</v>
+        <v>20.76924896240234</v>
       </c>
       <c r="H127" t="n">
-        <v>441.5298767089844</v>
+        <v>504.5083923339844</v>
       </c>
       <c r="I127" t="n">
-        <v>354.8810729980469</v>
+        <v>177.6464385986328</v>
       </c>
     </row>
     <row r="128">
@@ -4151,16 +4151,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F128" t="n">
-        <v>217.2225341796875</v>
+        <v>199.985595703125</v>
       </c>
       <c r="G128" t="n">
-        <v>36.99805450439453</v>
+        <v>19.3471794128418</v>
       </c>
       <c r="H128" t="n">
-        <v>780.2603149414062</v>
+        <v>608.3757934570312</v>
       </c>
       <c r="I128" t="n">
-        <v>173.3856811523438</v>
+        <v>170.9136352539062</v>
       </c>
     </row>
     <row r="129">
@@ -4180,16 +4180,16 @@
         <v>41.2</v>
       </c>
       <c r="F129" t="n">
-        <v>210.7935943603516</v>
+        <v>205.3636474609375</v>
       </c>
       <c r="G129" t="n">
-        <v>33.57974243164062</v>
+        <v>18.04508781433105</v>
       </c>
       <c r="H129" t="n">
-        <v>882.0078125</v>
+        <v>664.0557861328125</v>
       </c>
       <c r="I129" t="n">
-        <v>41.7252082824707</v>
+        <v>187.2988891601562</v>
       </c>
     </row>
     <row r="130">
@@ -4209,16 +4209,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F130" t="n">
-        <v>206.7108001708984</v>
+        <v>211.1709594726562</v>
       </c>
       <c r="G130" t="n">
-        <v>31.01143646240234</v>
+        <v>17.01932334899902</v>
       </c>
       <c r="H130" t="n">
-        <v>900.1264038085938</v>
+        <v>690.1326293945312</v>
       </c>
       <c r="I130" t="n">
-        <v>46.33457565307617</v>
+        <v>188.9333038330078</v>
       </c>
     </row>
     <row r="131">
@@ -4238,16 +4238,16 @@
         <v>67.96666666666668</v>
       </c>
       <c r="F131" t="n">
-        <v>299.4197998046875</v>
+        <v>156.1432037353516</v>
       </c>
       <c r="G131" t="n">
-        <v>79.66151428222656</v>
+        <v>27.81741142272949</v>
       </c>
       <c r="H131" t="n">
-        <v>-366.9554443359375</v>
+        <v>15.37427139282227</v>
       </c>
       <c r="I131" t="n">
-        <v>129.3422393798828</v>
+        <v>203.8133850097656</v>
       </c>
     </row>
     <row r="132">
@@ -4267,16 +4267,16 @@
         <v>65.53333333333335</v>
       </c>
       <c r="F132" t="n">
-        <v>293.1175842285156</v>
+        <v>158.6651000976562</v>
       </c>
       <c r="G132" t="n">
-        <v>74.82796478271484</v>
+        <v>27.3155574798584</v>
       </c>
       <c r="H132" t="n">
-        <v>-312.4332275390625</v>
+        <v>13.60181903839111</v>
       </c>
       <c r="I132" t="n">
-        <v>174.0057373046875</v>
+        <v>177.2711639404297</v>
       </c>
     </row>
     <row r="133">
@@ -4296,16 +4296,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>286.7193298339844</v>
+        <v>161.3254852294922</v>
       </c>
       <c r="G133" t="n">
-        <v>70.23236846923828</v>
+        <v>26.70046615600586</v>
       </c>
       <c r="H133" t="n">
-        <v>-252.24169921875</v>
+        <v>11.01592540740967</v>
       </c>
       <c r="I133" t="n">
-        <v>190.5312652587891</v>
+        <v>159.7684326171875</v>
       </c>
     </row>
     <row r="134">
@@ -4325,16 +4325,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F134" t="n">
-        <v>278.9708557128906</v>
+        <v>164.1401977539062</v>
       </c>
       <c r="G134" t="n">
-        <v>65.78564453125</v>
+        <v>25.96851539611816</v>
       </c>
       <c r="H134" t="n">
-        <v>-125.7087783813477</v>
+        <v>16.44832801818848</v>
       </c>
       <c r="I134" t="n">
-        <v>193.1549835205078</v>
+        <v>146.1458892822266</v>
       </c>
     </row>
     <row r="135">
@@ -4354,16 +4354,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F135" t="n">
-        <v>271.4029846191406</v>
+        <v>167.1267700195312</v>
       </c>
       <c r="G135" t="n">
-        <v>61.49624633789062</v>
+        <v>25.11754035949707</v>
       </c>
       <c r="H135" t="n">
-        <v>1.17209529876709</v>
+        <v>33.49288940429688</v>
       </c>
       <c r="I135" t="n">
-        <v>162.3362426757812</v>
+        <v>131.0727081298828</v>
       </c>
     </row>
     <row r="136">
@@ -4383,16 +4383,16 @@
         <v>55.8</v>
       </c>
       <c r="F136" t="n">
-        <v>261.9471740722656</v>
+        <v>170.3046875</v>
       </c>
       <c r="G136" t="n">
-        <v>56.04464340209961</v>
+        <v>24.1475715637207</v>
       </c>
       <c r="H136" t="n">
-        <v>80.20169830322266</v>
+        <v>62.08876037597656</v>
       </c>
       <c r="I136" t="n">
-        <v>108.197021484375</v>
+        <v>113.4793319702148</v>
       </c>
     </row>
     <row r="137">
@@ -4412,16 +4412,16 @@
         <v>53.36666666666666</v>
       </c>
       <c r="F137" t="n">
-        <v>253.1776885986328</v>
+        <v>173.6952972412109</v>
       </c>
       <c r="G137" t="n">
-        <v>50.48078155517578</v>
+        <v>23.06198501586914</v>
       </c>
       <c r="H137" t="n">
-        <v>78.49848937988281</v>
+        <v>81.51651000976562</v>
       </c>
       <c r="I137" t="n">
-        <v>104.7805938720703</v>
+        <v>104.9684982299805</v>
       </c>
     </row>
     <row r="138">
@@ -4441,16 +4441,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F138" t="n">
-        <v>244.3403167724609</v>
+        <v>177.3221282958984</v>
       </c>
       <c r="G138" t="n">
-        <v>45.34123992919922</v>
+        <v>21.86925315856934</v>
       </c>
       <c r="H138" t="n">
-        <v>57.5518798828125</v>
+        <v>61.3216667175293</v>
       </c>
       <c r="I138" t="n">
-        <v>112.0570907592773</v>
+        <v>115.7865829467773</v>
       </c>
     </row>
     <row r="139">
@@ -4470,16 +4470,16 @@
         <v>48.5</v>
       </c>
       <c r="F139" t="n">
-        <v>235.3983154296875</v>
+        <v>181.2108612060547</v>
       </c>
       <c r="G139" t="n">
-        <v>41.79560852050781</v>
+        <v>20.58591461181641</v>
       </c>
       <c r="H139" t="n">
-        <v>69.98009490966797</v>
+        <v>70.77797698974609</v>
       </c>
       <c r="I139" t="n">
-        <v>129.0164184570312</v>
+        <v>132.3191070556641</v>
       </c>
     </row>
     <row r="140">
@@ -4499,16 +4499,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F140" t="n">
-        <v>227.0791015625</v>
+        <v>185.3896942138672</v>
       </c>
       <c r="G140" t="n">
-        <v>39.18493270874023</v>
+        <v>19.24141883850098</v>
       </c>
       <c r="H140" t="n">
-        <v>86.65334320068359</v>
+        <v>263.1377258300781</v>
       </c>
       <c r="I140" t="n">
-        <v>177.7125244140625</v>
+        <v>154.2887115478516</v>
       </c>
     </row>
     <row r="141">
@@ -4528,16 +4528,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F141" t="n">
-        <v>220.2113494873047</v>
+        <v>189.8892822265625</v>
       </c>
       <c r="G141" t="n">
-        <v>36.6164436340332</v>
+        <v>17.88593864440918</v>
       </c>
       <c r="H141" t="n">
-        <v>470.4632263183594</v>
+        <v>509.0598449707031</v>
       </c>
       <c r="I141" t="n">
-        <v>334.5743103027344</v>
+        <v>169.4876861572266</v>
       </c>
     </row>
     <row r="142">
@@ -4557,16 +4557,16 @@
         <v>41.2</v>
       </c>
       <c r="F142" t="n">
-        <v>213.7670440673828</v>
+        <v>194.742919921875</v>
       </c>
       <c r="G142" t="n">
-        <v>33.83493804931641</v>
+        <v>16.6026782989502</v>
       </c>
       <c r="H142" t="n">
-        <v>802.240478515625</v>
+        <v>621.8572387695312</v>
       </c>
       <c r="I142" t="n">
-        <v>126.3681716918945</v>
+        <v>153.8413696289062</v>
       </c>
     </row>
     <row r="143">
@@ -4586,16 +4586,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F143" t="n">
-        <v>207.3727264404297</v>
+        <v>199.98681640625</v>
       </c>
       <c r="G143" t="n">
-        <v>32.42599868774414</v>
+        <v>15.52392864227295</v>
       </c>
       <c r="H143" t="n">
-        <v>880.5045776367188</v>
+        <v>677.6559448242188</v>
       </c>
       <c r="I143" t="n">
-        <v>46.1701774597168</v>
+        <v>160.5611724853516</v>
       </c>
     </row>
     <row r="144">
@@ -4615,16 +4615,16 @@
         <v>36.33333333333333</v>
       </c>
       <c r="F144" t="n">
-        <v>202.6877899169922</v>
+        <v>205.6600799560547</v>
       </c>
       <c r="G144" t="n">
-        <v>32.06896209716797</v>
+        <v>14.84377670288086</v>
       </c>
       <c r="H144" t="n">
-        <v>898.1149291992188</v>
+        <v>698.646484375</v>
       </c>
       <c r="I144" t="n">
-        <v>50.96342468261719</v>
+        <v>168.6916961669922</v>
       </c>
     </row>
     <row r="145">
@@ -4644,16 +4644,16 @@
         <v>33.9</v>
       </c>
       <c r="F145" t="n">
-        <v>199.9896240234375</v>
+        <v>211.8047485351562</v>
       </c>
       <c r="G145" t="n">
-        <v>31.54538726806641</v>
+        <v>14.804931640625</v>
       </c>
       <c r="H145" t="n">
-        <v>907.5462036132812</v>
+        <v>711.3525390625</v>
       </c>
       <c r="I145" t="n">
-        <v>58.70825576782227</v>
+        <v>171.9785919189453</v>
       </c>
     </row>
     <row r="146">
@@ -4673,16 +4673,16 @@
         <v>65.53333333333336</v>
       </c>
       <c r="F146" t="n">
-        <v>293.8733825683594</v>
+        <v>152.0557403564453</v>
       </c>
       <c r="G146" t="n">
-        <v>73.23093414306641</v>
+        <v>25.04518508911133</v>
       </c>
       <c r="H146" t="n">
-        <v>-359.8951721191406</v>
+        <v>8.030043601989746</v>
       </c>
       <c r="I146" t="n">
-        <v>134.5565795898438</v>
+        <v>192.6739807128906</v>
       </c>
     </row>
     <row r="147">
@@ -4702,16 +4702,16 @@
         <v>63.10000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>287.5332946777344</v>
+        <v>154.4425811767578</v>
       </c>
       <c r="G147" t="n">
-        <v>67.98522186279297</v>
+        <v>24.51856803894043</v>
       </c>
       <c r="H147" t="n">
-        <v>-307.1895751953125</v>
+        <v>7.381571292877197</v>
       </c>
       <c r="I147" t="n">
-        <v>171.4264831542969</v>
+        <v>169.5228881835938</v>
       </c>
     </row>
     <row r="148">
@@ -4731,16 +4731,16 @@
         <v>60.66666666666667</v>
       </c>
       <c r="F148" t="n">
-        <v>280.8434143066406</v>
+        <v>156.9664764404297</v>
       </c>
       <c r="G148" t="n">
-        <v>63.05649566650391</v>
+        <v>23.88649940490723</v>
       </c>
       <c r="H148" t="n">
-        <v>-240.76513671875</v>
+        <v>9.287783622741699</v>
       </c>
       <c r="I148" t="n">
-        <v>190.5771789550781</v>
+        <v>155.4069213867188</v>
       </c>
     </row>
     <row r="149">
@@ -4760,16 +4760,16 @@
         <v>58.23333333333334</v>
       </c>
       <c r="F149" t="n">
-        <v>273.1694030761719</v>
+        <v>159.6432647705078</v>
       </c>
       <c r="G149" t="n">
-        <v>58.74342346191406</v>
+        <v>23.14617156982422</v>
       </c>
       <c r="H149" t="n">
-        <v>-109.4732055664062</v>
+        <v>18.35980415344238</v>
       </c>
       <c r="I149" t="n">
-        <v>195.6922302246094</v>
+        <v>143.0105590820312</v>
       </c>
     </row>
     <row r="150">
@@ -4789,16 +4789,16 @@
         <v>55.80000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>264.7435607910156</v>
+        <v>162.4904022216797</v>
       </c>
       <c r="G150" t="n">
-        <v>54.8361701965332</v>
+        <v>22.29652786254883</v>
       </c>
       <c r="H150" t="n">
-        <v>4.423562526702881</v>
+        <v>38.13397598266602</v>
       </c>
       <c r="I150" t="n">
-        <v>160.8569641113281</v>
+        <v>125.1064147949219</v>
       </c>
     </row>
     <row r="151">
@@ -4818,16 +4818,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F151" t="n">
-        <v>255.47607421875</v>
+        <v>165.5272827148438</v>
       </c>
       <c r="G151" t="n">
-        <v>50.37350082397461</v>
+        <v>21.3391227722168</v>
       </c>
       <c r="H151" t="n">
-        <v>75.30889129638672</v>
+        <v>68.82562255859375</v>
       </c>
       <c r="I151" t="n">
-        <v>111.8645553588867</v>
+        <v>104.3791427612305</v>
       </c>
     </row>
     <row r="152">
@@ -4847,16 +4847,16 @@
         <v>50.93333333333334</v>
       </c>
       <c r="F152" t="n">
-        <v>247.1331024169922</v>
+        <v>168.7751770019531</v>
       </c>
       <c r="G152" t="n">
-        <v>46.05263137817383</v>
+        <v>20.27971458435059</v>
       </c>
       <c r="H152" t="n">
-        <v>78.46887969970703</v>
+        <v>84.38579559326172</v>
       </c>
       <c r="I152" t="n">
-        <v>103.9780731201172</v>
+        <v>101.4868011474609</v>
       </c>
     </row>
     <row r="153">
@@ -4876,16 +4876,16 @@
         <v>48.50000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>238.102294921875</v>
+        <v>172.2575073242188</v>
       </c>
       <c r="G153" t="n">
-        <v>41.72434616088867</v>
+        <v>19.13049697875977</v>
       </c>
       <c r="H153" t="n">
-        <v>63.93428421020508</v>
+        <v>68.81299591064453</v>
       </c>
       <c r="I153" t="n">
-        <v>111.4871673583984</v>
+        <v>119.9254455566406</v>
       </c>
     </row>
     <row r="154">
@@ -4905,16 +4905,16 @@
         <v>46.06666666666668</v>
       </c>
       <c r="F154" t="n">
-        <v>229.6837615966797</v>
+        <v>175.9999389648438</v>
       </c>
       <c r="G154" t="n">
-        <v>38.33708953857422</v>
+        <v>17.91409873962402</v>
       </c>
       <c r="H154" t="n">
-        <v>74.02504730224609</v>
+        <v>91.64868927001953</v>
       </c>
       <c r="I154" t="n">
-        <v>126.4748764038086</v>
+        <v>128.5862579345703</v>
       </c>
     </row>
     <row r="155">
@@ -4934,16 +4934,16 @@
         <v>43.63333333333334</v>
       </c>
       <c r="F155" t="n">
-        <v>222.7917938232422</v>
+        <v>180.0305786132812</v>
       </c>
       <c r="G155" t="n">
-        <v>36.5689811706543</v>
+        <v>16.66999626159668</v>
       </c>
       <c r="H155" t="n">
-        <v>94.40555572509766</v>
+        <v>272.3497314453125</v>
       </c>
       <c r="I155" t="n">
-        <v>177.1899566650391</v>
+        <v>143.9923706054688</v>
       </c>
     </row>
     <row r="156">
@@ -4963,16 +4963,16 @@
         <v>41.2</v>
       </c>
       <c r="F156" t="n">
-        <v>216.8333282470703</v>
+        <v>184.3800201416016</v>
       </c>
       <c r="G156" t="n">
-        <v>35.60771560668945</v>
+        <v>15.464768409729</v>
       </c>
       <c r="H156" t="n">
-        <v>513.535400390625</v>
+        <v>512.6425170898438</v>
       </c>
       <c r="I156" t="n">
-        <v>318.5153503417969</v>
+        <v>155.0538940429688</v>
       </c>
     </row>
     <row r="157">
@@ -4992,16 +4992,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F157" t="n">
-        <v>209.8194122314453</v>
+        <v>189.0817260742188</v>
       </c>
       <c r="G157" t="n">
-        <v>34.39724349975586</v>
+        <v>14.40664005279541</v>
       </c>
       <c r="H157" t="n">
-        <v>816.6559448242188</v>
+        <v>633.452392578125</v>
       </c>
       <c r="I157" t="n">
-        <v>95.89358520507812</v>
+        <v>137.9397430419922</v>
       </c>
     </row>
     <row r="158">
@@ -5021,16 +5021,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F158" t="n">
-        <v>204.4434356689453</v>
+        <v>194.1719360351562</v>
       </c>
       <c r="G158" t="n">
-        <v>33.91191864013672</v>
+        <v>13.66010665893555</v>
       </c>
       <c r="H158" t="n">
-        <v>874.4910278320312</v>
+        <v>684.996337890625</v>
       </c>
       <c r="I158" t="n">
-        <v>52.68814849853516</v>
+        <v>140.1259460449219</v>
       </c>
     </row>
     <row r="159">
@@ -5050,16 +5050,16 @@
         <v>33.90000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>200.7555541992188</v>
+        <v>199.6899261474609</v>
       </c>
       <c r="G159" t="n">
-        <v>33.66901397705078</v>
+        <v>13.44359397888184</v>
       </c>
       <c r="H159" t="n">
-        <v>891.7014770507812</v>
+        <v>700.09716796875</v>
       </c>
       <c r="I159" t="n">
-        <v>60.28508758544922</v>
+        <v>156.1146087646484</v>
       </c>
     </row>
     <row r="160">
@@ -5079,16 +5079,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F160" t="n">
-        <v>199.4083251953125</v>
+        <v>205.6780242919922</v>
       </c>
       <c r="G160" t="n">
-        <v>33.0417594909668</v>
+        <v>13.98293018341064</v>
       </c>
       <c r="H160" t="n">
-        <v>900.122314453125</v>
+        <v>708.1389770507812</v>
       </c>
       <c r="I160" t="n">
-        <v>68.36141967773438</v>
+        <v>163.900146484375</v>
       </c>
     </row>
     <row r="161">
@@ -5108,16 +5108,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F161" t="n">
-        <v>289.1269836425781</v>
+        <v>147.7683258056641</v>
       </c>
       <c r="G161" t="n">
-        <v>67.94526672363281</v>
+        <v>22.42837715148926</v>
       </c>
       <c r="H161" t="n">
-        <v>-352.3312683105469</v>
+        <v>1.288897156715393</v>
       </c>
       <c r="I161" t="n">
-        <v>137.3865051269531</v>
+        <v>181.418701171875</v>
       </c>
     </row>
     <row r="162">
@@ -5137,16 +5137,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F162" t="n">
-        <v>282.3854675292969</v>
+        <v>150.0143585205078</v>
       </c>
       <c r="G162" t="n">
-        <v>63.03341293334961</v>
+        <v>21.89023208618164</v>
       </c>
       <c r="H162" t="n">
-        <v>-298.3563842773438</v>
+        <v>3.192413330078125</v>
       </c>
       <c r="I162" t="n">
-        <v>172.3786926269531</v>
+        <v>162.2269592285156</v>
       </c>
     </row>
     <row r="163">
@@ -5166,16 +5166,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F163" t="n">
-        <v>275.5451049804688</v>
+        <v>152.3957366943359</v>
       </c>
       <c r="G163" t="n">
-        <v>58.18936157226562</v>
+        <v>21.25620460510254</v>
       </c>
       <c r="H163" t="n">
-        <v>-226.0904998779297</v>
+        <v>8.101104736328125</v>
       </c>
       <c r="I163" t="n">
-        <v>189.2441558837891</v>
+        <v>151.3042755126953</v>
       </c>
     </row>
     <row r="164">
@@ -5195,16 +5195,16 @@
         <v>55.8</v>
       </c>
       <c r="F164" t="n">
-        <v>268.356689453125</v>
+        <v>154.9281616210938</v>
       </c>
       <c r="G164" t="n">
-        <v>54.14440155029297</v>
+        <v>20.52460861206055</v>
       </c>
       <c r="H164" t="n">
-        <v>-98.04901885986328</v>
+        <v>19.23319244384766</v>
       </c>
       <c r="I164" t="n">
-        <v>193.9238586425781</v>
+        <v>138.0623474121094</v>
       </c>
     </row>
     <row r="165">
@@ -5224,16 +5224,16 @@
         <v>53.36666666666666</v>
       </c>
       <c r="F165" t="n">
-        <v>259.5992126464844</v>
+        <v>157.6289215087891</v>
       </c>
       <c r="G165" t="n">
-        <v>50.44466781616211</v>
+        <v>19.69594955444336</v>
       </c>
       <c r="H165" t="n">
-        <v>8.377069473266602</v>
+        <v>42.13128280639648</v>
       </c>
       <c r="I165" t="n">
-        <v>158.1540985107422</v>
+        <v>116.3273696899414</v>
       </c>
     </row>
     <row r="166">
@@ -5253,16 +5253,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F166" t="n">
-        <v>250.1246185302734</v>
+        <v>160.5171966552734</v>
       </c>
       <c r="G166" t="n">
-        <v>46.93878936767578</v>
+        <v>18.77409362792969</v>
       </c>
       <c r="H166" t="n">
-        <v>74.03012847900391</v>
+        <v>73.95362854003906</v>
       </c>
       <c r="I166" t="n">
-        <v>111.4667205810547</v>
+        <v>94.53934478759766</v>
       </c>
     </row>
     <row r="167">
@@ -5282,16 +5282,16 @@
         <v>48.5</v>
       </c>
       <c r="F167" t="n">
-        <v>241.2357025146484</v>
+        <v>163.6139678955078</v>
       </c>
       <c r="G167" t="n">
-        <v>43.35286712646484</v>
+        <v>17.76816940307617</v>
       </c>
       <c r="H167" t="n">
-        <v>82.49893951416016</v>
+        <v>87.99849700927734</v>
       </c>
       <c r="I167" t="n">
-        <v>101.6086654663086</v>
+        <v>98.76811218261719</v>
       </c>
     </row>
     <row r="168">
@@ -5311,16 +5311,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F168" t="n">
-        <v>232.9262542724609</v>
+        <v>166.9426116943359</v>
       </c>
       <c r="G168" t="n">
-        <v>40.11341857910156</v>
+        <v>16.69577026367188</v>
       </c>
       <c r="H168" t="n">
-        <v>72.70001983642578</v>
+        <v>81.61885070800781</v>
       </c>
       <c r="I168" t="n">
-        <v>108.2129287719727</v>
+        <v>120.385139465332</v>
       </c>
     </row>
     <row r="169">
@@ -5340,16 +5340,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F169" t="n">
-        <v>225.8441772460938</v>
+        <v>170.5284271240234</v>
       </c>
       <c r="G169" t="n">
-        <v>38.30263137817383</v>
+        <v>15.58804798126221</v>
       </c>
       <c r="H169" t="n">
-        <v>80.24263763427734</v>
+        <v>119.3539428710938</v>
       </c>
       <c r="I169" t="n">
-        <v>124.2148056030273</v>
+        <v>119.7084732055664</v>
       </c>
     </row>
     <row r="170">
@@ -5369,16 +5369,16 @@
         <v>41.2</v>
       </c>
       <c r="F170" t="n">
-        <v>218.6911163330078</v>
+        <v>174.3994293212891</v>
       </c>
       <c r="G170" t="n">
-        <v>36.58927917480469</v>
+        <v>14.49800109863281</v>
       </c>
       <c r="H170" t="n">
-        <v>116.4157104492188</v>
+        <v>287.2523498535156</v>
       </c>
       <c r="I170" t="n">
-        <v>177.4661560058594</v>
+        <v>130.8829193115234</v>
       </c>
     </row>
     <row r="171">
@@ -5398,16 +5398,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F171" t="n">
-        <v>212.5789031982422</v>
+        <v>178.5860137939453</v>
       </c>
       <c r="G171" t="n">
-        <v>35.83794403076172</v>
+        <v>13.51251983642578</v>
       </c>
       <c r="H171" t="n">
-        <v>554.3485107421875</v>
+        <v>511.9461975097656</v>
       </c>
       <c r="I171" t="n">
-        <v>316.8420104980469</v>
+        <v>138.4015960693359</v>
       </c>
     </row>
     <row r="172">
@@ -5427,16 +5427,16 @@
         <v>36.33333333333333</v>
       </c>
       <c r="F172" t="n">
-        <v>207.025390625</v>
+        <v>183.1216430664062</v>
       </c>
       <c r="G172" t="n">
-        <v>34.66626739501953</v>
+        <v>12.76603698730469</v>
       </c>
       <c r="H172" t="n">
-        <v>822.1671752929688</v>
+        <v>638.717529296875</v>
       </c>
       <c r="I172" t="n">
-        <v>71.62227630615234</v>
+        <v>124.4279556274414</v>
       </c>
     </row>
     <row r="173">
@@ -5456,16 +5456,16 @@
         <v>33.9</v>
       </c>
       <c r="F173" t="n">
-        <v>202.8289031982422</v>
+        <v>188.0424346923828</v>
       </c>
       <c r="G173" t="n">
-        <v>34.4275016784668</v>
+        <v>12.44443130493164</v>
       </c>
       <c r="H173" t="n">
-        <v>864.665283203125</v>
+        <v>685.874755859375</v>
       </c>
       <c r="I173" t="n">
-        <v>63.52151107788086</v>
+        <v>126.4865646362305</v>
       </c>
     </row>
     <row r="174">
@@ -5485,16 +5485,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F174" t="n">
-        <v>200.1536865234375</v>
+        <v>193.3878021240234</v>
       </c>
       <c r="G174" t="n">
-        <v>34.12894439697266</v>
+        <v>12.75594234466553</v>
       </c>
       <c r="H174" t="n">
-        <v>881.0410766601562</v>
+        <v>694.2245483398438</v>
       </c>
       <c r="I174" t="n">
-        <v>72.52004241943359</v>
+        <v>149.3239135742188</v>
       </c>
     </row>
     <row r="175">
@@ -5514,16 +5514,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F175" t="n">
-        <v>200.0645294189453</v>
+        <v>199.2003173828125</v>
       </c>
       <c r="G175" t="n">
-        <v>34.50788879394531</v>
+        <v>13.86233425140381</v>
       </c>
       <c r="H175" t="n">
-        <v>887.7446899414062</v>
+        <v>698.501708984375</v>
       </c>
       <c r="I175" t="n">
-        <v>79.59265899658203</v>
+        <v>161.3975830078125</v>
       </c>
     </row>
     <row r="176">
@@ -5543,16 +5543,16 @@
         <v>26.59999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>202.1229705810547</v>
+        <v>205.5256958007812</v>
       </c>
       <c r="G176" t="n">
-        <v>34.63316345214844</v>
+        <v>15.82373237609863</v>
       </c>
       <c r="H176" t="n">
-        <v>884.5009765625</v>
+        <v>703.1738891601562</v>
       </c>
       <c r="I176" t="n">
-        <v>85.69733428955078</v>
+        <v>172.8047485351562</v>
       </c>
     </row>
     <row r="177">
@@ -5572,16 +5572,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F177" t="n">
-        <v>284.2230529785156</v>
+        <v>143.3658599853516</v>
       </c>
       <c r="G177" t="n">
-        <v>65.21974182128906</v>
+        <v>19.97669219970703</v>
       </c>
       <c r="H177" t="n">
-        <v>-344.2060852050781</v>
+        <v>-4.337436676025391</v>
       </c>
       <c r="I177" t="n">
-        <v>138.2151794433594</v>
+        <v>170.5476684570312</v>
       </c>
     </row>
     <row r="178">
@@ -5601,16 +5601,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F178" t="n">
-        <v>277.5732421875</v>
+        <v>145.4694366455078</v>
       </c>
       <c r="G178" t="n">
-        <v>60.85969924926758</v>
+        <v>19.44048690795898</v>
       </c>
       <c r="H178" t="n">
-        <v>-287.3668212890625</v>
+        <v>-0.04921086505055428</v>
       </c>
       <c r="I178" t="n">
-        <v>175.5225067138672</v>
+        <v>156.1759948730469</v>
       </c>
     </row>
     <row r="179">
@@ -5630,16 +5630,16 @@
         <v>55.8</v>
       </c>
       <c r="F179" t="n">
-        <v>271.2327575683594</v>
+        <v>147.7062530517578</v>
       </c>
       <c r="G179" t="n">
-        <v>56.30895233154297</v>
+        <v>18.81938362121582</v>
       </c>
       <c r="H179" t="n">
-        <v>-209.7952270507812</v>
+        <v>6.04266881942749</v>
       </c>
       <c r="I179" t="n">
-        <v>187.9111785888672</v>
+        <v>145.9530487060547</v>
       </c>
     </row>
     <row r="180">
@@ -5659,16 +5659,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F180" t="n">
-        <v>263.3486633300781</v>
+        <v>150.0917358398438</v>
       </c>
       <c r="G180" t="n">
-        <v>52.26946640014648</v>
+        <v>18.11323547363281</v>
       </c>
       <c r="H180" t="n">
-        <v>-86.42388153076172</v>
+        <v>19.15520286560059</v>
       </c>
       <c r="I180" t="n">
-        <v>191.6797943115234</v>
+        <v>130.4877777099609</v>
       </c>
     </row>
     <row r="181">
@@ -5688,16 +5688,16 @@
         <v>50.93333333333334</v>
       </c>
       <c r="F181" t="n">
-        <v>254.9221343994141</v>
+        <v>152.6428985595703</v>
       </c>
       <c r="G181" t="n">
-        <v>49.39045333862305</v>
+        <v>17.32464218139648</v>
       </c>
       <c r="H181" t="n">
-        <v>16.58606338500977</v>
+        <v>44.83568954467773</v>
       </c>
       <c r="I181" t="n">
-        <v>151.9526519775391</v>
+        <v>104.9999618530273</v>
       </c>
     </row>
     <row r="182">
@@ -5717,16 +5717,16 @@
         <v>48.5</v>
       </c>
       <c r="F182" t="n">
-        <v>246.6187591552734</v>
+        <v>155.3785552978516</v>
       </c>
       <c r="G182" t="n">
-        <v>46.41484451293945</v>
+        <v>16.46053314208984</v>
       </c>
       <c r="H182" t="n">
-        <v>78.55425262451172</v>
+        <v>76.62480926513672</v>
       </c>
       <c r="I182" t="n">
-        <v>107.9973907470703</v>
+        <v>84.12175750732422</v>
       </c>
     </row>
     <row r="183">
@@ -5746,16 +5746,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F183" t="n">
-        <v>238.4650421142578</v>
+        <v>158.3194732666016</v>
       </c>
       <c r="G183" t="n">
-        <v>43.78011703491211</v>
+        <v>15.53470230102539</v>
       </c>
       <c r="H183" t="n">
-        <v>90.88802337646484</v>
+        <v>92.2376708984375</v>
       </c>
       <c r="I183" t="n">
-        <v>97.80377197265625</v>
+        <v>95.18093872070312</v>
       </c>
     </row>
     <row r="184">
@@ -5775,16 +5775,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F184" t="n">
-        <v>230.1622467041016</v>
+        <v>161.4885101318359</v>
       </c>
       <c r="G184" t="n">
-        <v>41.57399368286133</v>
+        <v>14.57185649871826</v>
       </c>
       <c r="H184" t="n">
-        <v>86.45677947998047</v>
+        <v>97.60375213623047</v>
       </c>
       <c r="I184" t="n">
-        <v>104.2282562255859</v>
+        <v>116.3869552612305</v>
       </c>
     </row>
     <row r="185">
@@ -5804,16 +5804,16 @@
         <v>41.2</v>
       </c>
       <c r="F185" t="n">
-        <v>222.2217407226562</v>
+        <v>164.9108123779297</v>
       </c>
       <c r="G185" t="n">
-        <v>38.62485504150391</v>
+        <v>13.61410140991211</v>
       </c>
       <c r="H185" t="n">
-        <v>94.34200286865234</v>
+        <v>150.1754608154297</v>
       </c>
       <c r="I185" t="n">
-        <v>122.4919586181641</v>
+        <v>106.982421875</v>
       </c>
     </row>
     <row r="186">
@@ -5833,16 +5833,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F186" t="n">
-        <v>215.3970184326172</v>
+        <v>168.6139831542969</v>
       </c>
       <c r="G186" t="n">
-        <v>36.22869873046875</v>
+        <v>12.73046684265137</v>
       </c>
       <c r="H186" t="n">
-        <v>147.4216156005859</v>
+        <v>305.5845031738281</v>
       </c>
       <c r="I186" t="n">
-        <v>186.7178344726562</v>
+        <v>118.7055969238281</v>
       </c>
     </row>
     <row r="187">
@@ -5862,16 +5862,16 @@
         <v>36.33333333333333</v>
       </c>
       <c r="F187" t="n">
-        <v>210.4880828857422</v>
+        <v>172.6283111572266</v>
       </c>
       <c r="G187" t="n">
-        <v>35.36265182495117</v>
+        <v>12.0283842086792</v>
       </c>
       <c r="H187" t="n">
-        <v>588.5126953125</v>
+        <v>505.5926513671875</v>
       </c>
       <c r="I187" t="n">
-        <v>298.0763854980469</v>
+        <v>125.5037994384766</v>
       </c>
     </row>
     <row r="188">
@@ -5891,16 +5891,16 @@
         <v>33.9</v>
       </c>
       <c r="F188" t="n">
-        <v>206.3302764892578</v>
+        <v>176.9868774414062</v>
       </c>
       <c r="G188" t="n">
-        <v>34.16014099121094</v>
+        <v>11.65993595123291</v>
       </c>
       <c r="H188" t="n">
-        <v>818.458740234375</v>
+        <v>633.7106323242188</v>
       </c>
       <c r="I188" t="n">
-        <v>66.43302154541016</v>
+        <v>110.640007019043</v>
       </c>
     </row>
     <row r="189">
@@ -5920,16 +5920,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F189" t="n">
-        <v>203.3289947509766</v>
+        <v>181.7257843017578</v>
       </c>
       <c r="G189" t="n">
-        <v>34.04766464233398</v>
+        <v>11.80599308013916</v>
       </c>
       <c r="H189" t="n">
-        <v>850.609619140625</v>
+        <v>679.4650268554688</v>
       </c>
       <c r="I189" t="n">
-        <v>76.78510284423828</v>
+        <v>116.1633758544922</v>
       </c>
     </row>
     <row r="190">
@@ -5949,16 +5949,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F190" t="n">
-        <v>201.4534912109375</v>
+        <v>186.8844146728516</v>
       </c>
       <c r="G190" t="n">
-        <v>34.48257446289062</v>
+        <v>12.62626934051514</v>
       </c>
       <c r="H190" t="n">
-        <v>863.1693725585938</v>
+        <v>682.1692504882812</v>
       </c>
       <c r="I190" t="n">
-        <v>84.79311370849609</v>
+        <v>143.8188323974609</v>
       </c>
     </row>
     <row r="191">
@@ -5978,16 +5978,16 @@
         <v>26.6</v>
       </c>
       <c r="F191" t="n">
-        <v>201.5978546142578</v>
+        <v>192.5053863525391</v>
       </c>
       <c r="G191" t="n">
-        <v>35.6535530090332</v>
+        <v>14.20478630065918</v>
       </c>
       <c r="H191" t="n">
-        <v>866.9050903320312</v>
+        <v>682.2772827148438</v>
       </c>
       <c r="I191" t="n">
-        <v>92.40768432617188</v>
+        <v>161.1349639892578</v>
       </c>
     </row>
     <row r="192">
@@ -6007,16 +6007,16 @@
         <v>24.16666666666666</v>
       </c>
       <c r="F192" t="n">
-        <v>204.208984375</v>
+        <v>198.6347198486328</v>
       </c>
       <c r="G192" t="n">
-        <v>35.63602447509766</v>
+        <v>16.54504203796387</v>
       </c>
       <c r="H192" t="n">
-        <v>853.739013671875</v>
+        <v>689.4354858398438</v>
       </c>
       <c r="I192" t="n">
-        <v>103.7110214233398</v>
+        <v>166.7001190185547</v>
       </c>
     </row>
     <row r="193">
@@ -6036,16 +6036,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F193" t="n">
-        <v>207.9018707275391</v>
+        <v>205.3218231201172</v>
       </c>
       <c r="G193" t="n">
-        <v>34.93981170654297</v>
+        <v>19.61257171630859</v>
       </c>
       <c r="H193" t="n">
-        <v>819.7426147460938</v>
+        <v>692.6732788085938</v>
       </c>
       <c r="I193" t="n">
-        <v>126.2306671142578</v>
+        <v>176.4232788085938</v>
       </c>
     </row>
     <row r="194">
@@ -6065,16 +6065,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F194" t="n">
-        <v>279.9027709960938</v>
+        <v>138.9378967285156</v>
       </c>
       <c r="G194" t="n">
-        <v>65.21983337402344</v>
+        <v>17.70913505554199</v>
       </c>
       <c r="H194" t="n">
-        <v>-335.7062683105469</v>
+        <v>-8.467507362365723</v>
       </c>
       <c r="I194" t="n">
-        <v>138.8748016357422</v>
+        <v>161.9538726806641</v>
       </c>
     </row>
     <row r="195">
@@ -6094,16 +6094,16 @@
         <v>55.8</v>
       </c>
       <c r="F195" t="n">
-        <v>273.9501647949219</v>
+        <v>140.9004974365234</v>
       </c>
       <c r="G195" t="n">
-        <v>61.76980209350586</v>
+        <v>17.1880054473877</v>
       </c>
       <c r="H195" t="n">
-        <v>-277.7908935546875</v>
+        <v>-3.825242280960083</v>
       </c>
       <c r="I195" t="n">
-        <v>176.3908996582031</v>
+        <v>149.9847564697266</v>
       </c>
     </row>
     <row r="196">
@@ -6123,16 +6123,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F196" t="n">
-        <v>266.9095764160156</v>
+        <v>142.9937286376953</v>
       </c>
       <c r="G196" t="n">
-        <v>57.07801055908203</v>
+        <v>16.59409332275391</v>
       </c>
       <c r="H196" t="n">
-        <v>-193.6587524414062</v>
+        <v>3.213611602783203</v>
       </c>
       <c r="I196" t="n">
-        <v>189.9521484375</v>
+        <v>138.8480377197266</v>
       </c>
     </row>
     <row r="197">
@@ -6152,16 +6152,16 @@
         <v>50.93333333333334</v>
       </c>
       <c r="F197" t="n">
-        <v>260.206298828125</v>
+        <v>145.2325897216797</v>
       </c>
       <c r="G197" t="n">
-        <v>53.77902221679688</v>
+        <v>15.92910099029541</v>
       </c>
       <c r="H197" t="n">
-        <v>-73.05464935302734</v>
+        <v>18.27093315124512</v>
       </c>
       <c r="I197" t="n">
-        <v>186.8085479736328</v>
+        <v>120.3394317626953</v>
       </c>
     </row>
     <row r="198">
@@ -6181,16 +6181,16 @@
         <v>48.5</v>
       </c>
       <c r="F198" t="n">
-        <v>253.2602081298828</v>
+        <v>147.6337280273438</v>
       </c>
       <c r="G198" t="n">
-        <v>52.71012878417969</v>
+        <v>15.19832801818848</v>
       </c>
       <c r="H198" t="n">
-        <v>29.56137657165527</v>
+        <v>45.51073837280273</v>
       </c>
       <c r="I198" t="n">
-        <v>141.4403076171875</v>
+        <v>91.94458770751953</v>
       </c>
     </row>
     <row r="199">
@@ -6210,16 +6210,16 @@
         <v>46.06666666666667</v>
       </c>
       <c r="F199" t="n">
-        <v>245.1774749755859</v>
+        <v>150.2155151367188</v>
       </c>
       <c r="G199" t="n">
-        <v>49.70066070556641</v>
+        <v>14.41263008117676</v>
       </c>
       <c r="H199" t="n">
-        <v>88.34122467041016</v>
+        <v>76.87689971923828</v>
       </c>
       <c r="I199" t="n">
-        <v>101.4264907836914</v>
+        <v>73.33306121826172</v>
       </c>
     </row>
     <row r="200">
@@ -6239,16 +6239,16 @@
         <v>43.63333333333334</v>
       </c>
       <c r="F200" t="n">
-        <v>236.0404510498047</v>
+        <v>152.9983062744141</v>
       </c>
       <c r="G200" t="n">
-        <v>44.94036865234375</v>
+        <v>13.59163665771484</v>
       </c>
       <c r="H200" t="n">
-        <v>101.6980590820312</v>
+        <v>96.95046997070312</v>
       </c>
       <c r="I200" t="n">
-        <v>92.99163818359375</v>
+        <v>89.73062896728516</v>
       </c>
     </row>
     <row r="201">
@@ -6268,16 +6268,16 @@
         <v>41.2</v>
       </c>
       <c r="F201" t="n">
-        <v>227.57568359375</v>
+        <v>156.0045318603516</v>
       </c>
       <c r="G201" t="n">
-        <v>40.70150756835938</v>
+        <v>12.76868534088135</v>
       </c>
       <c r="H201" t="n">
-        <v>103.2681274414062</v>
+        <v>115.540901184082</v>
       </c>
       <c r="I201" t="n">
-        <v>100.3506698608398</v>
+        <v>108.3776168823242</v>
       </c>
     </row>
     <row r="202">
@@ -6297,16 +6297,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F202" t="n">
-        <v>220.0338134765625</v>
+        <v>159.2589263916016</v>
       </c>
       <c r="G202" t="n">
-        <v>37.60987091064453</v>
+        <v>11.99818229675293</v>
       </c>
       <c r="H202" t="n">
-        <v>116.094352722168</v>
+        <v>181.7555389404297</v>
       </c>
       <c r="I202" t="n">
-        <v>121.9712295532227</v>
+        <v>92.01329040527344</v>
       </c>
     </row>
     <row r="203">
@@ -6326,16 +6326,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F203" t="n">
-        <v>214.0231323242188</v>
+        <v>162.7886810302734</v>
       </c>
       <c r="G203" t="n">
-        <v>35.77702331542969</v>
+        <v>11.36466979980469</v>
       </c>
       <c r="H203" t="n">
-        <v>182.1464080810547</v>
+        <v>325.2408447265625</v>
       </c>
       <c r="I203" t="n">
-        <v>207.3583068847656</v>
+        <v>111.6226348876953</v>
       </c>
     </row>
     <row r="204">
@@ -6355,16 +6355,16 @@
         <v>33.90000000000001</v>
       </c>
       <c r="F204" t="n">
-        <v>209.7356719970703</v>
+        <v>166.6237335205078</v>
       </c>
       <c r="G204" t="n">
-        <v>34.36517333984375</v>
+        <v>10.98929214477539</v>
       </c>
       <c r="H204" t="n">
-        <v>611.2871704101562</v>
+        <v>495.1990966796875</v>
       </c>
       <c r="I204" t="n">
-        <v>275.7986145019531</v>
+        <v>125.2142944335938</v>
       </c>
     </row>
     <row r="205">
@@ -6384,16 +6384,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F205" t="n">
-        <v>206.2356414794922</v>
+        <v>170.796875</v>
       </c>
       <c r="G205" t="n">
-        <v>33.66573715209961</v>
+        <v>11.02250671386719</v>
       </c>
       <c r="H205" t="n">
-        <v>805.0471801757812</v>
+        <v>616.927734375</v>
       </c>
       <c r="I205" t="n">
-        <v>77.36724090576172</v>
+        <v>95.32362365722656</v>
       </c>
     </row>
     <row r="206">
@@ -6413,16 +6413,16 @@
         <v>29.03333333333334</v>
       </c>
       <c r="F206" t="n">
-        <v>203.6834106445312</v>
+        <v>175.3440551757812</v>
       </c>
       <c r="G206" t="n">
-        <v>34.39546966552734</v>
+        <v>11.611159324646</v>
       </c>
       <c r="H206" t="n">
-        <v>831.3619995117188</v>
+        <v>664.3740844726562</v>
       </c>
       <c r="I206" t="n">
-        <v>87.76393890380859</v>
+        <v>101.1964645385742</v>
       </c>
     </row>
     <row r="207">
@@ -6442,16 +6442,16 @@
         <v>26.6</v>
       </c>
       <c r="F207" t="n">
-        <v>202.6693725585938</v>
+        <v>180.3044586181641</v>
       </c>
       <c r="G207" t="n">
-        <v>34.44705581665039</v>
+        <v>12.85261821746826</v>
       </c>
       <c r="H207" t="n">
-        <v>838.21142578125</v>
+        <v>664.1159057617188</v>
       </c>
       <c r="I207" t="n">
-        <v>100.4313201904297</v>
+        <v>134.1478729248047</v>
       </c>
     </row>
     <row r="208">
@@ -6471,16 +6471,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F208" t="n">
-        <v>203.201416015625</v>
+        <v>185.7207489013672</v>
       </c>
       <c r="G208" t="n">
-        <v>34.41960525512695</v>
+        <v>14.77650928497314</v>
       </c>
       <c r="H208" t="n">
-        <v>833.5320434570312</v>
+        <v>660.4907836914062</v>
       </c>
       <c r="I208" t="n">
-        <v>112.796760559082</v>
+        <v>158.1816558837891</v>
       </c>
     </row>
     <row r="209">
@@ -6500,16 +6500,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F209" t="n">
-        <v>205.5411376953125</v>
+        <v>191.63916015625</v>
       </c>
       <c r="G209" t="n">
-        <v>33.77140045166016</v>
+        <v>17.36909484863281</v>
       </c>
       <c r="H209" t="n">
-        <v>804.9365844726562</v>
+        <v>670.1554565429688</v>
       </c>
       <c r="I209" t="n">
-        <v>135.8826751708984</v>
+        <v>162.5646820068359</v>
       </c>
     </row>
     <row r="210">
@@ -6529,16 +6529,16 @@
         <v>19.3</v>
       </c>
       <c r="F210" t="n">
-        <v>209.4405975341797</v>
+        <v>198.1093902587891</v>
       </c>
       <c r="G210" t="n">
-        <v>33.41672134399414</v>
+        <v>20.60916519165039</v>
       </c>
       <c r="H210" t="n">
-        <v>758.1063842773438</v>
+        <v>678.9812622070312</v>
       </c>
       <c r="I210" t="n">
-        <v>148.7863159179688</v>
+        <v>168.9372100830078</v>
       </c>
     </row>
     <row r="211">
@@ -6558,16 +6558,16 @@
         <v>55.8</v>
       </c>
       <c r="F211" t="n">
-        <v>275.7020568847656</v>
+        <v>134.5699920654297</v>
       </c>
       <c r="G211" t="n">
-        <v>66.94332122802734</v>
+        <v>15.64644432067871</v>
       </c>
       <c r="H211" t="n">
-        <v>-325.0610961914062</v>
+        <v>-12.68798065185547</v>
       </c>
       <c r="I211" t="n">
-        <v>142.7651214599609</v>
+        <v>154.6984405517578</v>
       </c>
     </row>
     <row r="212">
@@ -6587,16 +6587,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F212" t="n">
-        <v>271.0199890136719</v>
+        <v>136.3952789306641</v>
       </c>
       <c r="G212" t="n">
-        <v>63.64211273193359</v>
+        <v>15.15255546569824</v>
       </c>
       <c r="H212" t="n">
-        <v>-266.0547180175781</v>
+        <v>-8.012906074523926</v>
       </c>
       <c r="I212" t="n">
-        <v>179.4459533691406</v>
+        <v>142.9657592773438</v>
       </c>
     </row>
     <row r="213">
@@ -6616,16 +6616,16 @@
         <v>50.93333333333334</v>
       </c>
       <c r="F213" t="n">
-        <v>266.033935546875</v>
+        <v>138.3478851318359</v>
       </c>
       <c r="G213" t="n">
-        <v>60.69656753540039</v>
+        <v>14.59868431091309</v>
       </c>
       <c r="H213" t="n">
-        <v>-173.8928375244141</v>
+        <v>0.0344696044921875</v>
       </c>
       <c r="I213" t="n">
-        <v>190.8163757324219</v>
+        <v>130.1739807128906</v>
       </c>
     </row>
     <row r="214">
@@ -6645,16 +6645,16 @@
         <v>48.50000000000001</v>
       </c>
       <c r="F214" t="n">
-        <v>259.8131713867188</v>
+        <v>140.4423980712891</v>
       </c>
       <c r="G214" t="n">
-        <v>58.49214172363281</v>
+        <v>13.98888683319092</v>
       </c>
       <c r="H214" t="n">
-        <v>-56.62910079956055</v>
+        <v>16.44256973266602</v>
       </c>
       <c r="I214" t="n">
-        <v>179.899169921875</v>
+        <v>108.4392547607422</v>
       </c>
     </row>
     <row r="215">
@@ -6674,16 +6674,16 @@
         <v>46.06666666666668</v>
       </c>
       <c r="F215" t="n">
-        <v>250.4752960205078</v>
+        <v>142.6949615478516</v>
       </c>
       <c r="G215" t="n">
-        <v>54.13847732543945</v>
+        <v>13.33165550231934</v>
       </c>
       <c r="H215" t="n">
-        <v>47.42737197875977</v>
+        <v>43.88338851928711</v>
       </c>
       <c r="I215" t="n">
-        <v>128.6210327148438</v>
+        <v>78.50858306884766</v>
       </c>
     </row>
     <row r="216">
@@ -6703,16 +6703,16 @@
         <v>43.63333333333334</v>
       </c>
       <c r="F216" t="n">
-        <v>241.9114532470703</v>
+        <v>145.1235198974609</v>
       </c>
       <c r="G216" t="n">
-        <v>49.81938934326172</v>
+        <v>12.64252185821533</v>
       </c>
       <c r="H216" t="n">
-        <v>99.63887786865234</v>
+        <v>75.46219635009766</v>
       </c>
       <c r="I216" t="n">
-        <v>95.30777740478516</v>
+        <v>62.83497619628906</v>
       </c>
     </row>
     <row r="217">
@@ -6732,16 +6732,16 @@
         <v>41.2</v>
       </c>
       <c r="F217" t="n">
-        <v>233.6147918701172</v>
+        <v>147.7478332519531</v>
       </c>
       <c r="G217" t="n">
-        <v>44.81846618652344</v>
+        <v>11.94773769378662</v>
       </c>
       <c r="H217" t="n">
-        <v>117.3334121704102</v>
+        <v>102.166145324707</v>
       </c>
       <c r="I217" t="n">
-        <v>86.58551788330078</v>
+        <v>82.39276885986328</v>
       </c>
     </row>
     <row r="218">
@@ -6761,16 +6761,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F218" t="n">
-        <v>225.8400726318359</v>
+        <v>150.5898895263672</v>
       </c>
       <c r="G218" t="n">
-        <v>40.60678100585938</v>
+        <v>11.28982734680176</v>
       </c>
       <c r="H218" t="n">
-        <v>120.4365463256836</v>
+        <v>134.8422088623047</v>
       </c>
       <c r="I218" t="n">
-        <v>95.77099609375</v>
+        <v>97.48954010009766</v>
       </c>
     </row>
     <row r="219">
@@ -6790,16 +6790,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F219" t="n">
-        <v>219.6179809570312</v>
+        <v>153.6738891601562</v>
       </c>
       <c r="G219" t="n">
-        <v>38.11809158325195</v>
+        <v>10.73448848724365</v>
       </c>
       <c r="H219" t="n">
-        <v>143.1966705322266</v>
+        <v>212.4642333984375</v>
       </c>
       <c r="I219" t="n">
-        <v>125.5500869750977</v>
+        <v>76.95767211914062</v>
       </c>
     </row>
     <row r="220">
@@ -6819,16 +6819,16 @@
         <v>33.90000000000001</v>
       </c>
       <c r="F220" t="n">
-        <v>214.2867431640625</v>
+        <v>157.0265960693359</v>
       </c>
       <c r="G220" t="n">
-        <v>35.81209182739258</v>
+        <v>10.37639904022217</v>
       </c>
       <c r="H220" t="n">
-        <v>219.3427124023438</v>
+        <v>343.6151123046875</v>
       </c>
       <c r="I220" t="n">
-        <v>225.7280731201172</v>
+        <v>111.0533676147461</v>
       </c>
     </row>
     <row r="221">
@@ -6848,16 +6848,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F221" t="n">
-        <v>209.9592742919922</v>
+        <v>160.6774749755859</v>
       </c>
       <c r="G221" t="n">
-        <v>33.09665679931641</v>
+        <v>10.33679389953613</v>
       </c>
       <c r="H221" t="n">
-        <v>623.854736328125</v>
+        <v>484.2674255371094</v>
       </c>
       <c r="I221" t="n">
-        <v>239.6612854003906</v>
+        <v>135.1854248046875</v>
       </c>
     </row>
     <row r="222">
@@ -6877,16 +6877,16 @@
         <v>29.03333333333334</v>
       </c>
       <c r="F222" t="n">
-        <v>206.3324584960938</v>
+        <v>164.6589813232422</v>
       </c>
       <c r="G222" t="n">
-        <v>32.09770584106445</v>
+        <v>10.74357795715332</v>
       </c>
       <c r="H222" t="n">
-        <v>782.71533203125</v>
+        <v>592.7470703125</v>
       </c>
       <c r="I222" t="n">
-        <v>85.52548217773438</v>
+        <v>90.97056579589844</v>
       </c>
     </row>
     <row r="223">
@@ -6906,16 +6906,16 @@
         <v>26.60000000000001</v>
       </c>
       <c r="F223" t="n">
-        <v>204.2129974365234</v>
+        <v>169.0067138671875</v>
       </c>
       <c r="G223" t="n">
-        <v>32.17044830322266</v>
+        <v>11.69699859619141</v>
       </c>
       <c r="H223" t="n">
-        <v>803.4474487304688</v>
+        <v>641.3137817382812</v>
       </c>
       <c r="I223" t="n">
-        <v>102.7413330078125</v>
+        <v>79.26914978027344</v>
       </c>
     </row>
     <row r="224">
@@ -6935,16 +6935,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F224" t="n">
-        <v>204.068115234375</v>
+        <v>173.7597503662109</v>
       </c>
       <c r="G224" t="n">
-        <v>31.98895835876465</v>
+        <v>13.24648952484131</v>
       </c>
       <c r="H224" t="n">
-        <v>804.9862670898438</v>
+        <v>640.4166259765625</v>
       </c>
       <c r="I224" t="n">
-        <v>116.6600570678711</v>
+        <v>115.8893127441406</v>
       </c>
     </row>
     <row r="225">
@@ -6964,16 +6964,16 @@
         <v>21.73333333333334</v>
       </c>
       <c r="F225" t="n">
-        <v>204.8336029052734</v>
+        <v>178.960693359375</v>
       </c>
       <c r="G225" t="n">
-        <v>31.91872406005859</v>
+        <v>15.39891242980957</v>
       </c>
       <c r="H225" t="n">
-        <v>791.2460327148438</v>
+        <v>634.3211059570312</v>
       </c>
       <c r="I225" t="n">
-        <v>131.6094360351562</v>
+        <v>147.7062377929688</v>
       </c>
     </row>
     <row r="226">
@@ -6993,16 +6993,16 @@
         <v>19.3</v>
       </c>
       <c r="F226" t="n">
-        <v>207.1294403076172</v>
+        <v>184.6558227539062</v>
       </c>
       <c r="G226" t="n">
-        <v>32.12824630737305</v>
+        <v>18.14557456970215</v>
       </c>
       <c r="H226" t="n">
-        <v>745.4924926757812</v>
+        <v>646.0122680664062</v>
       </c>
       <c r="I226" t="n">
-        <v>146.5706329345703</v>
+        <v>156.5482330322266</v>
       </c>
     </row>
     <row r="227">
@@ -7022,16 +7022,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F227" t="n">
-        <v>210.9969024658203</v>
+        <v>190.8951416015625</v>
       </c>
       <c r="G227" t="n">
-        <v>32.65419769287109</v>
+        <v>21.48380661010742</v>
       </c>
       <c r="H227" t="n">
-        <v>674.6480102539062</v>
+        <v>660.9718627929688</v>
       </c>
       <c r="I227" t="n">
-        <v>159.5069580078125</v>
+        <v>162.9292907714844</v>
       </c>
     </row>
     <row r="228">
@@ -7051,16 +7051,16 @@
         <v>14.43333333333335</v>
       </c>
       <c r="F228" t="n">
-        <v>215.6810455322266</v>
+        <v>197.7321624755859</v>
       </c>
       <c r="G228" t="n">
-        <v>33.14591217041016</v>
+        <v>25.4257755279541</v>
       </c>
       <c r="H228" t="n">
-        <v>629.9163818359375</v>
+        <v>670.2559204101562</v>
       </c>
       <c r="I228" t="n">
-        <v>138.9185028076172</v>
+        <v>167.3315124511719</v>
       </c>
     </row>
     <row r="229">
@@ -7080,16 +7080,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F229" t="n">
-        <v>275.1256713867188</v>
+        <v>130.3369140625</v>
       </c>
       <c r="G229" t="n">
-        <v>69.54235076904297</v>
+        <v>13.80323028564453</v>
       </c>
       <c r="H229" t="n">
-        <v>-314.649658203125</v>
+        <v>-17.3156909942627</v>
       </c>
       <c r="I229" t="n">
-        <v>146.3272705078125</v>
+        <v>147.717529296875</v>
       </c>
     </row>
     <row r="230">
@@ -7109,16 +7109,16 @@
         <v>50.93333333333334</v>
       </c>
       <c r="F230" t="n">
-        <v>270.6947631835938</v>
+        <v>132.0297546386719</v>
       </c>
       <c r="G230" t="n">
-        <v>67.13046264648438</v>
+        <v>13.34702110290527</v>
       </c>
       <c r="H230" t="n">
-        <v>-251.5088043212891</v>
+        <v>-12.13828563690186</v>
       </c>
       <c r="I230" t="n">
-        <v>180.5864562988281</v>
+        <v>135.2187194824219</v>
       </c>
     </row>
     <row r="231">
@@ -7138,16 +7138,16 @@
         <v>48.5</v>
       </c>
       <c r="F231" t="n">
-        <v>263.6122131347656</v>
+        <v>133.8459625244141</v>
       </c>
       <c r="G231" t="n">
-        <v>62.20609664916992</v>
+        <v>12.84412574768066</v>
       </c>
       <c r="H231" t="n">
-        <v>-151.9150390625</v>
+        <v>-3.297032594680786</v>
       </c>
       <c r="I231" t="n">
-        <v>188.7487487792969</v>
+        <v>120.4127044677734</v>
       </c>
     </row>
     <row r="232">
@@ -7167,16 +7167,16 @@
         <v>46.06666666666667</v>
       </c>
       <c r="F232" t="n">
-        <v>255.1714019775391</v>
+        <v>135.7995910644531</v>
       </c>
       <c r="G232" t="n">
-        <v>57.81267547607422</v>
+        <v>12.301194190979</v>
       </c>
       <c r="H232" t="n">
-        <v>-35.91515731811523</v>
+        <v>13.51733493804932</v>
       </c>
       <c r="I232" t="n">
-        <v>167.6835479736328</v>
+        <v>96.1099853515625</v>
       </c>
     </row>
     <row r="233">
@@ -7196,16 +7196,16 @@
         <v>43.63333333333334</v>
       </c>
       <c r="F233" t="n">
-        <v>246.8002471923828</v>
+        <v>137.9063262939453</v>
       </c>
       <c r="G233" t="n">
-        <v>53.82530212402344</v>
+        <v>11.73037147521973</v>
       </c>
       <c r="H233" t="n">
-        <v>64.92963409423828</v>
+        <v>40.32598876953125</v>
       </c>
       <c r="I233" t="n">
-        <v>117.2310104370117</v>
+        <v>66.35140991210938</v>
       </c>
     </row>
     <row r="234">
@@ -7225,16 +7225,16 @@
         <v>41.2</v>
       </c>
       <c r="F234" t="n">
-        <v>238.9756011962891</v>
+        <v>140.1834869384766</v>
       </c>
       <c r="G234" t="n">
-        <v>49.37404632568359</v>
+        <v>11.15218067169189</v>
       </c>
       <c r="H234" t="n">
-        <v>112.5067749023438</v>
+        <v>73.37085723876953</v>
       </c>
       <c r="I234" t="n">
-        <v>87.63119506835938</v>
+        <v>53.34236907958984</v>
       </c>
     </row>
     <row r="235">
@@ -7254,16 +7254,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F235" t="n">
-        <v>231.9161987304688</v>
+        <v>142.6503601074219</v>
       </c>
       <c r="G235" t="n">
-        <v>44.8244514465332</v>
+        <v>10.59952926635742</v>
       </c>
       <c r="H235" t="n">
-        <v>131.0682525634766</v>
+        <v>108.1818237304688</v>
       </c>
       <c r="I235" t="n">
-        <v>81.42996978759766</v>
+        <v>73.73600006103516</v>
       </c>
     </row>
     <row r="236">
@@ -7283,16 +7283,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F236" t="n">
-        <v>224.9706573486328</v>
+        <v>145.3283233642578</v>
       </c>
       <c r="G236" t="n">
-        <v>40.10805130004883</v>
+        <v>10.12289905548096</v>
       </c>
       <c r="H236" t="n">
-        <v>138.9317779541016</v>
+        <v>155.1251983642578</v>
       </c>
       <c r="I236" t="n">
-        <v>87.85650634765625</v>
+        <v>85.16797637939453</v>
       </c>
     </row>
     <row r="237">
@@ -7312,16 +7312,16 @@
         <v>33.90000000000001</v>
       </c>
       <c r="F237" t="n">
-        <v>218.4254302978516</v>
+        <v>148.2410125732422</v>
       </c>
       <c r="G237" t="n">
-        <v>36.26629638671875</v>
+        <v>9.79515552520752</v>
       </c>
       <c r="H237" t="n">
-        <v>164.7950286865234</v>
+        <v>240.7410278320312</v>
       </c>
       <c r="I237" t="n">
-        <v>137.1206970214844</v>
+        <v>65.18712615966797</v>
       </c>
     </row>
     <row r="238">
@@ -7341,16 +7341,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F238" t="n">
-        <v>213.9860076904297</v>
+        <v>151.4146575927734</v>
       </c>
       <c r="G238" t="n">
-        <v>33.7366828918457</v>
+        <v>9.711627006530762</v>
       </c>
       <c r="H238" t="n">
-        <v>257.2301635742188</v>
+        <v>358.2226257324219</v>
       </c>
       <c r="I238" t="n">
-        <v>219.6916656494141</v>
+        <v>112.4114227294922</v>
       </c>
     </row>
     <row r="239">
@@ -7370,16 +7370,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F239" t="n">
-        <v>210.4455108642578</v>
+        <v>154.8782196044922</v>
       </c>
       <c r="G239" t="n">
-        <v>31.26572608947754</v>
+        <v>9.979144096374512</v>
       </c>
       <c r="H239" t="n">
-        <v>647.3038330078125</v>
+        <v>475.3293151855469</v>
       </c>
       <c r="I239" t="n">
-        <v>182.0552062988281</v>
+        <v>143.2374420166016</v>
       </c>
     </row>
     <row r="240">
@@ -7399,16 +7399,16 @@
         <v>26.6</v>
       </c>
       <c r="F240" t="n">
-        <v>207.8101348876953</v>
+        <v>158.6636810302734</v>
       </c>
       <c r="G240" t="n">
-        <v>30.12210845947266</v>
+        <v>10.69276714324951</v>
       </c>
       <c r="H240" t="n">
-        <v>750.7484741210938</v>
+        <v>568.8934326171875</v>
       </c>
       <c r="I240" t="n">
-        <v>90.7554931640625</v>
+        <v>100.7780380249023</v>
       </c>
     </row>
     <row r="241">
@@ -7428,16 +7428,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F241" t="n">
-        <v>205.8385467529297</v>
+        <v>162.8063812255859</v>
       </c>
       <c r="G241" t="n">
-        <v>29.80713081359863</v>
+        <v>11.91360759735107</v>
       </c>
       <c r="H241" t="n">
-        <v>768.5200805664062</v>
+        <v>614.7158813476562</v>
       </c>
       <c r="I241" t="n">
-        <v>107.259033203125</v>
+        <v>63.66105270385742</v>
       </c>
     </row>
     <row r="242">
@@ -7457,16 +7457,16 @@
         <v>21.73333333333334</v>
       </c>
       <c r="F242" t="n">
-        <v>205.7528839111328</v>
+        <v>167.3450469970703</v>
       </c>
       <c r="G242" t="n">
-        <v>29.76961517333984</v>
+        <v>13.66624450683594</v>
       </c>
       <c r="H242" t="n">
-        <v>763.2969360351562</v>
+        <v>613.2902221679688</v>
       </c>
       <c r="I242" t="n">
-        <v>121.2027969360352</v>
+        <v>91.02753448486328</v>
       </c>
     </row>
     <row r="243">
@@ -7486,16 +7486,16 @@
         <v>19.3</v>
       </c>
       <c r="F243" t="n">
-        <v>206.8300628662109</v>
+        <v>172.3221588134766</v>
       </c>
       <c r="G243" t="n">
-        <v>30.06895637512207</v>
+        <v>15.95519638061523</v>
       </c>
       <c r="H243" t="n">
-        <v>728.7346801757812</v>
+        <v>605.4925537109375</v>
       </c>
       <c r="I243" t="n">
-        <v>129.5583343505859</v>
+        <v>127.6554794311523</v>
       </c>
     </row>
     <row r="244">
@@ -7515,16 +7515,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F244" t="n">
-        <v>208.9482421875</v>
+        <v>177.7840728759766</v>
       </c>
       <c r="G244" t="n">
-        <v>30.93917655944824</v>
+        <v>18.78403663635254</v>
       </c>
       <c r="H244" t="n">
-        <v>646.9513549804688</v>
+        <v>618.4667358398438</v>
       </c>
       <c r="I244" t="n">
-        <v>139.7906646728516</v>
+        <v>143.9145965576172</v>
       </c>
     </row>
     <row r="245">
@@ -7544,16 +7544,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F245" t="n">
-        <v>212.3672943115234</v>
+        <v>183.7809600830078</v>
       </c>
       <c r="G245" t="n">
-        <v>31.9494800567627</v>
+        <v>22.16658782958984</v>
       </c>
       <c r="H245" t="n">
-        <v>599.2448120117188</v>
+        <v>638.9006958007812</v>
       </c>
       <c r="I245" t="n">
-        <v>134.25341796875</v>
+        <v>155.0141448974609</v>
       </c>
     </row>
     <row r="246">
@@ -7573,16 +7573,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F246" t="n">
-        <v>217.1186981201172</v>
+        <v>190.3667449951172</v>
       </c>
       <c r="G246" t="n">
-        <v>33.07722854614258</v>
+        <v>26.13010215759277</v>
       </c>
       <c r="H246" t="n">
-        <v>568.5595703125</v>
+        <v>653.7637329101562</v>
       </c>
       <c r="I246" t="n">
-        <v>108.349723815918</v>
+        <v>162.2449951171875</v>
       </c>
     </row>
     <row r="247">
@@ -7602,16 +7602,16 @@
         <v>9.566666666666681</v>
       </c>
       <c r="F247" t="n">
-        <v>222.8511505126953</v>
+        <v>197.5987701416016</v>
       </c>
       <c r="G247" t="n">
-        <v>36.02811813354492</v>
+        <v>30.71393394470215</v>
       </c>
       <c r="H247" t="n">
-        <v>545.1460571289062</v>
+        <v>662.2069091796875</v>
       </c>
       <c r="I247" t="n">
-        <v>84.73332214355469</v>
+        <v>163.9878997802734</v>
       </c>
     </row>
     <row r="248">
@@ -7631,16 +7631,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F248" t="n">
-        <v>272.8092956542969</v>
+        <v>126.2980651855469</v>
       </c>
       <c r="G248" t="n">
-        <v>70.83766937255859</v>
+        <v>12.18283653259277</v>
       </c>
       <c r="H248" t="n">
-        <v>-301.6566467285156</v>
+        <v>-21.78987884521484</v>
       </c>
       <c r="I248" t="n">
-        <v>152.3823699951172</v>
+        <v>140.3986511230469</v>
       </c>
     </row>
     <row r="249">
@@ -7660,16 +7660,16 @@
         <v>48.5</v>
       </c>
       <c r="F249" t="n">
-        <v>265.9215393066406</v>
+        <v>127.8639602661133</v>
       </c>
       <c r="G249" t="n">
-        <v>65.77106475830078</v>
+        <v>11.77255249023438</v>
       </c>
       <c r="H249" t="n">
-        <v>-232.2681121826172</v>
+        <v>-15.99912738800049</v>
       </c>
       <c r="I249" t="n">
-        <v>180.5618133544922</v>
+        <v>126.9984741210938</v>
       </c>
     </row>
     <row r="250">
@@ -7689,16 +7689,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F250" t="n">
-        <v>258.173583984375</v>
+        <v>129.5486602783203</v>
       </c>
       <c r="G250" t="n">
-        <v>60.27265548706055</v>
+        <v>11.32900047302246</v>
       </c>
       <c r="H250" t="n">
-        <v>-129.0356140136719</v>
+        <v>-6.799068450927734</v>
       </c>
       <c r="I250" t="n">
-        <v>185.6164398193359</v>
+        <v>110.2029190063477</v>
       </c>
     </row>
     <row r="251">
@@ -7718,16 +7718,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F251" t="n">
-        <v>249.6131591796875</v>
+        <v>131.3657073974609</v>
       </c>
       <c r="G251" t="n">
-        <v>55.07060623168945</v>
+        <v>10.86165428161621</v>
       </c>
       <c r="H251" t="n">
-        <v>-9.668540954589844</v>
+        <v>9.519612312316895</v>
       </c>
       <c r="I251" t="n">
-        <v>152.3737945556641</v>
+        <v>84.85890197753906</v>
       </c>
     </row>
     <row r="252">
@@ -7747,16 +7747,16 @@
         <v>41.2</v>
       </c>
       <c r="F252" t="n">
-        <v>242.0380096435547</v>
+        <v>133.3301544189453</v>
       </c>
       <c r="G252" t="n">
-        <v>49.91555023193359</v>
+        <v>10.38634395599365</v>
       </c>
       <c r="H252" t="n">
-        <v>80.79986572265625</v>
+        <v>35.58115768432617</v>
       </c>
       <c r="I252" t="n">
-        <v>108.2589950561523</v>
+        <v>56.75078201293945</v>
       </c>
     </row>
     <row r="253">
@@ -7776,16 +7776,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F253" t="n">
-        <v>235.9010162353516</v>
+        <v>135.4587860107422</v>
       </c>
       <c r="G253" t="n">
-        <v>46.01349639892578</v>
+        <v>9.928305625915527</v>
       </c>
       <c r="H253" t="n">
-        <v>125.3603897094727</v>
+        <v>71.4537353515625</v>
       </c>
       <c r="I253" t="n">
-        <v>80.84743499755859</v>
+        <v>45.31280517578125</v>
       </c>
     </row>
     <row r="254">
@@ -7805,16 +7805,16 @@
         <v>36.33333333333333</v>
       </c>
       <c r="F254" t="n">
-        <v>229.9936676025391</v>
+        <v>137.7702789306641</v>
       </c>
       <c r="G254" t="n">
-        <v>42.48482131958008</v>
+        <v>9.525911331176758</v>
       </c>
       <c r="H254" t="n">
-        <v>141.4829254150391</v>
+        <v>115.3987503051758</v>
       </c>
       <c r="I254" t="n">
-        <v>76.83815765380859</v>
+        <v>64.56087493896484</v>
       </c>
     </row>
     <row r="255">
@@ -7834,16 +7834,16 @@
         <v>33.9</v>
       </c>
       <c r="F255" t="n">
-        <v>223.1265258789062</v>
+        <v>140.2853546142578</v>
       </c>
       <c r="G255" t="n">
-        <v>38.25756072998047</v>
+        <v>9.234503746032715</v>
       </c>
       <c r="H255" t="n">
-        <v>162.4693756103516</v>
+        <v>175.8766021728516</v>
       </c>
       <c r="I255" t="n">
-        <v>91.70376586914062</v>
+        <v>73.00180053710938</v>
       </c>
     </row>
     <row r="256">
@@ -7863,16 +7863,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F256" t="n">
-        <v>217.6635131835938</v>
+        <v>143.0271453857422</v>
       </c>
       <c r="G256" t="n">
-        <v>34.36198425292969</v>
+        <v>9.127582550048828</v>
       </c>
       <c r="H256" t="n">
-        <v>181.1112823486328</v>
+        <v>264.920654296875</v>
       </c>
       <c r="I256" t="n">
-        <v>139.3520050048828</v>
+        <v>59.3777961730957</v>
       </c>
     </row>
     <row r="257">
@@ -7892,16 +7892,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F257" t="n">
-        <v>213.7380218505859</v>
+        <v>146.0211791992188</v>
       </c>
       <c r="G257" t="n">
-        <v>31.50775909423828</v>
+        <v>9.291471481323242</v>
       </c>
       <c r="H257" t="n">
-        <v>302.2366027832031</v>
+        <v>367.9337158203125</v>
       </c>
       <c r="I257" t="n">
-        <v>209.6302947998047</v>
+        <v>110.1674270629883</v>
       </c>
     </row>
     <row r="258">
@@ -7921,16 +7921,16 @@
         <v>26.6</v>
       </c>
       <c r="F258" t="n">
-        <v>211.7001800537109</v>
+        <v>149.2958831787109</v>
       </c>
       <c r="G258" t="n">
-        <v>30.17478561401367</v>
+        <v>9.810775756835938</v>
       </c>
       <c r="H258" t="n">
-        <v>647.6653442382812</v>
+        <v>468.9375305175781</v>
       </c>
       <c r="I258" t="n">
-        <v>122.4987335205078</v>
+        <v>142.9441223144531</v>
       </c>
     </row>
     <row r="259">
@@ -7950,16 +7950,16 @@
         <v>24.16666666666666</v>
       </c>
       <c r="F259" t="n">
-        <v>209.8923797607422</v>
+        <v>152.8827819824219</v>
       </c>
       <c r="G259" t="n">
-        <v>28.72844505310059</v>
+        <v>10.75055027008057</v>
       </c>
       <c r="H259" t="n">
-        <v>705.7267456054688</v>
+        <v>550.384765625</v>
       </c>
       <c r="I259" t="n">
-        <v>83.81739807128906</v>
+        <v>109.062370300293</v>
       </c>
     </row>
     <row r="260">
@@ -7979,16 +7979,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F260" t="n">
-        <v>207.9838256835938</v>
+        <v>156.8166961669922</v>
       </c>
       <c r="G260" t="n">
-        <v>28.35159683227539</v>
+        <v>12.14817810058594</v>
       </c>
       <c r="H260" t="n">
-        <v>711.8385620117188</v>
+        <v>590.7097778320312</v>
       </c>
       <c r="I260" t="n">
-        <v>94.26078033447266</v>
+        <v>64.05206298828125</v>
       </c>
     </row>
     <row r="261">
@@ -8008,16 +8008,16 @@
         <v>19.3</v>
       </c>
       <c r="F261" t="n">
-        <v>207.4626617431641</v>
+        <v>161.1360626220703</v>
       </c>
       <c r="G261" t="n">
-        <v>28.28117179870605</v>
+        <v>14.0204439163208</v>
       </c>
       <c r="H261" t="n">
-        <v>688.7169799804688</v>
+        <v>586.8358764648438</v>
       </c>
       <c r="I261" t="n">
-        <v>107.2193450927734</v>
+        <v>69.58683013916016</v>
       </c>
     </row>
     <row r="262">
@@ -8037,16 +8037,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F262" t="n">
-        <v>208.2051849365234</v>
+        <v>165.8831024169922</v>
       </c>
       <c r="G262" t="n">
-        <v>28.60628128051758</v>
+        <v>16.37788963317871</v>
       </c>
       <c r="H262" t="n">
-        <v>629.5663452148438</v>
+        <v>576.9114990234375</v>
       </c>
       <c r="I262" t="n">
-        <v>115.1284408569336</v>
+        <v>102.8114852905273</v>
       </c>
     </row>
     <row r="263">
@@ -8066,16 +8066,16 @@
         <v>14.43333333333333</v>
       </c>
       <c r="F263" t="n">
-        <v>210.2143707275391</v>
+        <v>171.1041412353516</v>
       </c>
       <c r="G263" t="n">
-        <v>29.96145820617676</v>
+        <v>19.23642539978027</v>
       </c>
       <c r="H263" t="n">
-        <v>565.7805786132812</v>
+        <v>589.377685546875</v>
       </c>
       <c r="I263" t="n">
-        <v>115.3279418945312</v>
+        <v>124.3226623535156</v>
       </c>
     </row>
     <row r="264">
@@ -8095,16 +8095,16 @@
         <v>12</v>
       </c>
       <c r="F264" t="n">
-        <v>213.345947265625</v>
+        <v>176.8495330810547</v>
       </c>
       <c r="G264" t="n">
-        <v>31.66486358642578</v>
+        <v>22.62283515930176</v>
       </c>
       <c r="H264" t="n">
-        <v>534.7368774414062</v>
+        <v>613.9559326171875</v>
       </c>
       <c r="I264" t="n">
-        <v>80.66118621826172</v>
+        <v>141.528564453125</v>
       </c>
     </row>
     <row r="265">
@@ -8124,16 +8124,16 @@
         <v>9.566666666666674</v>
       </c>
       <c r="F265" t="n">
-        <v>218.1403350830078</v>
+        <v>183.1735076904297</v>
       </c>
       <c r="G265" t="n">
-        <v>33.70358657836914</v>
+        <v>26.57563972473145</v>
       </c>
       <c r="H265" t="n">
-        <v>516.2332763671875</v>
+        <v>634.1205444335938</v>
       </c>
       <c r="I265" t="n">
-        <v>60.22658157348633</v>
+        <v>154.6570434570312</v>
       </c>
     </row>
     <row r="266">
@@ -8153,16 +8153,16 @@
         <v>7.133333333333344</v>
       </c>
       <c r="F266" t="n">
-        <v>223.5687408447266</v>
+        <v>190.1340484619141</v>
       </c>
       <c r="G266" t="n">
-        <v>37.20609664916992</v>
+        <v>31.14345932006836</v>
       </c>
       <c r="H266" t="n">
-        <v>512.8673706054688</v>
+        <v>646.8145141601562</v>
       </c>
       <c r="I266" t="n">
-        <v>53.89485168457031</v>
+        <v>160.2177581787109</v>
       </c>
     </row>
     <row r="267">
@@ -8182,16 +8182,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F267" t="n">
-        <v>266.3128967285156</v>
+        <v>122.4960327148438</v>
       </c>
       <c r="G267" t="n">
-        <v>66.9666748046875</v>
+        <v>10.77618885040283</v>
       </c>
       <c r="H267" t="n">
-        <v>-286.2253723144531</v>
+        <v>-25.7661190032959</v>
       </c>
       <c r="I267" t="n">
-        <v>158.1336975097656</v>
+        <v>132.6969146728516</v>
       </c>
     </row>
     <row r="268">
@@ -8211,16 +8211,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F268" t="n">
-        <v>258.8682250976562</v>
+        <v>123.9408493041992</v>
       </c>
       <c r="G268" t="n">
-        <v>60.86765670776367</v>
+        <v>10.41754150390625</v>
       </c>
       <c r="H268" t="n">
-        <v>-210.0484619140625</v>
+        <v>-19.53891181945801</v>
       </c>
       <c r="I268" t="n">
-        <v>179.8955841064453</v>
+        <v>118.4802627563477</v>
       </c>
     </row>
     <row r="269">
@@ -8240,16 +8240,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F269" t="n">
-        <v>250.9698333740234</v>
+        <v>125.4993591308594</v>
       </c>
       <c r="G269" t="n">
-        <v>54.84399032592773</v>
+        <v>10.03888988494873</v>
       </c>
       <c r="H269" t="n">
-        <v>-107.3103561401367</v>
+        <v>-10.56818199157715</v>
       </c>
       <c r="I269" t="n">
-        <v>178.2896423339844</v>
+        <v>100.2976837158203</v>
       </c>
     </row>
     <row r="270">
@@ -8269,16 +8269,16 @@
         <v>41.2</v>
       </c>
       <c r="F270" t="n">
-        <v>243.6726837158203</v>
+        <v>127.1845703125</v>
       </c>
       <c r="G270" t="n">
-        <v>49.24357223510742</v>
+        <v>9.652366638183594</v>
       </c>
       <c r="H270" t="n">
-        <v>18.45772552490234</v>
+        <v>4.646201610565186</v>
       </c>
       <c r="I270" t="n">
-        <v>137.8160247802734</v>
+        <v>75.87677764892578</v>
       </c>
     </row>
     <row r="271">
@@ -8298,16 +8298,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F271" t="n">
-        <v>237.4287719726562</v>
+        <v>129.0109405517578</v>
       </c>
       <c r="G271" t="n">
-        <v>45.71560287475586</v>
+        <v>9.277140617370605</v>
       </c>
       <c r="H271" t="n">
-        <v>95.33776092529297</v>
+        <v>30.37552642822266</v>
       </c>
       <c r="I271" t="n">
-        <v>99.36248779296875</v>
+        <v>50.08915710449219</v>
       </c>
     </row>
     <row r="272">
@@ -8327,16 +8327,16 @@
         <v>36.33333333333333</v>
       </c>
       <c r="F272" t="n">
-        <v>231.9030914306641</v>
+        <v>130.9946746826172</v>
       </c>
       <c r="G272" t="n">
-        <v>43.08449554443359</v>
+        <v>8.942116737365723</v>
       </c>
       <c r="H272" t="n">
-        <v>135.0147247314453</v>
+        <v>70.32160186767578</v>
       </c>
       <c r="I272" t="n">
-        <v>76.34352874755859</v>
+        <v>39.03908157348633</v>
       </c>
     </row>
     <row r="273">
@@ -8356,16 +8356,16 @@
         <v>33.89999999999999</v>
       </c>
       <c r="F273" t="n">
-        <v>226.5287628173828</v>
+        <v>133.1537322998047</v>
       </c>
       <c r="G273" t="n">
-        <v>40.30768203735352</v>
+        <v>8.688830375671387</v>
       </c>
       <c r="H273" t="n">
-        <v>153.8292083740234</v>
+        <v>124.0901260375977</v>
       </c>
       <c r="I273" t="n">
-        <v>69.23956298828125</v>
+        <v>55.65790557861328</v>
       </c>
     </row>
     <row r="274">
@@ -8385,16 +8385,16 @@
         <v>31.46666666666666</v>
       </c>
       <c r="F274" t="n">
-        <v>221.3184356689453</v>
+        <v>135.5083160400391</v>
       </c>
       <c r="G274" t="n">
-        <v>36.83746337890625</v>
+        <v>8.573103904724121</v>
       </c>
       <c r="H274" t="n">
-        <v>174.4920196533203</v>
+        <v>196.38916015625</v>
       </c>
       <c r="I274" t="n">
-        <v>96.30042266845703</v>
+        <v>62.64123153686523</v>
       </c>
     </row>
     <row r="275">
@@ -8414,16 +8414,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F275" t="n">
-        <v>216.7142333984375</v>
+        <v>138.0807342529297</v>
       </c>
       <c r="G275" t="n">
-        <v>33.17829513549805</v>
+        <v>8.662793159484863</v>
       </c>
       <c r="H275" t="n">
-        <v>197.7065887451172</v>
+        <v>283.7961730957031</v>
       </c>
       <c r="I275" t="n">
-        <v>139.7595062255859</v>
+        <v>57.36660766601562</v>
       </c>
     </row>
     <row r="276">
@@ -8443,16 +8443,16 @@
         <v>26.6</v>
       </c>
       <c r="F276" t="n">
-        <v>213.6135711669922</v>
+        <v>140.8960113525391</v>
       </c>
       <c r="G276" t="n">
-        <v>30.42621612548828</v>
+        <v>9.029532432556152</v>
       </c>
       <c r="H276" t="n">
-        <v>350.2518310546875</v>
+        <v>373.1669921875</v>
       </c>
       <c r="I276" t="n">
-        <v>201.4286041259766</v>
+        <v>102.8466644287109</v>
       </c>
     </row>
     <row r="277">
@@ -8472,16 +8472,16 @@
         <v>24.16666666666666</v>
       </c>
       <c r="F277" t="n">
-        <v>211.5980834960938</v>
+        <v>143.9818878173828</v>
       </c>
       <c r="G277" t="n">
-        <v>29.2678279876709</v>
+        <v>9.736081123352051</v>
       </c>
       <c r="H277" t="n">
-        <v>626.4324951171875</v>
+        <v>464.5818786621094</v>
       </c>
       <c r="I277" t="n">
-        <v>76.78251647949219</v>
+        <v>134.6153259277344</v>
       </c>
     </row>
     <row r="278">
@@ -8501,16 +8501,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F278" t="n">
-        <v>210.4574432373047</v>
+        <v>147.3693084716797</v>
       </c>
       <c r="G278" t="n">
-        <v>28.50025177001953</v>
+        <v>10.82686805725098</v>
       </c>
       <c r="H278" t="n">
-        <v>647.3206176757812</v>
+        <v>537.989501953125</v>
       </c>
       <c r="I278" t="n">
-        <v>63.40187835693359</v>
+        <v>108.2356948852539</v>
       </c>
     </row>
     <row r="279">
@@ -8530,16 +8530,16 @@
         <v>19.3</v>
       </c>
       <c r="F279" t="n">
-        <v>209.0921478271484</v>
+        <v>151.0925598144531</v>
       </c>
       <c r="G279" t="n">
-        <v>28.60128021240234</v>
+        <v>12.32841014862061</v>
       </c>
       <c r="H279" t="n">
-        <v>633.2747802734375</v>
+        <v>573.035888671875</v>
       </c>
       <c r="I279" t="n">
-        <v>69.43874359130859</v>
+        <v>68.49449920654297</v>
       </c>
     </row>
     <row r="280">
@@ -8559,16 +8559,16 @@
         <v>16.86666666666666</v>
       </c>
       <c r="F280" t="n">
-        <v>208.5322418212891</v>
+        <v>155.1896820068359</v>
       </c>
       <c r="G280" t="n">
-        <v>28.46467208862305</v>
+        <v>14.25815677642822</v>
       </c>
       <c r="H280" t="n">
-        <v>596.7306518554688</v>
+        <v>565.267578125</v>
       </c>
       <c r="I280" t="n">
-        <v>83.21033477783203</v>
+        <v>59.22715759277344</v>
       </c>
     </row>
     <row r="281">
@@ -8588,16 +8588,16 @@
         <v>14.43333333333333</v>
       </c>
       <c r="F281" t="n">
-        <v>208.8848114013672</v>
+        <v>159.7026214599609</v>
       </c>
       <c r="G281" t="n">
-        <v>28.95162391662598</v>
+        <v>16.63449859619141</v>
       </c>
       <c r="H281" t="n">
-        <v>547.4490966796875</v>
+        <v>552.0578002929688</v>
       </c>
       <c r="I281" t="n">
-        <v>84.00801086425781</v>
+        <v>80.57453918457031</v>
       </c>
     </row>
     <row r="282">
@@ -8617,16 +8617,16 @@
         <v>12</v>
       </c>
       <c r="F282" t="n">
-        <v>210.2435760498047</v>
+        <v>164.6774749755859</v>
       </c>
       <c r="G282" t="n">
-        <v>29.85523414611816</v>
+        <v>19.48356056213379</v>
       </c>
       <c r="H282" t="n">
-        <v>504.2613220214844</v>
+        <v>561.6408081054688</v>
       </c>
       <c r="I282" t="n">
-        <v>52.45820617675781</v>
+        <v>103.0868682861328</v>
       </c>
     </row>
     <row r="283">
@@ -8646,16 +8646,16 @@
         <v>9.566666666666666</v>
       </c>
       <c r="F283" t="n">
-        <v>213.6213989257812</v>
+        <v>170.1646728515625</v>
       </c>
       <c r="G283" t="n">
-        <v>32.18145751953125</v>
+        <v>22.8419246673584</v>
       </c>
       <c r="H283" t="n">
-        <v>493.2850036621094</v>
+        <v>587.9025268554688</v>
       </c>
       <c r="I283" t="n">
-        <v>39.94243240356445</v>
+        <v>123.5936508178711</v>
       </c>
     </row>
     <row r="284">
@@ -8675,16 +8675,16 @@
         <v>7.133333333333336</v>
       </c>
       <c r="F284" t="n">
-        <v>218.0876617431641</v>
+        <v>176.21875</v>
       </c>
       <c r="G284" t="n">
-        <v>35.64518356323242</v>
+        <v>26.75669860839844</v>
       </c>
       <c r="H284" t="n">
-        <v>490.9861755371094</v>
+        <v>612.311767578125</v>
       </c>
       <c r="I284" t="n">
-        <v>37.49812698364258</v>
+        <v>142.7000579833984</v>
       </c>
     </row>
     <row r="285">
@@ -8704,16 +8704,16 @@
         <v>4.700000000000006</v>
       </c>
       <c r="F285" t="n">
-        <v>223.3204498291016</v>
+        <v>182.8982391357422</v>
       </c>
       <c r="G285" t="n">
-        <v>39.87052154541016</v>
+        <v>31.28381538391113</v>
       </c>
       <c r="H285" t="n">
-        <v>492.9255676269531</v>
+        <v>629.3692016601562</v>
       </c>
       <c r="I285" t="n">
-        <v>38.57372283935547</v>
+        <v>153.7493591308594</v>
       </c>
     </row>
     <row r="286">
@@ -8733,16 +8733,16 @@
         <v>2.266666666666668</v>
       </c>
       <c r="F286" t="n">
-        <v>228.1787261962891</v>
+        <v>190.2649688720703</v>
       </c>
       <c r="G286" t="n">
-        <v>44.87563705444336</v>
+        <v>36.48519134521484</v>
       </c>
       <c r="H286" t="n">
-        <v>496.4690246582031</v>
+        <v>639.6249389648438</v>
       </c>
       <c r="I286" t="n">
-        <v>40.92809295654297</v>
+        <v>157.9649963378906</v>
       </c>
     </row>
     <row r="287">
@@ -8762,16 +8762,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F287" t="n">
-        <v>258.0234069824219</v>
+        <v>118.9574279785156</v>
       </c>
       <c r="G287" t="n">
-        <v>61.04750442504883</v>
+        <v>9.564249038696289</v>
       </c>
       <c r="H287" t="n">
-        <v>-270.4538269042969</v>
+        <v>-29.17549133300781</v>
       </c>
       <c r="I287" t="n">
-        <v>160.0240478515625</v>
+        <v>124.7720108032227</v>
       </c>
     </row>
     <row r="288">
@@ -8791,16 +8791,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F288" t="n">
-        <v>251.6586151123047</v>
+        <v>120.2871627807617</v>
       </c>
       <c r="G288" t="n">
-        <v>55.36359024047852</v>
+        <v>9.260431289672852</v>
       </c>
       <c r="H288" t="n">
-        <v>-185.3812713623047</v>
+        <v>-22.7966365814209</v>
       </c>
       <c r="I288" t="n">
-        <v>179.3331756591797</v>
+        <v>109.8495559692383</v>
       </c>
     </row>
     <row r="289">
@@ -8820,16 +8820,16 @@
         <v>41.2</v>
       </c>
       <c r="F289" t="n">
-        <v>244.6201629638672</v>
+        <v>121.72509765625</v>
       </c>
       <c r="G289" t="n">
-        <v>49.67901229858398</v>
+        <v>8.949226379394531</v>
       </c>
       <c r="H289" t="n">
-        <v>-80.63070678710938</v>
+        <v>-14.69264316558838</v>
       </c>
       <c r="I289" t="n">
-        <v>166.0547943115234</v>
+        <v>91.44654846191406</v>
       </c>
     </row>
     <row r="290">
@@ -8849,16 +8849,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F290" t="n">
-        <v>238.1795654296875</v>
+        <v>123.2836608886719</v>
       </c>
       <c r="G290" t="n">
-        <v>46.05146408081055</v>
+        <v>8.645092010498047</v>
       </c>
       <c r="H290" t="n">
-        <v>40.92327880859375</v>
+        <v>-0.8554210662841797</v>
       </c>
       <c r="I290" t="n">
-        <v>126.3307723999023</v>
+        <v>69.57601165771484</v>
       </c>
     </row>
     <row r="291">
@@ -8878,16 +8878,16 @@
         <v>36.33333333333333</v>
       </c>
       <c r="F291" t="n">
-        <v>232.0944213867188</v>
+        <v>124.9767227172852</v>
       </c>
       <c r="G291" t="n">
-        <v>43.38466644287109</v>
+        <v>8.369656562805176</v>
       </c>
       <c r="H291" t="n">
-        <v>108.9243545532227</v>
+        <v>25.24773406982422</v>
       </c>
       <c r="I291" t="n">
-        <v>89.34650421142578</v>
+        <v>45.95155334472656</v>
       </c>
     </row>
     <row r="292">
@@ -8907,16 +8907,16 @@
         <v>33.9</v>
       </c>
       <c r="F292" t="n">
-        <v>227.2570953369141</v>
+        <v>126.81982421875</v>
       </c>
       <c r="G292" t="n">
-        <v>41.11132431030273</v>
+        <v>8.153860092163086</v>
       </c>
       <c r="H292" t="n">
-        <v>142.9589691162109</v>
+        <v>70.37583923339844</v>
       </c>
       <c r="I292" t="n">
-        <v>72.06262969970703</v>
+        <v>34.65840530395508</v>
       </c>
     </row>
     <row r="293">
@@ -8936,16 +8936,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F293" t="n">
-        <v>222.7420501708984</v>
+        <v>128.8303375244141</v>
       </c>
       <c r="G293" t="n">
-        <v>38.75327682495117</v>
+        <v>8.039547920227051</v>
       </c>
       <c r="H293" t="n">
-        <v>167.5683746337891</v>
+        <v>134.3190155029297</v>
       </c>
       <c r="I293" t="n">
-        <v>69.74757385253906</v>
+        <v>47.67323684692383</v>
       </c>
     </row>
     <row r="294">
@@ -8965,16 +8965,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F294" t="n">
-        <v>219.1334686279297</v>
+        <v>131.0276947021484</v>
       </c>
       <c r="G294" t="n">
-        <v>36.6103515625</v>
+        <v>8.078919410705566</v>
       </c>
       <c r="H294" t="n">
-        <v>182.4855804443359</v>
+        <v>215.9227447509766</v>
       </c>
       <c r="I294" t="n">
-        <v>97.00835418701172</v>
+        <v>55.37851715087891</v>
       </c>
     </row>
     <row r="295">
@@ -8994,16 +8994,16 @@
         <v>26.6</v>
       </c>
       <c r="F295" t="n">
-        <v>215.4837188720703</v>
+        <v>133.4335479736328</v>
       </c>
       <c r="G295" t="n">
-        <v>33.27793502807617</v>
+        <v>8.330281257629395</v>
       </c>
       <c r="H295" t="n">
-        <v>215.2812652587891</v>
+        <v>297.2396850585938</v>
       </c>
       <c r="I295" t="n">
-        <v>144.06298828125</v>
+        <v>54.53668594360352</v>
       </c>
     </row>
     <row r="296">
@@ -9023,16 +9023,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F296" t="n">
-        <v>212.5929718017578</v>
+        <v>136.0722045898438</v>
       </c>
       <c r="G296" t="n">
-        <v>31.07599449157715</v>
+        <v>8.849878311157227</v>
       </c>
       <c r="H296" t="n">
-        <v>393.7390441894531</v>
+        <v>375.0749816894531</v>
       </c>
       <c r="I296" t="n">
-        <v>182.333740234375</v>
+        <v>92.0455322265625</v>
       </c>
     </row>
     <row r="297">
@@ -9052,16 +9052,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F297" t="n">
-        <v>210.0881500244141</v>
+        <v>138.9707794189453</v>
       </c>
       <c r="G297" t="n">
-        <v>29.64307975769043</v>
+        <v>9.683736801147461</v>
       </c>
       <c r="H297" t="n">
-        <v>596.1793823242188</v>
+        <v>461.5420227050781</v>
       </c>
       <c r="I297" t="n">
-        <v>49.94564056396484</v>
+        <v>120.9975967407227</v>
       </c>
     </row>
     <row r="298">
@@ -9081,16 +9081,16 @@
         <v>19.3</v>
       </c>
       <c r="F298" t="n">
-        <v>209.1727752685547</v>
+        <v>142.1594848632812</v>
       </c>
       <c r="G298" t="n">
-        <v>29.41103172302246</v>
+        <v>10.8645076751709</v>
       </c>
       <c r="H298" t="n">
-        <v>591.3478393554688</v>
+        <v>530.3497314453125</v>
       </c>
       <c r="I298" t="n">
-        <v>40.87985992431641</v>
+        <v>99.71630096435547</v>
       </c>
     </row>
     <row r="299">
@@ -9110,16 +9110,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F299" t="n">
-        <v>208.6563110351562</v>
+        <v>145.6720581054688</v>
       </c>
       <c r="G299" t="n">
-        <v>29.88331413269043</v>
+        <v>12.41543483734131</v>
       </c>
       <c r="H299" t="n">
-        <v>572.3573608398438</v>
+        <v>561.7076416015625</v>
       </c>
       <c r="I299" t="n">
-        <v>38.74883651733398</v>
+        <v>69.06951904296875</v>
       </c>
     </row>
     <row r="300">
@@ -9139,16 +9139,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F300" t="n">
-        <v>208.5646362304688</v>
+        <v>149.5459747314453</v>
       </c>
       <c r="G300" t="n">
-        <v>30.52369689941406</v>
+        <v>14.35751056671143</v>
       </c>
       <c r="H300" t="n">
-        <v>543.2156982421875</v>
+        <v>550.8385009765625</v>
       </c>
       <c r="I300" t="n">
-        <v>41.12526702880859</v>
+        <v>57.05571365356445</v>
       </c>
     </row>
     <row r="301">
@@ -9168,16 +9168,16 @@
         <v>12</v>
       </c>
       <c r="F301" t="n">
-        <v>208.9727935791016</v>
+        <v>153.8228302001953</v>
       </c>
       <c r="G301" t="n">
-        <v>31.40362548828125</v>
+        <v>16.7162914276123</v>
       </c>
       <c r="H301" t="n">
-        <v>505.7254943847656</v>
+        <v>533.1484985351562</v>
       </c>
       <c r="I301" t="n">
-        <v>43.38766860961914</v>
+        <v>64.12153625488281</v>
       </c>
     </row>
     <row r="302">
@@ -9197,16 +9197,16 @@
         <v>9.566666666666666</v>
       </c>
       <c r="F302" t="n">
-        <v>210.1782989501953</v>
+        <v>158.5484008789062</v>
       </c>
       <c r="G302" t="n">
-        <v>32.03512954711914</v>
+        <v>19.5257740020752</v>
       </c>
       <c r="H302" t="n">
-        <v>480.2337341308594</v>
+        <v>537.962646484375</v>
       </c>
       <c r="I302" t="n">
-        <v>37.02128219604492</v>
+        <v>83.94312286376953</v>
       </c>
     </row>
     <row r="303">
@@ -9226,16 +9226,16 @@
         <v>7.133333333333336</v>
       </c>
       <c r="F303" t="n">
-        <v>213.5619964599609</v>
+        <v>163.7730865478516</v>
       </c>
       <c r="G303" t="n">
-        <v>34.7289924621582</v>
+        <v>22.82994079589844</v>
       </c>
       <c r="H303" t="n">
-        <v>478.2568664550781</v>
+        <v>563.2682495117188</v>
       </c>
       <c r="I303" t="n">
-        <v>34.56528854370117</v>
+        <v>104.8982543945312</v>
       </c>
     </row>
     <row r="304">
@@ -9255,16 +9255,16 @@
         <v>4.700000000000006</v>
       </c>
       <c r="F304" t="n">
-        <v>217.6083526611328</v>
+        <v>169.5516357421875</v>
       </c>
       <c r="G304" t="n">
-        <v>38.59535598754883</v>
+        <v>26.68251800537109</v>
       </c>
       <c r="H304" t="n">
-        <v>480.2018127441406</v>
+        <v>589.9946899414062</v>
       </c>
       <c r="I304" t="n">
-        <v>34.96687698364258</v>
+        <v>127.8807220458984</v>
       </c>
     </row>
     <row r="305">
@@ -9284,16 +9284,16 @@
         <v>2.266666666666675</v>
       </c>
       <c r="F305" t="n">
-        <v>222.2264862060547</v>
+        <v>175.9430084228516</v>
       </c>
       <c r="G305" t="n">
-        <v>43.32723236083984</v>
+        <v>31.1453800201416</v>
       </c>
       <c r="H305" t="n">
-        <v>484.0249328613281</v>
+        <v>610.5641479492188</v>
       </c>
       <c r="I305" t="n">
-        <v>36.3835563659668</v>
+        <v>144.0191497802734</v>
       </c>
     </row>
     <row r="306">
@@ -9313,16 +9313,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F306" t="n">
-        <v>250.4227905273438</v>
+        <v>115.6950302124023</v>
       </c>
       <c r="G306" t="n">
-        <v>56.01548385620117</v>
+        <v>8.522297859191895</v>
       </c>
       <c r="H306" t="n">
-        <v>-250.8626861572266</v>
+        <v>-32.02054977416992</v>
       </c>
       <c r="I306" t="n">
-        <v>161.3537139892578</v>
+        <v>116.6630172729492</v>
       </c>
     </row>
     <row r="307">
@@ -9342,16 +9342,16 @@
         <v>41.2</v>
       </c>
       <c r="F307" t="n">
-        <v>245.0492095947266</v>
+        <v>116.9157791137695</v>
       </c>
       <c r="G307" t="n">
-        <v>51.14690780639648</v>
+        <v>8.274112701416016</v>
       </c>
       <c r="H307" t="n">
-        <v>-159.4420623779297</v>
+        <v>-25.92055702209473</v>
       </c>
       <c r="I307" t="n">
-        <v>176.0755310058594</v>
+        <v>101.3426513671875</v>
       </c>
     </row>
     <row r="308">
@@ -9371,16 +9371,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F308" t="n">
-        <v>238.7163238525391</v>
+        <v>118.2389450073242</v>
       </c>
       <c r="G308" t="n">
-        <v>46.76424026489258</v>
+        <v>8.030128479003906</v>
       </c>
       <c r="H308" t="n">
-        <v>-49.94670486450195</v>
+        <v>-19.22818946838379</v>
       </c>
       <c r="I308" t="n">
-        <v>152.4818115234375</v>
+        <v>84.18597412109375</v>
       </c>
     </row>
     <row r="309">
@@ -9400,16 +9400,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F309" t="n">
-        <v>233.2692413330078</v>
+        <v>119.676399230957</v>
       </c>
       <c r="G309" t="n">
-        <v>44.31204223632812</v>
+        <v>7.806453704833984</v>
       </c>
       <c r="H309" t="n">
-        <v>59.48787307739258</v>
+        <v>-6.779435634613037</v>
       </c>
       <c r="I309" t="n">
-        <v>116.0368041992188</v>
+        <v>65.52755737304688</v>
       </c>
     </row>
     <row r="310">
@@ -9429,16 +9429,16 @@
         <v>33.90000000000001</v>
       </c>
       <c r="F310" t="n">
-        <v>228.1898651123047</v>
+        <v>121.2414169311523</v>
       </c>
       <c r="G310" t="n">
-        <v>42.36129760742188</v>
+        <v>7.626041412353516</v>
       </c>
       <c r="H310" t="n">
-        <v>118.136116027832</v>
+        <v>20.56977653503418</v>
       </c>
       <c r="I310" t="n">
-        <v>83.67074584960938</v>
+        <v>43.54756164550781</v>
       </c>
     </row>
     <row r="311">
@@ -9458,16 +9458,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F311" t="n">
-        <v>223.6421356201172</v>
+        <v>122.948860168457</v>
       </c>
       <c r="G311" t="n">
-        <v>40.38310623168945</v>
+        <v>7.520002841949463</v>
       </c>
       <c r="H311" t="n">
-        <v>149.5861053466797</v>
+        <v>71.87315368652344</v>
       </c>
       <c r="I311" t="n">
-        <v>69.5169677734375</v>
+        <v>31.99489402770996</v>
       </c>
     </row>
     <row r="312">
@@ -9487,16 +9487,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F312" t="n">
-        <v>219.6360626220703</v>
+        <v>124.8154296875</v>
       </c>
       <c r="G312" t="n">
-        <v>38.2168083190918</v>
+        <v>7.527851581573486</v>
       </c>
       <c r="H312" t="n">
-        <v>175.593017578125</v>
+        <v>146.001953125</v>
       </c>
       <c r="I312" t="n">
-        <v>77.67542266845703</v>
+        <v>41.15207672119141</v>
       </c>
     </row>
     <row r="313">
@@ -9516,16 +9516,16 @@
         <v>26.6</v>
       </c>
       <c r="F313" t="n">
-        <v>216.3102416992188</v>
+        <v>126.8598251342773</v>
       </c>
       <c r="G313" t="n">
-        <v>36.2444953918457</v>
+        <v>7.695573806762695</v>
       </c>
       <c r="H313" t="n">
-        <v>186.9082641601562</v>
+        <v>233.8344268798828</v>
       </c>
       <c r="I313" t="n">
-        <v>96.46045684814453</v>
+        <v>51.24871444702148</v>
       </c>
     </row>
     <row r="314">
@@ -9545,16 +9545,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F314" t="n">
-        <v>213.3588104248047</v>
+        <v>129.1029968261719</v>
       </c>
       <c r="G314" t="n">
-        <v>34.18376159667969</v>
+        <v>8.070842742919922</v>
       </c>
       <c r="H314" t="n">
-        <v>237.1182861328125</v>
+        <v>306.0699768066406</v>
       </c>
       <c r="I314" t="n">
-        <v>140.9167327880859</v>
+        <v>48.84949111938477</v>
       </c>
     </row>
     <row r="315">
@@ -9574,16 +9574,16 @@
         <v>21.73333333333334</v>
       </c>
       <c r="F315" t="n">
-        <v>210.7856597900391</v>
+        <v>131.5684967041016</v>
       </c>
       <c r="G315" t="n">
-        <v>32.59722137451172</v>
+        <v>8.69701099395752</v>
       </c>
       <c r="H315" t="n">
-        <v>449.2889709472656</v>
+        <v>374.779296875</v>
       </c>
       <c r="I315" t="n">
-        <v>122.5261459350586</v>
+        <v>79.9488525390625</v>
       </c>
     </row>
     <row r="316">
@@ -9603,16 +9603,16 @@
         <v>19.3</v>
       </c>
       <c r="F316" t="n">
-        <v>208.9084014892578</v>
+        <v>134.2826538085938</v>
       </c>
       <c r="G316" t="n">
-        <v>31.56536483764648</v>
+        <v>9.609014511108398</v>
       </c>
       <c r="H316" t="n">
-        <v>568.0941162109375</v>
+        <v>459.174072265625</v>
       </c>
       <c r="I316" t="n">
-        <v>34.06451797485352</v>
+        <v>105.0101776123047</v>
       </c>
     </row>
     <row r="317">
@@ -9632,16 +9632,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F317" t="n">
-        <v>208.0704956054688</v>
+        <v>137.2749938964844</v>
       </c>
       <c r="G317" t="n">
-        <v>31.4618968963623</v>
+        <v>10.83376407623291</v>
       </c>
       <c r="H317" t="n">
-        <v>562.3321533203125</v>
+        <v>525.7443237304688</v>
       </c>
       <c r="I317" t="n">
-        <v>21.57963180541992</v>
+        <v>87.3399658203125</v>
       </c>
     </row>
     <row r="318">
@@ -9661,16 +9661,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F318" t="n">
-        <v>207.8040008544922</v>
+        <v>140.5785675048828</v>
       </c>
       <c r="G318" t="n">
-        <v>32.10615921020508</v>
+        <v>12.39453315734863</v>
       </c>
       <c r="H318" t="n">
-        <v>551.9498901367188</v>
+        <v>554.7732543945312</v>
       </c>
       <c r="I318" t="n">
-        <v>24.76848030090332</v>
+        <v>66.64444732666016</v>
       </c>
     </row>
     <row r="319">
@@ -9690,16 +9690,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F319" t="n">
-        <v>207.9751434326172</v>
+        <v>144.2302093505859</v>
       </c>
       <c r="G319" t="n">
-        <v>33.20252990722656</v>
+        <v>14.31633377075195</v>
       </c>
       <c r="H319" t="n">
-        <v>531.7240600585938</v>
+        <v>542.9878540039062</v>
       </c>
       <c r="I319" t="n">
-        <v>27.77346611022949</v>
+        <v>56.89250946044922</v>
       </c>
     </row>
     <row r="320">
@@ -9719,16 +9719,16 @@
         <v>9.566666666666674</v>
       </c>
       <c r="F320" t="n">
-        <v>208.6349334716797</v>
+        <v>148.2709808349609</v>
       </c>
       <c r="G320" t="n">
-        <v>34.5439338684082</v>
+        <v>16.63036155700684</v>
       </c>
       <c r="H320" t="n">
-        <v>496.9423828125</v>
+        <v>520.848876953125</v>
       </c>
       <c r="I320" t="n">
-        <v>39.21340942382812</v>
+        <v>53.93877792358398</v>
       </c>
     </row>
     <row r="321">
@@ -9748,16 +9748,16 @@
         <v>7.133333333333336</v>
       </c>
       <c r="F321" t="n">
-        <v>209.8285064697266</v>
+        <v>152.7463836669922</v>
       </c>
       <c r="G321" t="n">
-        <v>35.74977874755859</v>
+        <v>19.37655448913574</v>
       </c>
       <c r="H321" t="n">
-        <v>473.9171142578125</v>
+        <v>519.3121948242188</v>
       </c>
       <c r="I321" t="n">
-        <v>36.32852172851562</v>
+        <v>67.45977020263672</v>
       </c>
     </row>
     <row r="322">
@@ -9777,16 +9777,16 @@
         <v>4.700000000000006</v>
       </c>
       <c r="F322" t="n">
-        <v>213.4298858642578</v>
+        <v>157.7065277099609</v>
       </c>
       <c r="G322" t="n">
-        <v>38.82231140136719</v>
+        <v>22.60443115234375</v>
       </c>
       <c r="H322" t="n">
-        <v>472.7652282714844</v>
+        <v>541.7355346679688</v>
       </c>
       <c r="I322" t="n">
-        <v>34.26328277587891</v>
+        <v>86.52243804931641</v>
       </c>
     </row>
     <row r="323">
@@ -9806,16 +9806,16 @@
         <v>2.266666666666675</v>
       </c>
       <c r="F323" t="n">
-        <v>216.9155731201172</v>
+        <v>163.2062377929688</v>
       </c>
       <c r="G323" t="n">
-        <v>42.57384490966797</v>
+        <v>26.37289047241211</v>
       </c>
       <c r="H323" t="n">
-        <v>476.051025390625</v>
+        <v>569.03515625</v>
       </c>
       <c r="I323" t="n">
-        <v>34.12065887451172</v>
+        <v>111.8886489868164</v>
       </c>
     </row>
     <row r="324">
@@ -9835,16 +9835,16 @@
         <v>41.2</v>
       </c>
       <c r="F324" t="n">
-        <v>242.5187377929688</v>
+        <v>112.7107238769531</v>
       </c>
       <c r="G324" t="n">
-        <v>51.97734451293945</v>
+        <v>7.624358654022217</v>
       </c>
       <c r="H324" t="n">
-        <v>-222.8820343017578</v>
+        <v>-34.40034484863281</v>
       </c>
       <c r="I324" t="n">
-        <v>166.6881561279297</v>
+        <v>108.3360900878906</v>
       </c>
     </row>
     <row r="325">
@@ -9864,16 +9864,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F325" t="n">
-        <v>238.4858551025391</v>
+        <v>113.8286514282227</v>
       </c>
       <c r="G325" t="n">
-        <v>48.37268447875977</v>
+        <v>7.43062686920166</v>
       </c>
       <c r="H325" t="n">
-        <v>-132.5932312011719</v>
+        <v>-29.10959434509277</v>
       </c>
       <c r="I325" t="n">
-        <v>168.5515899658203</v>
+        <v>93.24312591552734</v>
       </c>
     </row>
     <row r="326">
@@ -9893,16 +9893,16 @@
         <v>36.33333333333333</v>
       </c>
       <c r="F326" t="n">
-        <v>233.784912109375</v>
+        <v>115.0431213378906</v>
       </c>
       <c r="G326" t="n">
-        <v>45.67770004272461</v>
+        <v>7.251240730285645</v>
       </c>
       <c r="H326" t="n">
-        <v>-18.68227386474609</v>
+        <v>-24.21907615661621</v>
       </c>
       <c r="I326" t="n">
-        <v>138.7186431884766</v>
+        <v>78.64812469482422</v>
       </c>
     </row>
     <row r="327">
@@ -9922,16 +9922,16 @@
         <v>33.9</v>
       </c>
       <c r="F327" t="n">
-        <v>228.869140625</v>
+        <v>116.365364074707</v>
       </c>
       <c r="G327" t="n">
-        <v>43.95957946777344</v>
+        <v>7.103223323822021</v>
       </c>
       <c r="H327" t="n">
-        <v>72.46058654785156</v>
+        <v>-12.95201873779297</v>
       </c>
       <c r="I327" t="n">
-        <v>107.9196166992188</v>
+        <v>62.83248138427734</v>
       </c>
     </row>
     <row r="328">
@@ -9951,16 +9951,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F328" t="n">
-        <v>224.6238403320312</v>
+        <v>117.8080444335938</v>
       </c>
       <c r="G328" t="n">
-        <v>42.59180068969727</v>
+        <v>7.009609222412109</v>
       </c>
       <c r="H328" t="n">
-        <v>123.543830871582</v>
+        <v>16.6254940032959</v>
       </c>
       <c r="I328" t="n">
-        <v>80.90449523925781</v>
+        <v>42.11636352539062</v>
       </c>
     </row>
     <row r="329">
@@ -9980,16 +9980,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F329" t="n">
-        <v>220.3030395507812</v>
+        <v>119.385383605957</v>
       </c>
       <c r="G329" t="n">
-        <v>40.68488693237305</v>
+        <v>7.000002861022949</v>
       </c>
       <c r="H329" t="n">
-        <v>154.4216461181641</v>
+        <v>74.99131011962891</v>
       </c>
       <c r="I329" t="n">
-        <v>69.36534881591797</v>
+        <v>30.50884246826172</v>
       </c>
     </row>
     <row r="330">
@@ -10009,16 +10009,16 @@
         <v>26.6</v>
       </c>
       <c r="F330" t="n">
-        <v>216.3778686523438</v>
+        <v>121.1133499145508</v>
       </c>
       <c r="G330" t="n">
-        <v>38.85558319091797</v>
+        <v>7.109855651855469</v>
       </c>
       <c r="H330" t="n">
-        <v>178.9345245361328</v>
+        <v>158.9558258056641</v>
       </c>
       <c r="I330" t="n">
-        <v>82.43656158447266</v>
+        <v>36.72158050537109</v>
       </c>
     </row>
     <row r="331">
@@ -10038,16 +10038,16 @@
         <v>24.16666666666666</v>
       </c>
       <c r="F331" t="n">
-        <v>213.0828247070312</v>
+        <v>123.0099411010742</v>
       </c>
       <c r="G331" t="n">
-        <v>37.06228256225586</v>
+        <v>7.377909660339355</v>
       </c>
       <c r="H331" t="n">
-        <v>189.9738922119141</v>
+        <v>249.5939483642578</v>
       </c>
       <c r="I331" t="n">
-        <v>97.02262878417969</v>
+        <v>48.68109893798828</v>
       </c>
     </row>
     <row r="332">
@@ -10067,16 +10067,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F332" t="n">
-        <v>210.6956329345703</v>
+        <v>125.0952835083008</v>
       </c>
       <c r="G332" t="n">
-        <v>36.01919174194336</v>
+        <v>7.842248439788818</v>
       </c>
       <c r="H332" t="n">
-        <v>269.7614135742188</v>
+        <v>311.4363708496094</v>
       </c>
       <c r="I332" t="n">
-        <v>132.0449829101562</v>
+        <v>40.93706512451172</v>
       </c>
     </row>
     <row r="333">
@@ -10096,16 +10096,16 @@
         <v>19.3</v>
       </c>
       <c r="F333" t="n">
-        <v>209.0567474365234</v>
+        <v>127.3921890258789</v>
       </c>
       <c r="G333" t="n">
-        <v>35.3614616394043</v>
+        <v>8.536648750305176</v>
       </c>
       <c r="H333" t="n">
-        <v>495.1161804199219</v>
+        <v>373.0823974609375</v>
       </c>
       <c r="I333" t="n">
-        <v>88.75990295410156</v>
+        <v>68.10903167724609</v>
       </c>
     </row>
     <row r="334">
@@ -10125,16 +10125,16 @@
         <v>16.86666666666666</v>
       </c>
       <c r="F334" t="n">
-        <v>207.8727416992188</v>
+        <v>129.9261627197266</v>
       </c>
       <c r="G334" t="n">
-        <v>35.22021484375</v>
+        <v>9.48929500579834</v>
       </c>
       <c r="H334" t="n">
-        <v>549.543701171875</v>
+        <v>456.9554443359375</v>
       </c>
       <c r="I334" t="n">
-        <v>23.86585235595703</v>
+        <v>89.02012634277344</v>
       </c>
     </row>
     <row r="335">
@@ -10154,16 +10154,16 @@
         <v>14.43333333333333</v>
       </c>
       <c r="F335" t="n">
-        <v>207.3141021728516</v>
+        <v>132.7259521484375</v>
       </c>
       <c r="G335" t="n">
-        <v>35.10508346557617</v>
+        <v>10.72459506988525</v>
       </c>
       <c r="H335" t="n">
-        <v>552.1051635742188</v>
+        <v>522.692138671875</v>
       </c>
       <c r="I335" t="n">
-        <v>15.12012004852295</v>
+        <v>74.53103637695312</v>
       </c>
     </row>
     <row r="336">
@@ -10183,16 +10183,16 @@
         <v>12</v>
       </c>
       <c r="F336" t="n">
-        <v>206.7682037353516</v>
+        <v>135.8238067626953</v>
       </c>
       <c r="G336" t="n">
-        <v>35.42916488647461</v>
+        <v>12.26698684692383</v>
       </c>
       <c r="H336" t="n">
-        <v>546.5526733398438</v>
+        <v>550.2600708007812</v>
       </c>
       <c r="I336" t="n">
-        <v>21.07264709472656</v>
+        <v>63.31546783447266</v>
       </c>
     </row>
     <row r="337">
@@ -10212,16 +10212,16 @@
         <v>9.56666666666667</v>
       </c>
       <c r="F337" t="n">
-        <v>206.8133544921875</v>
+        <v>139.2558441162109</v>
       </c>
       <c r="G337" t="n">
-        <v>36.858154296875</v>
+        <v>14.14490127563477</v>
       </c>
       <c r="H337" t="n">
-        <v>533.4177856445312</v>
+        <v>539.2526245117188</v>
       </c>
       <c r="I337" t="n">
-        <v>25.41164207458496</v>
+        <v>56.31390762329102</v>
       </c>
     </row>
     <row r="338">
@@ -10241,16 +10241,16 @@
         <v>7.133333333333336</v>
       </c>
       <c r="F338" t="n">
-        <v>207.216796875</v>
+        <v>143.0625</v>
       </c>
       <c r="G338" t="n">
-        <v>38.54455184936523</v>
+        <v>16.39375114440918</v>
       </c>
       <c r="H338" t="n">
-        <v>500.5184326171875</v>
+        <v>514.655517578125</v>
       </c>
       <c r="I338" t="n">
-        <v>36.79556274414062</v>
+        <v>48.40251159667969</v>
       </c>
     </row>
     <row r="339">
@@ -10270,16 +10270,16 @@
         <v>4.699999999999999</v>
       </c>
       <c r="F339" t="n">
-        <v>208.9799957275391</v>
+        <v>147.2887725830078</v>
       </c>
       <c r="G339" t="n">
-        <v>39.90362930297852</v>
+        <v>19.05773735046387</v>
       </c>
       <c r="H339" t="n">
-        <v>474.120361328125</v>
+        <v>505.6789855957031</v>
       </c>
       <c r="I339" t="n">
-        <v>37.67672348022461</v>
+        <v>55.28130340576172</v>
       </c>
     </row>
     <row r="340">
@@ -10299,16 +10299,16 @@
         <v>2.266666666666668</v>
       </c>
       <c r="F340" t="n">
-        <v>212.368408203125</v>
+        <v>151.9844512939453</v>
       </c>
       <c r="G340" t="n">
-        <v>43.42050552368164</v>
+        <v>22.19054412841797</v>
       </c>
       <c r="H340" t="n">
-        <v>471.0693664550781</v>
+        <v>523.4656372070312</v>
       </c>
       <c r="I340" t="n">
-        <v>35.4974365234375</v>
+        <v>68.94221496582031</v>
       </c>
     </row>
     <row r="341">
@@ -10328,16 +10328,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F341" t="n">
-        <v>235.7004241943359</v>
+        <v>109.9983444213867</v>
       </c>
       <c r="G341" t="n">
-        <v>50.43144226074219</v>
+        <v>6.846392631530762</v>
       </c>
       <c r="H341" t="n">
-        <v>-194.7806243896484</v>
+        <v>-36.51168441772461</v>
       </c>
       <c r="I341" t="n">
-        <v>166.9799499511719</v>
+        <v>99.79259490966797</v>
       </c>
     </row>
     <row r="342">
@@ -10357,16 +10357,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F342" t="n">
-        <v>232.7036590576172</v>
+        <v>111.0196762084961</v>
       </c>
       <c r="G342" t="n">
-        <v>47.70158767700195</v>
+        <v>6.704375267028809</v>
       </c>
       <c r="H342" t="n">
-        <v>-101.9239120483398</v>
+        <v>-32.5507926940918</v>
       </c>
       <c r="I342" t="n">
-        <v>157.0661926269531</v>
+        <v>85.85317993164062</v>
       </c>
     </row>
     <row r="343">
@@ -10386,16 +10386,16 @@
         <v>33.9</v>
       </c>
       <c r="F343" t="n">
-        <v>228.6469268798828</v>
+        <v>112.1316223144531</v>
       </c>
       <c r="G343" t="n">
-        <v>45.57286834716797</v>
+        <v>6.585226535797119</v>
       </c>
       <c r="H343" t="n">
-        <v>9.228988647460938</v>
+        <v>-29.70121002197266</v>
       </c>
       <c r="I343" t="n">
-        <v>127.2395248413086</v>
+        <v>74.50406646728516</v>
       </c>
     </row>
     <row r="344">
@@ -10415,16 +10415,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F344" t="n">
-        <v>224.1840667724609</v>
+        <v>113.3448104858398</v>
       </c>
       <c r="G344" t="n">
-        <v>44.35203170776367</v>
+        <v>6.50602912902832</v>
       </c>
       <c r="H344" t="n">
-        <v>84.134521484375</v>
+        <v>-19.16805076599121</v>
       </c>
       <c r="I344" t="n">
-        <v>97.98484039306641</v>
+        <v>60.63244247436523</v>
       </c>
     </row>
     <row r="345">
@@ -10444,16 +10444,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F345" t="n">
-        <v>220.065185546875</v>
+        <v>114.671272277832</v>
       </c>
       <c r="G345" t="n">
-        <v>43.09515762329102</v>
+        <v>6.488844871520996</v>
       </c>
       <c r="H345" t="n">
-        <v>127.6874465942383</v>
+        <v>13.67374324798584</v>
       </c>
       <c r="I345" t="n">
-        <v>78.02149200439453</v>
+        <v>41.10750579833984</v>
       </c>
     </row>
     <row r="346">
@@ -10473,16 +10473,16 @@
         <v>26.6</v>
       </c>
       <c r="F346" t="n">
-        <v>216.1381378173828</v>
+        <v>116.1245498657227</v>
       </c>
       <c r="G346" t="n">
-        <v>41.49455642700195</v>
+        <v>6.560625553131104</v>
       </c>
       <c r="H346" t="n">
-        <v>160.6006622314453</v>
+        <v>79.85688018798828</v>
       </c>
       <c r="I346" t="n">
-        <v>72.14150238037109</v>
+        <v>29.54121398925781</v>
       </c>
     </row>
     <row r="347">
@@ -10502,16 +10502,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F347" t="n">
-        <v>212.7058868408203</v>
+        <v>117.7199172973633</v>
       </c>
       <c r="G347" t="n">
-        <v>39.99622344970703</v>
+        <v>6.751903533935547</v>
       </c>
       <c r="H347" t="n">
-        <v>180.4990234375</v>
+        <v>172.8391265869141</v>
       </c>
       <c r="I347" t="n">
-        <v>84.17677307128906</v>
+        <v>35.00118255615234</v>
       </c>
     </row>
     <row r="348">
@@ -10531,16 +10531,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F348" t="n">
-        <v>209.9169769287109</v>
+        <v>119.4745712280273</v>
       </c>
       <c r="G348" t="n">
-        <v>38.91702270507812</v>
+        <v>7.094481468200684</v>
       </c>
       <c r="H348" t="n">
-        <v>193.9114837646484</v>
+        <v>262.8047180175781</v>
       </c>
       <c r="I348" t="n">
-        <v>97.68582916259766</v>
+        <v>45.66238403320312</v>
       </c>
     </row>
     <row r="349">
@@ -10560,16 +10560,16 @@
         <v>19.3</v>
       </c>
       <c r="F349" t="n">
-        <v>208.1314849853516</v>
+        <v>121.4078979492188</v>
       </c>
       <c r="G349" t="n">
-        <v>38.80456924438477</v>
+        <v>7.618676662445068</v>
       </c>
       <c r="H349" t="n">
-        <v>314.6667785644531</v>
+        <v>314.3432006835938</v>
       </c>
       <c r="I349" t="n">
-        <v>123.3419876098633</v>
+        <v>32.35643005371094</v>
       </c>
     </row>
     <row r="350">
@@ -10589,16 +10589,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F350" t="n">
-        <v>207.0579223632812</v>
+        <v>123.5418090820312</v>
       </c>
       <c r="G350" t="n">
-        <v>38.94536209106445</v>
+        <v>8.351593017578125</v>
       </c>
       <c r="H350" t="n">
-        <v>504.42724609375</v>
+        <v>370.4926452636719</v>
       </c>
       <c r="I350" t="n">
-        <v>68.99181365966797</v>
+        <v>57.31153869628906</v>
       </c>
     </row>
     <row r="351">
@@ -10618,16 +10618,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F351" t="n">
-        <v>206.4266815185547</v>
+        <v>125.9010009765625</v>
       </c>
       <c r="G351" t="n">
-        <v>38.87601852416992</v>
+        <v>9.317411422729492</v>
       </c>
       <c r="H351" t="n">
-        <v>541.8574829101562</v>
+        <v>454.4894104003906</v>
       </c>
       <c r="I351" t="n">
-        <v>20.71964836120605</v>
+        <v>74.66910552978516</v>
       </c>
     </row>
     <row r="352">
@@ -10647,16 +10647,16 @@
         <v>12</v>
       </c>
       <c r="F352" t="n">
-        <v>206.3385009765625</v>
+        <v>128.5133209228516</v>
       </c>
       <c r="G352" t="n">
-        <v>39.3386116027832</v>
+        <v>10.53954887390137</v>
       </c>
       <c r="H352" t="n">
-        <v>549.2374877929688</v>
+        <v>520.0875854492188</v>
       </c>
       <c r="I352" t="n">
-        <v>13.40461730957031</v>
+        <v>63.45602035522461</v>
       </c>
     </row>
     <row r="353">
@@ -10676,16 +10676,16 @@
         <v>9.566666666666674</v>
       </c>
       <c r="F353" t="n">
-        <v>205.4731292724609</v>
+        <v>131.4101715087891</v>
       </c>
       <c r="G353" t="n">
-        <v>39.89345550537109</v>
+        <v>12.04370021820068</v>
       </c>
       <c r="H353" t="n">
-        <v>546.6380004882812</v>
+        <v>546.8123779296875</v>
       </c>
       <c r="I353" t="n">
-        <v>18.12911796569824</v>
+        <v>59.97816848754883</v>
       </c>
     </row>
     <row r="354">
@@ -10705,16 +10705,16 @@
         <v>7.13333333333334</v>
       </c>
       <c r="F354" t="n">
-        <v>204.9381561279297</v>
+        <v>134.6268768310547</v>
       </c>
       <c r="G354" t="n">
-        <v>41.33144378662109</v>
+        <v>13.86079216003418</v>
       </c>
       <c r="H354" t="n">
-        <v>537.5867309570312</v>
+        <v>537.2698364257812</v>
       </c>
       <c r="I354" t="n">
-        <v>24.01044654846191</v>
+        <v>55.051025390625</v>
       </c>
     </row>
     <row r="355">
@@ -10734,16 +10734,16 @@
         <v>4.700000000000006</v>
       </c>
       <c r="F355" t="n">
-        <v>205.44580078125</v>
+        <v>138.2031097412109</v>
       </c>
       <c r="G355" t="n">
-        <v>42.86300659179688</v>
+        <v>16.0291805267334</v>
       </c>
       <c r="H355" t="n">
-        <v>509.2322692871094</v>
+        <v>512.6786499023438</v>
       </c>
       <c r="I355" t="n">
-        <v>36.71501922607422</v>
+        <v>44.98881530761719</v>
       </c>
     </row>
     <row r="356">
@@ -10763,16 +10763,16 @@
         <v>2.266666666666668</v>
       </c>
       <c r="F356" t="n">
-        <v>207.1012725830078</v>
+        <v>142.1831970214844</v>
       </c>
       <c r="G356" t="n">
-        <v>44.39097595214844</v>
+        <v>18.59604454040527</v>
       </c>
       <c r="H356" t="n">
-        <v>478.5262145996094</v>
+        <v>497.0166015625</v>
       </c>
       <c r="I356" t="n">
-        <v>39.47396087646484</v>
+        <v>48.09478759765625</v>
       </c>
     </row>
     <row r="357">
@@ -10792,16 +10792,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F357" t="n">
-        <v>229.8453826904297</v>
+        <v>107.5461730957031</v>
       </c>
       <c r="G357" t="n">
-        <v>50.73181915283203</v>
+        <v>6.167929649353027</v>
       </c>
       <c r="H357" t="n">
-        <v>-164.0420227050781</v>
+        <v>-38.58074569702148</v>
       </c>
       <c r="I357" t="n">
-        <v>160.5892791748047</v>
+        <v>91.138427734375</v>
       </c>
     </row>
     <row r="358">
@@ -10821,16 +10821,16 @@
         <v>33.90000000000001</v>
       </c>
       <c r="F358" t="n">
-        <v>226.6123809814453</v>
+        <v>108.4772338867188</v>
       </c>
       <c r="G358" t="n">
-        <v>48.3016471862793</v>
+        <v>6.073867321014404</v>
       </c>
       <c r="H358" t="n">
-        <v>-68.24752044677734</v>
+        <v>-36.399658203125</v>
       </c>
       <c r="I358" t="n">
-        <v>143.4515533447266</v>
+        <v>79.39171600341797</v>
       </c>
     </row>
     <row r="359">
@@ -10850,16 +10850,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F359" t="n">
-        <v>222.6879272460938</v>
+        <v>109.4929580688477</v>
       </c>
       <c r="G359" t="n">
-        <v>46.33969497680664</v>
+        <v>6.009413719177246</v>
       </c>
       <c r="H359" t="n">
-        <v>30.34230995178223</v>
+        <v>-35.65419387817383</v>
       </c>
       <c r="I359" t="n">
-        <v>116.834098815918</v>
+        <v>71.147216796875</v>
       </c>
     </row>
     <row r="360">
@@ -10879,16 +10879,16 @@
         <v>29.03333333333334</v>
       </c>
       <c r="F360" t="n">
-        <v>218.2440338134766</v>
+        <v>110.6034469604492</v>
       </c>
       <c r="G360" t="n">
-        <v>44.98740005493164</v>
+        <v>5.991033554077148</v>
       </c>
       <c r="H360" t="n">
-        <v>93.22887420654297</v>
+        <v>-25.15109252929688</v>
       </c>
       <c r="I360" t="n">
-        <v>91.26260375976562</v>
+        <v>58.40749740600586</v>
       </c>
     </row>
     <row r="361">
@@ -10908,16 +10908,16 @@
         <v>26.6</v>
       </c>
       <c r="F361" t="n">
-        <v>214.6541748046875</v>
+        <v>111.8201293945312</v>
       </c>
       <c r="G361" t="n">
-        <v>44.34981155395508</v>
+        <v>6.039067268371582</v>
       </c>
       <c r="H361" t="n">
-        <v>128.9891815185547</v>
+        <v>11.96482467651367</v>
       </c>
       <c r="I361" t="n">
-        <v>79.40713500976562</v>
+        <v>40.13242721557617</v>
       </c>
     </row>
     <row r="362">
@@ -10937,16 +10937,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F362" t="n">
-        <v>211.7207183837891</v>
+        <v>113.1558227539062</v>
       </c>
       <c r="G362" t="n">
-        <v>43.44021987915039</v>
+        <v>6.177128791809082</v>
       </c>
       <c r="H362" t="n">
-        <v>164.0521392822266</v>
+        <v>86.50817108154297</v>
       </c>
       <c r="I362" t="n">
-        <v>76.12076568603516</v>
+        <v>28.74151611328125</v>
       </c>
     </row>
     <row r="363">
@@ -10966,16 +10966,16 @@
         <v>21.73333333333334</v>
       </c>
       <c r="F363" t="n">
-        <v>208.6269378662109</v>
+        <v>114.6250686645508</v>
       </c>
       <c r="G363" t="n">
-        <v>42.22709655761719</v>
+        <v>6.430839538574219</v>
       </c>
       <c r="H363" t="n">
-        <v>182.5626220703125</v>
+        <v>187.0675659179688</v>
       </c>
       <c r="I363" t="n">
-        <v>85.50079345703125</v>
+        <v>35.90633010864258</v>
       </c>
     </row>
     <row r="364">
@@ -10995,16 +10995,16 @@
         <v>19.3</v>
       </c>
       <c r="F364" t="n">
-        <v>206.3555450439453</v>
+        <v>116.2443237304688</v>
       </c>
       <c r="G364" t="n">
-        <v>41.71997451782227</v>
+        <v>6.825977802276611</v>
       </c>
       <c r="H364" t="n">
-        <v>206.4308624267578</v>
+        <v>273.2760925292969</v>
       </c>
       <c r="I364" t="n">
-        <v>92.23759460449219</v>
+        <v>41.15242767333984</v>
       </c>
     </row>
     <row r="365">
@@ -11024,16 +11024,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F365" t="n">
-        <v>205.1285247802734</v>
+        <v>118.0321350097656</v>
       </c>
       <c r="G365" t="n">
-        <v>42.01662445068359</v>
+        <v>7.38692569732666</v>
       </c>
       <c r="H365" t="n">
-        <v>369.6814270019531</v>
+        <v>315.5022888183594</v>
       </c>
       <c r="I365" t="n">
-        <v>97.01477813720703</v>
+        <v>24.52413940429688</v>
       </c>
     </row>
     <row r="366">
@@ -11053,16 +11053,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F366" t="n">
-        <v>204.5633087158203</v>
+        <v>120.0095443725586</v>
       </c>
       <c r="G366" t="n">
-        <v>42.71248245239258</v>
+        <v>8.136272430419922</v>
       </c>
       <c r="H366" t="n">
-        <v>506.9151916503906</v>
+        <v>367.3315124511719</v>
       </c>
       <c r="I366" t="n">
-        <v>56.2686767578125</v>
+        <v>47.83684921264648</v>
       </c>
     </row>
     <row r="367">
@@ -11082,16 +11082,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F367" t="n">
-        <v>204.2916412353516</v>
+        <v>122.2002944946289</v>
       </c>
       <c r="G367" t="n">
-        <v>43.56958770751953</v>
+        <v>9.095735549926758</v>
       </c>
       <c r="H367" t="n">
-        <v>540.3397827148438</v>
+        <v>451.5108947753906</v>
       </c>
       <c r="I367" t="n">
-        <v>18.27252388000488</v>
+        <v>62.89812469482422</v>
       </c>
     </row>
     <row r="368">
@@ -11111,16 +11111,16 @@
         <v>9.566666666666674</v>
       </c>
       <c r="F368" t="n">
-        <v>204.0317993164062</v>
+        <v>124.6313858032227</v>
       </c>
       <c r="G368" t="n">
-        <v>44.3772087097168</v>
+        <v>10.28827667236328</v>
       </c>
       <c r="H368" t="n">
-        <v>548.9727783203125</v>
+        <v>517.2147216796875</v>
       </c>
       <c r="I368" t="n">
-        <v>11.14828014373779</v>
+        <v>55.02008438110352</v>
       </c>
     </row>
     <row r="369">
@@ -11140,16 +11140,16 @@
         <v>7.133333333333344</v>
       </c>
       <c r="F369" t="n">
-        <v>203.8154296875</v>
+        <v>127.3332290649414</v>
       </c>
       <c r="G369" t="n">
-        <v>45.27925872802734</v>
+        <v>11.74052906036377</v>
       </c>
       <c r="H369" t="n">
-        <v>547.9214477539062</v>
+        <v>543.5911254882812</v>
       </c>
       <c r="I369" t="n">
-        <v>15.20184803009033</v>
+        <v>56.74738311767578</v>
       </c>
     </row>
     <row r="370">
@@ -11169,16 +11169,16 @@
         <v>4.70000000000001</v>
       </c>
       <c r="F370" t="n">
-        <v>203.2120361328125</v>
+        <v>130.3402862548828</v>
       </c>
       <c r="G370" t="n">
-        <v>46.440185546875</v>
+        <v>13.48501110076904</v>
       </c>
       <c r="H370" t="n">
-        <v>542.0433959960938</v>
+        <v>535.68115234375</v>
       </c>
       <c r="I370" t="n">
-        <v>22.62256050109863</v>
+        <v>53.24358367919922</v>
       </c>
     </row>
     <row r="371">
@@ -11198,16 +11198,16 @@
         <v>2.266666666666675</v>
       </c>
       <c r="F371" t="n">
-        <v>203.3101043701172</v>
+        <v>133.6912841796875</v>
       </c>
       <c r="G371" t="n">
-        <v>47.37266159057617</v>
+        <v>15.56192207336426</v>
       </c>
       <c r="H371" t="n">
-        <v>519.8887329101562</v>
+        <v>512.5902099609375</v>
       </c>
       <c r="I371" t="n">
-        <v>36.47764587402344</v>
+        <v>42.82904815673828</v>
       </c>
     </row>
     <row r="372">
@@ -11227,16 +11227,16 @@
         <v>33.9</v>
       </c>
       <c r="F372" t="n">
-        <v>223.5969696044922</v>
+        <v>105.3391342163086</v>
       </c>
       <c r="G372" t="n">
-        <v>51.64248657226562</v>
+        <v>5.572481155395508</v>
       </c>
       <c r="H372" t="n">
-        <v>-133.5166778564453</v>
+        <v>-40.80999374389648</v>
       </c>
       <c r="I372" t="n">
-        <v>152.6889953613281</v>
+        <v>82.60395050048828</v>
       </c>
     </row>
     <row r="373">
@@ -11256,16 +11256,16 @@
         <v>31.46666666666667</v>
       </c>
       <c r="F373" t="n">
-        <v>220.5228118896484</v>
+        <v>106.1861267089844</v>
       </c>
       <c r="G373" t="n">
-        <v>49.50855255126953</v>
+        <v>5.521937370300293</v>
       </c>
       <c r="H373" t="n">
-        <v>-36.13669967651367</v>
+        <v>-40.76019668579102</v>
       </c>
       <c r="I373" t="n">
-        <v>131.1142578125</v>
+        <v>73.87355804443359</v>
       </c>
     </row>
     <row r="374">
@@ -11285,16 +11285,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F374" t="n">
-        <v>216.5598754882812</v>
+        <v>107.1120071411133</v>
       </c>
       <c r="G374" t="n">
-        <v>47.8966178894043</v>
+        <v>5.506011486053467</v>
       </c>
       <c r="H374" t="n">
-        <v>47.11381149291992</v>
+        <v>-41.93745803833008</v>
       </c>
       <c r="I374" t="n">
-        <v>108.167236328125</v>
+        <v>68.01372528076172</v>
       </c>
     </row>
     <row r="375">
@@ -11314,16 +11314,16 @@
         <v>26.6</v>
       </c>
       <c r="F375" t="n">
-        <v>212.9684295654297</v>
+        <v>108.1263198852539</v>
       </c>
       <c r="G375" t="n">
-        <v>47.11842346191406</v>
+        <v>5.540034770965576</v>
       </c>
       <c r="H375" t="n">
-        <v>97.45766448974609</v>
+        <v>-30.57384490966797</v>
       </c>
       <c r="I375" t="n">
-        <v>90.17591857910156</v>
+        <v>55.97406005859375</v>
       </c>
     </row>
     <row r="376">
@@ -11343,16 +11343,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F376" t="n">
-        <v>209.8535003662109</v>
+        <v>109.2398147583008</v>
       </c>
       <c r="G376" t="n">
-        <v>46.87460327148438</v>
+        <v>5.642127990722656</v>
       </c>
       <c r="H376" t="n">
-        <v>127.7377853393555</v>
+        <v>11.70742321014404</v>
       </c>
       <c r="I376" t="n">
-        <v>80.45642852783203</v>
+        <v>38.88300704956055</v>
       </c>
     </row>
     <row r="377">
@@ -11372,16 +11372,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F377" t="n">
-        <v>207.0977325439453</v>
+        <v>110.4646835327148</v>
       </c>
       <c r="G377" t="n">
-        <v>45.93581390380859</v>
+        <v>5.832451343536377</v>
       </c>
       <c r="H377" t="n">
-        <v>163.5449829101562</v>
+        <v>94.81561279296875</v>
       </c>
       <c r="I377" t="n">
-        <v>75.91850280761719</v>
+        <v>28.37240982055664</v>
       </c>
     </row>
     <row r="378">
@@ -11401,16 +11401,16 @@
         <v>19.3</v>
       </c>
       <c r="F378" t="n">
-        <v>204.5336456298828</v>
+        <v>111.8147048950195</v>
       </c>
       <c r="G378" t="n">
-        <v>45.05310440063477</v>
+        <v>6.13213062286377</v>
       </c>
       <c r="H378" t="n">
-        <v>184.6008148193359</v>
+        <v>200.841796875</v>
       </c>
       <c r="I378" t="n">
-        <v>85.57946014404297</v>
+        <v>38.20830535888672</v>
       </c>
     </row>
     <row r="379">
@@ -11430,16 +11430,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F379" t="n">
-        <v>202.9019317626953</v>
+        <v>113.3055648803711</v>
       </c>
       <c r="G379" t="n">
-        <v>45.01022338867188</v>
+        <v>6.562038898468018</v>
       </c>
       <c r="H379" t="n">
-        <v>239.1581420898438</v>
+        <v>281.0647888183594</v>
       </c>
       <c r="I379" t="n">
-        <v>79.48219299316406</v>
+        <v>35.40489196777344</v>
       </c>
     </row>
     <row r="380">
@@ -11459,16 +11459,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F380" t="n">
-        <v>201.8162689208984</v>
+        <v>114.954948425293</v>
       </c>
       <c r="G380" t="n">
-        <v>45.65346908569336</v>
+        <v>7.14219856262207</v>
       </c>
       <c r="H380" t="n">
-        <v>410.09326171875</v>
+        <v>315.3963317871094</v>
       </c>
       <c r="I380" t="n">
-        <v>84.42116546630859</v>
+        <v>18.39818382263184</v>
       </c>
     </row>
     <row r="381">
@@ -11488,16 +11488,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F381" t="n">
-        <v>201.3735504150391</v>
+        <v>116.7829895019531</v>
       </c>
       <c r="G381" t="n">
-        <v>47.10507202148438</v>
+        <v>7.89203929901123</v>
       </c>
       <c r="H381" t="n">
-        <v>503.8447265625</v>
+        <v>363.8102722167969</v>
       </c>
       <c r="I381" t="n">
-        <v>53.68107223510742</v>
+        <v>39.73069381713867</v>
       </c>
     </row>
     <row r="382">
@@ -11517,16 +11517,16 @@
         <v>9.56666666666667</v>
       </c>
       <c r="F382" t="n">
-        <v>201.3503265380859</v>
+        <v>118.8125381469727</v>
       </c>
       <c r="G382" t="n">
-        <v>48.23807144165039</v>
+        <v>8.831673622131348</v>
       </c>
       <c r="H382" t="n">
-        <v>538.8119506835938</v>
+        <v>447.8836975097656</v>
       </c>
       <c r="I382" t="n">
-        <v>16.81951522827148</v>
+        <v>54.05117416381836</v>
       </c>
     </row>
     <row r="383">
@@ -11546,16 +11546,16 @@
         <v>7.133333333333336</v>
       </c>
       <c r="F383" t="n">
-        <v>200.9593963623047</v>
+        <v>121.0695571899414</v>
       </c>
       <c r="G383" t="n">
-        <v>49.21796798706055</v>
+        <v>9.983694076538086</v>
       </c>
       <c r="H383" t="n">
-        <v>548.3660278320312</v>
+        <v>513.6880493164062</v>
       </c>
       <c r="I383" t="n">
-        <v>9.864785194396973</v>
+        <v>49.22764587402344</v>
       </c>
     </row>
     <row r="384">
@@ -11575,16 +11575,16 @@
         <v>4.700000000000006</v>
       </c>
       <c r="F384" t="n">
-        <v>200.6689910888672</v>
+        <v>123.5834732055664</v>
       </c>
       <c r="G384" t="n">
-        <v>49.82773971557617</v>
+        <v>11.37515735626221</v>
       </c>
       <c r="H384" t="n">
-        <v>550.4657592773438</v>
+        <v>540.1052856445312</v>
       </c>
       <c r="I384" t="n">
-        <v>10.37129306793213</v>
+        <v>53.60691070556641</v>
       </c>
     </row>
     <row r="385">
@@ -11604,16 +11604,16 @@
         <v>2.266666666666672</v>
       </c>
       <c r="F385" t="n">
-        <v>200.4500579833984</v>
+        <v>126.3877182006836</v>
       </c>
       <c r="G385" t="n">
-        <v>50.74619674682617</v>
+        <v>13.03939628601074</v>
       </c>
       <c r="H385" t="n">
-        <v>546.1971435546875</v>
+        <v>533.845703125</v>
       </c>
       <c r="I385" t="n">
-        <v>20.93051147460938</v>
+        <v>51.13247680664062</v>
       </c>
     </row>
     <row r="386">
@@ -11633,16 +11633,16 @@
         <v>31.46666666666666</v>
       </c>
       <c r="F386" t="n">
-        <v>216.6515045166016</v>
+        <v>103.360107421875</v>
       </c>
       <c r="G386" t="n">
-        <v>52.36643981933594</v>
+        <v>5.047057151794434</v>
       </c>
       <c r="H386" t="n">
-        <v>-104.0093460083008</v>
+        <v>-43.36225891113281</v>
       </c>
       <c r="I386" t="n">
-        <v>141.0643005371094</v>
+        <v>74.49432373046875</v>
       </c>
     </row>
     <row r="387">
@@ -11662,16 +11662,16 @@
         <v>29.03333333333333</v>
       </c>
       <c r="F387" t="n">
-        <v>213.7571411132812</v>
+        <v>104.1292037963867</v>
       </c>
       <c r="G387" t="n">
-        <v>51.22563552856445</v>
+        <v>5.035247802734375</v>
       </c>
       <c r="H387" t="n">
-        <v>-12.45212268829346</v>
+        <v>-45.64162063598633</v>
       </c>
       <c r="I387" t="n">
-        <v>120.963737487793</v>
+        <v>69.11101531982422</v>
       </c>
     </row>
     <row r="388">
@@ -11691,16 +11691,16 @@
         <v>26.59999999999999</v>
       </c>
       <c r="F388" t="n">
-        <v>210.6895751953125</v>
+        <v>104.9715881347656</v>
       </c>
       <c r="G388" t="n">
-        <v>50.37556838989258</v>
+        <v>5.061458587646484</v>
       </c>
       <c r="H388" t="n">
-        <v>55.2768440246582</v>
+        <v>-48.27671432495117</v>
       </c>
       <c r="I388" t="n">
-        <v>101.8089065551758</v>
+        <v>64.79122924804688</v>
       </c>
     </row>
     <row r="389">
@@ -11720,16 +11720,16 @@
         <v>24.16666666666666</v>
       </c>
       <c r="F389" t="n">
-        <v>207.883056640625</v>
+        <v>105.896240234375</v>
       </c>
       <c r="G389" t="n">
-        <v>49.74387359619141</v>
+        <v>5.139546871185303</v>
       </c>
       <c r="H389" t="n">
-        <v>95.05902862548828</v>
+        <v>-35.12172317504883</v>
       </c>
       <c r="I389" t="n">
-        <v>91.41336822509766</v>
+        <v>53.33069610595703</v>
       </c>
     </row>
     <row r="390">
@@ -11749,16 +11749,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F390" t="n">
-        <v>205.1685333251953</v>
+        <v>106.9132995605469</v>
       </c>
       <c r="G390" t="n">
-        <v>49.64859008789062</v>
+        <v>5.285233497619629</v>
       </c>
       <c r="H390" t="n">
-        <v>126.5032730102539</v>
+        <v>13.01267147064209</v>
       </c>
       <c r="I390" t="n">
-        <v>76.53383636474609</v>
+        <v>37.17556762695312</v>
       </c>
     </row>
     <row r="391">
@@ -11778,16 +11778,16 @@
         <v>19.3</v>
       </c>
       <c r="F391" t="n">
-        <v>202.6598358154297</v>
+        <v>108.0342483520508</v>
       </c>
       <c r="G391" t="n">
-        <v>48.8233642578125</v>
+        <v>5.515419483184814</v>
       </c>
       <c r="H391" t="n">
-        <v>160.7930297851562</v>
+        <v>104.4323425292969</v>
       </c>
       <c r="I391" t="n">
-        <v>71.17781829833984</v>
+        <v>29.17180824279785</v>
       </c>
     </row>
     <row r="392">
@@ -11807,16 +11807,16 @@
         <v>16.86666666666666</v>
       </c>
       <c r="F392" t="n">
-        <v>200.4552612304688</v>
+        <v>109.2721939086914</v>
       </c>
       <c r="G392" t="n">
-        <v>48.26583862304688</v>
+        <v>5.847368717193604</v>
       </c>
       <c r="H392" t="n">
-        <v>192.8234405517578</v>
+        <v>213.3337249755859</v>
       </c>
       <c r="I392" t="n">
-        <v>79.66860198974609</v>
+        <v>40.27632522583008</v>
       </c>
     </row>
     <row r="393">
@@ -11836,16 +11836,16 @@
         <v>14.43333333333333</v>
       </c>
       <c r="F393" t="n">
-        <v>198.9834594726562</v>
+        <v>110.6419677734375</v>
       </c>
       <c r="G393" t="n">
-        <v>48.56674575805664</v>
+        <v>6.298141479492188</v>
       </c>
       <c r="H393" t="n">
-        <v>283.6146850585938</v>
+        <v>286.4236450195312</v>
       </c>
       <c r="I393" t="n">
-        <v>67.769775390625</v>
+        <v>29.38777732849121</v>
       </c>
     </row>
     <row r="394">
@@ -11865,16 +11865,16 @@
         <v>12</v>
       </c>
       <c r="F394" t="n">
-        <v>198.1595001220703</v>
+        <v>112.1604385375977</v>
       </c>
       <c r="G394" t="n">
-        <v>49.55266189575195</v>
+        <v>6.884532928466797</v>
       </c>
       <c r="H394" t="n">
-        <v>417.4718322753906</v>
+        <v>314.3897705078125</v>
       </c>
       <c r="I394" t="n">
-        <v>82.08219909667969</v>
+        <v>14.47415828704834</v>
       </c>
     </row>
     <row r="395">
@@ -11894,16 +11894,16 @@
         <v>9.56666666666667</v>
       </c>
       <c r="F395" t="n">
-        <v>197.8350830078125</v>
+        <v>113.8468246459961</v>
       </c>
       <c r="G395" t="n">
-        <v>50.82724761962891</v>
+        <v>7.62374210357666</v>
       </c>
       <c r="H395" t="n">
-        <v>500.0903015136719</v>
+        <v>360.0675048828125</v>
       </c>
       <c r="I395" t="n">
-        <v>53.57172775268555</v>
+        <v>32.97893905639648</v>
       </c>
     </row>
     <row r="396">
@@ -11923,16 +11923,16 @@
         <v>7.133333333333333</v>
       </c>
       <c r="F396" t="n">
-        <v>197.7615203857422</v>
+        <v>115.7229690551758</v>
       </c>
       <c r="G396" t="n">
-        <v>52.36063003540039</v>
+        <v>8.534653663635254</v>
       </c>
       <c r="H396" t="n">
-        <v>536.9165649414062</v>
+        <v>443.5838317871094</v>
       </c>
       <c r="I396" t="n">
-        <v>15.91973209381104</v>
+        <v>47.99740982055664</v>
       </c>
     </row>
     <row r="397">
@@ -11952,16 +11952,16 @@
         <v>4.699999999999999</v>
       </c>
       <c r="F397" t="n">
-        <v>197.7852172851562</v>
+        <v>117.813835144043</v>
       </c>
       <c r="G397" t="n">
-        <v>53.47011947631836</v>
+        <v>9.639384269714355</v>
       </c>
       <c r="H397" t="n">
-        <v>547.2982177734375</v>
+        <v>509.3552551269531</v>
       </c>
       <c r="I397" t="n">
-        <v>9.42339038848877</v>
+        <v>45.59909820556641</v>
       </c>
     </row>
     <row r="398">
@@ -11981,16 +11981,16 @@
         <v>2.266666666666668</v>
       </c>
       <c r="F398" t="n">
-        <v>197.7095184326172</v>
+        <v>120.1477584838867</v>
       </c>
       <c r="G398" t="n">
-        <v>54.33166885375977</v>
+        <v>10.96495628356934</v>
       </c>
       <c r="H398" t="n">
-        <v>551.8803100585938</v>
+        <v>536.1005249023438</v>
       </c>
       <c r="I398" t="n">
-        <v>6.883756160736084</v>
+        <v>50.60756683349609</v>
       </c>
     </row>
     <row r="399">
@@ -12010,16 +12010,16 @@
         <v>29.03333333333332</v>
       </c>
       <c r="F399" t="n">
-        <v>209.305419921875</v>
+        <v>101.5911865234375</v>
       </c>
       <c r="G399" t="n">
-        <v>53.30415725708008</v>
+        <v>4.581432819366455</v>
       </c>
       <c r="H399" t="n">
-        <v>-79.54196166992188</v>
+        <v>-46.34334182739258</v>
       </c>
       <c r="I399" t="n">
-        <v>123.3440399169922</v>
+        <v>67.10404968261719</v>
       </c>
     </row>
     <row r="400">
@@ -12039,16 +12039,16 @@
         <v>26.59999999999999</v>
       </c>
       <c r="F400" t="n">
-        <v>206.7863159179688</v>
+        <v>102.2884216308594</v>
       </c>
       <c r="G400" t="n">
-        <v>52.76092910766602</v>
+        <v>4.60344934463501</v>
       </c>
       <c r="H400" t="n">
-        <v>1.316386222839355</v>
+        <v>-50.92515182495117</v>
       </c>
       <c r="I400" t="n">
-        <v>110.5730438232422</v>
+        <v>64.84882354736328</v>
       </c>
     </row>
     <row r="401">
@@ -12068,16 +12068,16 @@
         <v>24.16666666666666</v>
       </c>
       <c r="F401" t="n">
-        <v>204.3402557373047</v>
+        <v>103.0535659790039</v>
       </c>
       <c r="G401" t="n">
-        <v>52.18569564819336</v>
+        <v>4.665462493896484</v>
       </c>
       <c r="H401" t="n">
-        <v>54.07084274291992</v>
+        <v>-54.32500076293945</v>
       </c>
       <c r="I401" t="n">
-        <v>99.12105560302734</v>
+        <v>61.42205429077148</v>
       </c>
     </row>
     <row r="402">
@@ -12097,16 +12097,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F402" t="n">
-        <v>202.041015625</v>
+        <v>103.8950119018555</v>
       </c>
       <c r="G402" t="n">
-        <v>51.96426010131836</v>
+        <v>4.779698371887207</v>
       </c>
       <c r="H402" t="n">
-        <v>86.68224334716797</v>
+        <v>-38.55759811401367</v>
       </c>
       <c r="I402" t="n">
-        <v>92.06233215332031</v>
+        <v>50.52838134765625</v>
       </c>
     </row>
     <row r="403">
@@ -12126,16 +12126,16 @@
         <v>19.29999999999999</v>
       </c>
       <c r="F403" t="n">
-        <v>199.8875732421875</v>
+        <v>104.8223495483398</v>
       </c>
       <c r="G403" t="n">
-        <v>51.93640518188477</v>
+        <v>4.959527015686035</v>
       </c>
       <c r="H403" t="n">
-        <v>123.5734252929688</v>
+        <v>15.85934925079346</v>
       </c>
       <c r="I403" t="n">
-        <v>74.06346130371094</v>
+        <v>35.06597900390625</v>
       </c>
     </row>
     <row r="404">
@@ -12155,16 +12155,16 @@
         <v>16.86666666666666</v>
       </c>
       <c r="F404" t="n">
-        <v>197.3549041748047</v>
+        <v>105.8464126586914</v>
       </c>
       <c r="G404" t="n">
-        <v>51.47869491577148</v>
+        <v>5.218949317932129</v>
       </c>
       <c r="H404" t="n">
-        <v>161.0985107421875</v>
+        <v>114.8210220336914</v>
       </c>
       <c r="I404" t="n">
-        <v>68.63168334960938</v>
+        <v>31.65774536132812</v>
       </c>
     </row>
     <row r="405">
@@ -12184,16 +12184,16 @@
         <v>14.43333333333333</v>
       </c>
       <c r="F405" t="n">
-        <v>195.6246185302734</v>
+        <v>106.9795150756836</v>
       </c>
       <c r="G405" t="n">
-        <v>51.5592155456543</v>
+        <v>5.572103500366211</v>
       </c>
       <c r="H405" t="n">
-        <v>221.9725952148438</v>
+        <v>223.9369506835938</v>
       </c>
       <c r="I405" t="n">
-        <v>65.3062744140625</v>
+        <v>41.12021636962891</v>
       </c>
     </row>
     <row r="406">
@@ -12213,16 +12213,16 @@
         <v>12</v>
       </c>
       <c r="F406" t="n">
-        <v>194.5204467773438</v>
+        <v>108.2357482910156</v>
       </c>
       <c r="G406" t="n">
-        <v>52.02305221557617</v>
+        <v>6.03311824798584</v>
       </c>
       <c r="H406" t="n">
-        <v>308.7385864257812</v>
+        <v>289.703857421875</v>
       </c>
       <c r="I406" t="n">
-        <v>61.8401985168457</v>
+        <v>24.08270072937012</v>
       </c>
     </row>
     <row r="407">
@@ -12242,16 +12242,16 @@
         <v>9.566666666666663</v>
       </c>
       <c r="F407" t="n">
-        <v>194.0154266357422</v>
+        <v>109.6310806274414</v>
       </c>
       <c r="G407" t="n">
-        <v>52.99919891357422</v>
+        <v>6.61641263961792</v>
       </c>
       <c r="H407" t="n">
-        <v>403.2704772949219</v>
+        <v>312.7892761230469</v>
       </c>
       <c r="I407" t="n">
-        <v>76.34653472900391</v>
+        <v>12.69446563720703</v>
       </c>
     </row>
     <row r="408">
@@ -12271,16 +12271,16 @@
         <v>7.133333333333333</v>
       </c>
       <c r="F408" t="n">
-        <v>193.8355102539062</v>
+        <v>111.1838302612305</v>
       </c>
       <c r="G408" t="n">
-        <v>54.24551773071289</v>
+        <v>7.337527751922607</v>
       </c>
       <c r="H408" t="n">
-        <v>497.1031188964844</v>
+        <v>356.1949768066406</v>
       </c>
       <c r="I408" t="n">
-        <v>55.38654327392578</v>
+        <v>27.59029579162598</v>
       </c>
     </row>
     <row r="409">
@@ -12300,16 +12300,16 @@
         <v>4.699999999999996</v>
       </c>
       <c r="F409" t="n">
-        <v>193.8762817382812</v>
+        <v>112.9148330688477</v>
       </c>
       <c r="G409" t="n">
-        <v>55.91434097290039</v>
+        <v>8.214292526245117</v>
       </c>
       <c r="H409" t="n">
-        <v>534.2639770507812</v>
+        <v>438.6690979003906</v>
       </c>
       <c r="I409" t="n">
-        <v>15.5927267074585</v>
+        <v>44.26891326904297</v>
       </c>
     </row>
     <row r="410">
@@ -12329,16 +12329,16 @@
         <v>2.266666666666661</v>
       </c>
       <c r="F410" t="n">
-        <v>194.3016204833984</v>
+        <v>114.8479919433594</v>
       </c>
       <c r="G410" t="n">
-        <v>57.30915832519531</v>
+        <v>9.268195152282715</v>
       </c>
       <c r="H410" t="n">
-        <v>546.0086059570312</v>
+        <v>504.208251953125</v>
       </c>
       <c r="I410" t="n">
-        <v>9.164399147033691</v>
+        <v>43.50441741943359</v>
       </c>
     </row>
     <row r="411">
@@ -12358,16 +12358,16 @@
         <v>26.6</v>
       </c>
       <c r="F411" t="n">
-        <v>202.1198883056641</v>
+        <v>100.0144348144531</v>
       </c>
       <c r="G411" t="n">
-        <v>53.86319732666016</v>
+        <v>4.167402267456055</v>
       </c>
       <c r="H411" t="n">
-        <v>-60.40410232543945</v>
+        <v>-49.76766586303711</v>
       </c>
       <c r="I411" t="n">
-        <v>99.97738647460938</v>
+        <v>60.64457702636719</v>
       </c>
     </row>
     <row r="412">
@@ -12387,16 +12387,16 @@
         <v>24.16666666666667</v>
       </c>
       <c r="F412" t="n">
-        <v>200.031982421875</v>
+        <v>100.6455993652344</v>
       </c>
       <c r="G412" t="n">
-        <v>53.53531265258789</v>
+        <v>4.218362808227539</v>
       </c>
       <c r="H412" t="n">
-        <v>3.858142137527466</v>
+        <v>-56.37625122070312</v>
       </c>
       <c r="I412" t="n">
-        <v>100.0856094360352</v>
+        <v>60.90347290039062</v>
       </c>
     </row>
     <row r="413">
@@ -12416,16 +12416,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F413" t="n">
-        <v>198.0765533447266</v>
+        <v>101.3395690917969</v>
       </c>
       <c r="G413" t="n">
-        <v>53.44514465332031</v>
+        <v>4.310098171234131</v>
       </c>
       <c r="H413" t="n">
-        <v>42.01325225830078</v>
+        <v>-59.75671005249023</v>
       </c>
       <c r="I413" t="n">
-        <v>98.2406005859375</v>
+        <v>57.99914932250977</v>
       </c>
     </row>
     <row r="414">
@@ -12445,16 +12445,16 @@
         <v>19.3</v>
       </c>
       <c r="F414" t="n">
-        <v>196.3261108398438</v>
+        <v>102.1041946411133</v>
       </c>
       <c r="G414" t="n">
-        <v>54.03122329711914</v>
+        <v>4.453163146972656</v>
       </c>
       <c r="H414" t="n">
-        <v>71.60916900634766</v>
+        <v>-40.7563591003418</v>
       </c>
       <c r="I414" t="n">
-        <v>94.03507995605469</v>
+        <v>47.63003540039062</v>
       </c>
     </row>
     <row r="415">
@@ -12474,16 +12474,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F415" t="n">
-        <v>194.2304077148438</v>
+        <v>102.9484786987305</v>
       </c>
       <c r="G415" t="n">
-        <v>54.15289688110352</v>
+        <v>4.658811092376709</v>
       </c>
       <c r="H415" t="n">
-        <v>117.0029067993164</v>
+        <v>20.09967041015625</v>
       </c>
       <c r="I415" t="n">
-        <v>80.43532562255859</v>
+        <v>32.89999389648438</v>
       </c>
     </row>
     <row r="416">
@@ -12503,16 +12503,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F416" t="n">
-        <v>192.0483551025391</v>
+        <v>103.8825454711914</v>
       </c>
       <c r="G416" t="n">
-        <v>53.97874450683594</v>
+        <v>4.938593864440918</v>
       </c>
       <c r="H416" t="n">
-        <v>168.5178985595703</v>
+        <v>125.344123840332</v>
       </c>
       <c r="I416" t="n">
-        <v>73.92578887939453</v>
+        <v>35.50099563598633</v>
       </c>
     </row>
     <row r="417">
@@ -12532,16 +12532,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F417" t="n">
-        <v>190.842529296875</v>
+        <v>104.918083190918</v>
       </c>
       <c r="G417" t="n">
-        <v>54.34848403930664</v>
+        <v>5.30418062210083</v>
       </c>
       <c r="H417" t="n">
-        <v>254.1358795166016</v>
+        <v>232.4016723632812</v>
       </c>
       <c r="I417" t="n">
-        <v>50.8061637878418</v>
+        <v>40.71551132202148</v>
       </c>
     </row>
     <row r="418">
@@ -12561,16 +12561,16 @@
         <v>9.566666666666674</v>
       </c>
       <c r="F418" t="n">
-        <v>190.3053436279297</v>
+        <v>106.0683212280273</v>
       </c>
       <c r="G418" t="n">
-        <v>55.3746452331543</v>
+        <v>5.767498016357422</v>
       </c>
       <c r="H418" t="n">
-        <v>307.6493530273438</v>
+        <v>291.2848510742188</v>
       </c>
       <c r="I418" t="n">
-        <v>43.95727157592773</v>
+        <v>20.1539421081543</v>
       </c>
     </row>
     <row r="419">
@@ -12590,16 +12590,16 @@
         <v>7.13333333333334</v>
       </c>
       <c r="F419" t="n">
-        <v>189.8283538818359</v>
+        <v>107.3484268188477</v>
       </c>
       <c r="G419" t="n">
-        <v>56.19372177124023</v>
+        <v>6.341203212738037</v>
       </c>
       <c r="H419" t="n">
-        <v>375.5776672363281</v>
+        <v>310.8479614257812</v>
       </c>
       <c r="I419" t="n">
-        <v>75.66320037841797</v>
+        <v>12.40172004699707</v>
       </c>
     </row>
     <row r="420">
@@ -12619,16 +12619,16 @@
         <v>4.70000000000001</v>
       </c>
       <c r="F420" t="n">
-        <v>189.9173126220703</v>
+        <v>108.775764465332</v>
       </c>
       <c r="G420" t="n">
-        <v>57.65404891967773</v>
+        <v>7.039526462554932</v>
       </c>
       <c r="H420" t="n">
-        <v>493.5243225097656</v>
+        <v>352.259033203125</v>
       </c>
       <c r="I420" t="n">
-        <v>57.82536315917969</v>
+        <v>23.6014461517334</v>
       </c>
     </row>
     <row r="421">
@@ -12648,16 +12648,16 @@
         <v>2.266666666666672</v>
       </c>
       <c r="F421" t="n">
-        <v>190.1922607421875</v>
+        <v>110.3702011108398</v>
       </c>
       <c r="G421" t="n">
-        <v>59.3293571472168</v>
+        <v>7.879347801208496</v>
       </c>
       <c r="H421" t="n">
-        <v>531.6475219726562</v>
+        <v>433.24462890625</v>
       </c>
       <c r="I421" t="n">
-        <v>16.0605411529541</v>
+        <v>42.2375602722168</v>
       </c>
     </row>
     <row r="422">
@@ -12677,16 +12677,16 @@
         <v>24.16666666666666</v>
       </c>
       <c r="F422" t="n">
-        <v>195.8406219482422</v>
+        <v>98.61231231689453</v>
       </c>
       <c r="G422" t="n">
-        <v>54.92372131347656</v>
+        <v>3.79820704460144</v>
       </c>
       <c r="H422" t="n">
-        <v>-52.86537551879883</v>
+        <v>-53.54202651977539</v>
       </c>
       <c r="I422" t="n">
-        <v>70.98599243164062</v>
+        <v>55.20651245117188</v>
       </c>
     </row>
     <row r="423">
@@ -12706,16 +12706,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F423" t="n">
-        <v>193.9255523681641</v>
+        <v>99.18302154541016</v>
       </c>
       <c r="G423" t="n">
-        <v>54.75262832641602</v>
+        <v>3.873364925384521</v>
       </c>
       <c r="H423" t="n">
-        <v>-3.855036020278931</v>
+        <v>-61.70261001586914</v>
       </c>
       <c r="I423" t="n">
-        <v>89.63278961181641</v>
+        <v>57.21364212036133</v>
       </c>
     </row>
     <row r="424">
@@ -12735,16 +12735,16 @@
         <v>19.3</v>
       </c>
       <c r="F424" t="n">
-        <v>192.2270660400391</v>
+        <v>99.81167602539062</v>
       </c>
       <c r="G424" t="n">
-        <v>55.16238403320312</v>
+        <v>3.989096164703369</v>
       </c>
       <c r="H424" t="n">
-        <v>24.21315002441406</v>
+        <v>-64.33885192871094</v>
       </c>
       <c r="I424" t="n">
-        <v>93.44839477539062</v>
+        <v>54.66876602172852</v>
       </c>
     </row>
     <row r="425">
@@ -12764,16 +12764,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F425" t="n">
-        <v>190.6262359619141</v>
+        <v>100.5056381225586</v>
       </c>
       <c r="G425" t="n">
-        <v>55.80950927734375</v>
+        <v>4.154411315917969</v>
       </c>
       <c r="H425" t="n">
-        <v>53.06363296508789</v>
+        <v>-41.70030975341797</v>
       </c>
       <c r="I425" t="n">
-        <v>98.09317016601562</v>
+        <v>44.7161979675293</v>
       </c>
     </row>
     <row r="426">
@@ -12793,16 +12793,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F426" t="n">
-        <v>188.7308807373047</v>
+        <v>101.2732849121094</v>
       </c>
       <c r="G426" t="n">
-        <v>55.95927429199219</v>
+        <v>4.378705501556396</v>
       </c>
       <c r="H426" t="n">
-        <v>102.2887649536133</v>
+        <v>25.49390411376953</v>
       </c>
       <c r="I426" t="n">
-        <v>94.12638092041016</v>
+        <v>31.2633171081543</v>
       </c>
     </row>
     <row r="427">
@@ -12822,16 +12822,16 @@
         <v>12</v>
       </c>
       <c r="F427" t="n">
-        <v>187.2702026367188</v>
+        <v>102.1242065429688</v>
       </c>
       <c r="G427" t="n">
-        <v>56.65288543701172</v>
+        <v>4.67155647277832</v>
       </c>
       <c r="H427" t="n">
-        <v>171.3314056396484</v>
+        <v>135.3896331787109</v>
       </c>
       <c r="I427" t="n">
-        <v>79.82337188720703</v>
+        <v>39.76446914672852</v>
       </c>
     </row>
     <row r="428">
@@ -12851,16 +12851,16 @@
         <v>9.56666666666667</v>
       </c>
       <c r="F428" t="n">
-        <v>186.5149383544922</v>
+        <v>103.0692977905273</v>
       </c>
       <c r="G428" t="n">
-        <v>57.38582992553711</v>
+        <v>5.042744159698486</v>
       </c>
       <c r="H428" t="n">
-        <v>268.3260803222656</v>
+        <v>238.7731323242188</v>
       </c>
       <c r="I428" t="n">
-        <v>41.5242805480957</v>
+        <v>39.6126823425293</v>
       </c>
     </row>
     <row r="429">
@@ -12880,16 +12880,16 @@
         <v>7.133333333333336</v>
       </c>
       <c r="F429" t="n">
-        <v>186.20849609375</v>
+        <v>104.1210861206055</v>
       </c>
       <c r="G429" t="n">
-        <v>58.50798797607422</v>
+        <v>5.502562046051025</v>
       </c>
       <c r="H429" t="n">
-        <v>299.464599609375</v>
+        <v>291.5404357910156</v>
       </c>
       <c r="I429" t="n">
-        <v>14.3929443359375</v>
+        <v>17.90400505065918</v>
       </c>
     </row>
     <row r="430">
@@ -12909,16 +12909,16 @@
         <v>4.700000000000003</v>
       </c>
       <c r="F430" t="n">
-        <v>185.9037628173828</v>
+        <v>105.2938842773438</v>
       </c>
       <c r="G430" t="n">
-        <v>59.51191329956055</v>
+        <v>6.062338829040527</v>
       </c>
       <c r="H430" t="n">
-        <v>339.4145812988281</v>
+        <v>308.7506713867188</v>
       </c>
       <c r="I430" t="n">
-        <v>61.73777389526367</v>
+        <v>12.82108592987061</v>
       </c>
     </row>
     <row r="431">
@@ -12938,16 +12938,16 @@
         <v>2.266666666666672</v>
       </c>
       <c r="F431" t="n">
-        <v>186.0328826904297</v>
+        <v>106.6041030883789</v>
       </c>
       <c r="G431" t="n">
-        <v>60.85215377807617</v>
+        <v>6.735255241394043</v>
       </c>
       <c r="H431" t="n">
-        <v>479.7451171875</v>
+        <v>348.315673828125</v>
       </c>
       <c r="I431" t="n">
-        <v>67.72492218017578</v>
+        <v>21.01951789855957</v>
       </c>
     </row>
     <row r="432">
@@ -12967,16 +12967,16 @@
         <v>21.73333333333333</v>
       </c>
       <c r="F432" t="n">
-        <v>189.5568695068359</v>
+        <v>97.36811065673828</v>
       </c>
       <c r="G432" t="n">
-        <v>56.08726501464844</v>
+        <v>3.46809196472168</v>
       </c>
       <c r="H432" t="n">
-        <v>-52.88632583618164</v>
+        <v>-57.49200439453125</v>
       </c>
       <c r="I432" t="n">
-        <v>44.64831161499023</v>
+        <v>50.76337432861328</v>
       </c>
     </row>
     <row r="433">
@@ -12996,16 +12996,16 @@
         <v>19.3</v>
       </c>
       <c r="F433" t="n">
-        <v>188.1338348388672</v>
+        <v>97.88364410400391</v>
       </c>
       <c r="G433" t="n">
-        <v>56.40447616577148</v>
+        <v>3.562935590744019</v>
       </c>
       <c r="H433" t="n">
-        <v>-23.65487480163574</v>
+        <v>-66.62633514404297</v>
       </c>
       <c r="I433" t="n">
-        <v>69.00704956054688</v>
+        <v>53.81305313110352</v>
       </c>
     </row>
     <row r="434">
@@ -13025,16 +13025,16 @@
         <v>16.86666666666666</v>
       </c>
       <c r="F434" t="n">
-        <v>186.6922607421875</v>
+        <v>98.45257568359375</v>
       </c>
       <c r="G434" t="n">
-        <v>56.91870880126953</v>
+        <v>3.697402715682983</v>
       </c>
       <c r="H434" t="n">
-        <v>0.9285686612129211</v>
+        <v>-67.95243072509766</v>
       </c>
       <c r="I434" t="n">
-        <v>88.16152954101562</v>
+        <v>51.56981658935547</v>
       </c>
     </row>
     <row r="435">
@@ -13054,16 +13054,16 @@
         <v>14.43333333333333</v>
       </c>
       <c r="F435" t="n">
-        <v>185.222412109375</v>
+        <v>99.08175659179688</v>
       </c>
       <c r="G435" t="n">
-        <v>57.51609039306641</v>
+        <v>3.87913966178894</v>
       </c>
       <c r="H435" t="n">
-        <v>30.57355499267578</v>
+        <v>-41.45211791992188</v>
       </c>
       <c r="I435" t="n">
-        <v>103.573112487793</v>
+        <v>41.88350296020508</v>
       </c>
     </row>
     <row r="436">
@@ -13083,16 +13083,16 @@
         <v>12</v>
       </c>
       <c r="F436" t="n">
-        <v>183.51025390625</v>
+        <v>99.77902984619141</v>
       </c>
       <c r="G436" t="n">
-        <v>57.73265075683594</v>
+        <v>4.115999221801758</v>
       </c>
       <c r="H436" t="n">
-        <v>80.63522338867188</v>
+        <v>31.74497985839844</v>
       </c>
       <c r="I436" t="n">
-        <v>106.9572219848633</v>
+        <v>30.82397842407227</v>
       </c>
     </row>
     <row r="437">
@@ -13112,16 +13112,16 @@
         <v>9.566666666666666</v>
       </c>
       <c r="F437" t="n">
-        <v>182.5943450927734</v>
+        <v>100.5533676147461</v>
       </c>
       <c r="G437" t="n">
-        <v>58.68425369262695</v>
+        <v>4.416021347045898</v>
       </c>
       <c r="H437" t="n">
-        <v>177.9528045654297</v>
+        <v>144.4982452392578</v>
       </c>
       <c r="I437" t="n">
-        <v>80.80181884765625</v>
+        <v>43.62333297729492</v>
       </c>
     </row>
     <row r="438">
@@ -13141,16 +13141,16 @@
         <v>7.133333333333333</v>
       </c>
       <c r="F438" t="n">
-        <v>182.4322509765625</v>
+        <v>101.4150161743164</v>
       </c>
       <c r="G438" t="n">
-        <v>60.09407424926758</v>
+        <v>4.78758430480957</v>
       </c>
       <c r="H438" t="n">
-        <v>271.0273742675781</v>
+        <v>243.2433319091797</v>
       </c>
       <c r="I438" t="n">
-        <v>29.25592422485352</v>
+        <v>38.39931106567383</v>
       </c>
     </row>
     <row r="439">
@@ -13170,16 +13170,16 @@
         <v>4.699999999999999</v>
       </c>
       <c r="F439" t="n">
-        <v>182.4566802978516</v>
+        <v>102.3757247924805</v>
       </c>
       <c r="G439" t="n">
-        <v>61.46450042724609</v>
+        <v>5.239773750305176</v>
       </c>
       <c r="H439" t="n">
-        <v>296.3580627441406</v>
+        <v>290.8145446777344</v>
       </c>
       <c r="I439" t="n">
-        <v>10.00998592376709</v>
+        <v>17.25395584106445</v>
       </c>
     </row>
     <row r="440">
@@ -13199,16 +13199,16 @@
         <v>2.266666666666665</v>
       </c>
       <c r="F440" t="n">
-        <v>182.2595062255859</v>
+        <v>103.4489974975586</v>
       </c>
       <c r="G440" t="n">
-        <v>62.79782867431641</v>
+        <v>5.782917022705078</v>
       </c>
       <c r="H440" t="n">
-        <v>305.5051574707031</v>
+        <v>306.6119689941406</v>
       </c>
       <c r="I440" t="n">
-        <v>10.46011257171631</v>
+        <v>13.51443481445312</v>
       </c>
     </row>
     <row r="441">
@@ -13228,16 +13228,16 @@
         <v>19.3</v>
       </c>
       <c r="F441" t="n">
-        <v>183.5169830322266</v>
+        <v>96.26605224609375</v>
       </c>
       <c r="G441" t="n">
-        <v>57.10124206542969</v>
+        <v>3.172086715698242</v>
       </c>
       <c r="H441" t="n">
-        <v>-58.00980758666992</v>
+        <v>-61.41377639770508</v>
       </c>
       <c r="I441" t="n">
-        <v>28.29753494262695</v>
+        <v>47.21028137207031</v>
       </c>
     </row>
     <row r="442">
@@ -13257,16 +13257,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F442" t="n">
-        <v>182.4381256103516</v>
+        <v>96.73142242431641</v>
       </c>
       <c r="G442" t="n">
-        <v>57.70217514038086</v>
+        <v>3.282395362854004</v>
       </c>
       <c r="H442" t="n">
-        <v>-43.49935913085938</v>
+        <v>-70.94077301025391</v>
       </c>
       <c r="I442" t="n">
-        <v>40.48610305786133</v>
+        <v>50.77916717529297</v>
       </c>
     </row>
     <row r="443">
@@ -13286,16 +13286,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F443" t="n">
-        <v>181.1829223632812</v>
+        <v>97.24591064453125</v>
       </c>
       <c r="G443" t="n">
-        <v>58.20672225952148</v>
+        <v>3.430863857269287</v>
       </c>
       <c r="H443" t="n">
-        <v>-24.5294361114502</v>
+        <v>-70.57623291015625</v>
       </c>
       <c r="I443" t="n">
-        <v>67.13543701171875</v>
+        <v>48.79347610473633</v>
       </c>
     </row>
     <row r="444">
@@ -13315,16 +13315,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F444" t="n">
-        <v>179.8861236572266</v>
+        <v>97.81591796875</v>
       </c>
       <c r="G444" t="n">
-        <v>58.88646697998047</v>
+        <v>3.623952865600586</v>
       </c>
       <c r="H444" t="n">
-        <v>9.633353233337402</v>
+        <v>-40.12551879882812</v>
       </c>
       <c r="I444" t="n">
-        <v>99.55117797851562</v>
+        <v>39.23929214477539</v>
       </c>
     </row>
     <row r="445">
@@ -13344,16 +13344,16 @@
         <v>9.566666666666677</v>
       </c>
       <c r="F445" t="n">
-        <v>178.7393341064453</v>
+        <v>98.44876861572266</v>
       </c>
       <c r="G445" t="n">
-        <v>59.55627822875977</v>
+        <v>3.868315458297729</v>
       </c>
       <c r="H445" t="n">
-        <v>65.35929107666016</v>
+        <v>38.52352523803711</v>
       </c>
       <c r="I445" t="n">
-        <v>113.4849319458008</v>
+        <v>32.01141738891602</v>
       </c>
     </row>
     <row r="446">
@@ -13373,16 +13373,16 @@
         <v>7.133333333333344</v>
       </c>
       <c r="F446" t="n">
-        <v>178.4001922607422</v>
+        <v>99.15285491943359</v>
       </c>
       <c r="G446" t="n">
-        <v>60.81567764282227</v>
+        <v>4.170823574066162</v>
       </c>
       <c r="H446" t="n">
-        <v>186.5483245849609</v>
+        <v>152.4224548339844</v>
       </c>
       <c r="I446" t="n">
-        <v>73.58106231689453</v>
+        <v>46.75497436523438</v>
       </c>
     </row>
     <row r="447">
@@ -13402,16 +13402,16 @@
         <v>4.70000000000001</v>
       </c>
       <c r="F447" t="n">
-        <v>178.537841796875</v>
+        <v>99.93775177001953</v>
       </c>
       <c r="G447" t="n">
-        <v>62.2424430847168</v>
+        <v>4.538836479187012</v>
       </c>
       <c r="H447" t="n">
-        <v>267.4691467285156</v>
+        <v>246.0475463867188</v>
       </c>
       <c r="I447" t="n">
-        <v>19.14262771606445</v>
+        <v>37.44187545776367</v>
       </c>
     </row>
     <row r="448">
@@ -13431,16 +13431,16 @@
         <v>2.266666666666675</v>
       </c>
       <c r="F448" t="n">
-        <v>178.6875762939453</v>
+        <v>100.8145446777344</v>
       </c>
       <c r="G448" t="n">
-        <v>63.7612419128418</v>
+        <v>4.980562210083008</v>
       </c>
       <c r="H448" t="n">
-        <v>289.5313110351562</v>
+        <v>289.3986511230469</v>
       </c>
       <c r="I448" t="n">
-        <v>10.10768890380859</v>
+        <v>17.80001831054688</v>
       </c>
     </row>
     <row r="449">
@@ -13460,16 +13460,16 @@
         <v>16.86666666666667</v>
       </c>
       <c r="F449" t="n">
-        <v>177.7473602294922</v>
+        <v>95.29150390625</v>
       </c>
       <c r="G449" t="n">
-        <v>57.28444671630859</v>
+        <v>2.905834197998047</v>
       </c>
       <c r="H449" t="n">
-        <v>-63.80615615844727</v>
+        <v>-65.11988067626953</v>
       </c>
       <c r="I449" t="n">
-        <v>23.12563323974609</v>
+        <v>44.4134521484375</v>
       </c>
     </row>
     <row r="450">
@@ -13489,16 +13489,16 @@
         <v>14.43333333333334</v>
       </c>
       <c r="F450" t="n">
-        <v>177.0540008544922</v>
+        <v>95.71135711669922</v>
       </c>
       <c r="G450" t="n">
-        <v>58.35119247436523</v>
+        <v>3.027762651443481</v>
       </c>
       <c r="H450" t="n">
-        <v>-56.46969223022461</v>
+        <v>-74.53500366210938</v>
       </c>
       <c r="I450" t="n">
-        <v>25.36457252502441</v>
+        <v>48.17980194091797</v>
       </c>
     </row>
     <row r="451">
@@ -13518,16 +13518,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F451" t="n">
-        <v>176.2340087890625</v>
+        <v>96.17636871337891</v>
       </c>
       <c r="G451" t="n">
-        <v>59.34379959106445</v>
+        <v>3.186032056808472</v>
       </c>
       <c r="H451" t="n">
-        <v>-44.50291061401367</v>
+        <v>-72.25801849365234</v>
       </c>
       <c r="I451" t="n">
-        <v>36.25218200683594</v>
+        <v>46.35983657836914</v>
       </c>
     </row>
     <row r="452">
@@ -13547,16 +13547,16 @@
         <v>9.566666666666674</v>
       </c>
       <c r="F452" t="n">
-        <v>175.1740112304688</v>
+        <v>96.69249725341797</v>
       </c>
       <c r="G452" t="n">
-        <v>60.17216491699219</v>
+        <v>3.386170625686646</v>
       </c>
       <c r="H452" t="n">
-        <v>-14.26566600799561</v>
+        <v>-37.86360549926758</v>
       </c>
       <c r="I452" t="n">
-        <v>71.46904754638672</v>
+        <v>36.91730880737305</v>
       </c>
     </row>
     <row r="453">
@@ -13576,16 +13576,16 @@
         <v>7.13333333333334</v>
       </c>
       <c r="F453" t="n">
-        <v>174.6924438476562</v>
+        <v>97.26656341552734</v>
       </c>
       <c r="G453" t="n">
-        <v>61.21856689453125</v>
+        <v>3.633885145187378</v>
       </c>
       <c r="H453" t="n">
-        <v>54.80903625488281</v>
+        <v>45.49830627441406</v>
       </c>
       <c r="I453" t="n">
-        <v>112.0875473022461</v>
+        <v>34.72242736816406</v>
       </c>
     </row>
     <row r="454">
@@ -13605,16 +13605,16 @@
         <v>4.700000000000006</v>
       </c>
       <c r="F454" t="n">
-        <v>174.6870269775391</v>
+        <v>97.90637969970703</v>
       </c>
       <c r="G454" t="n">
-        <v>62.68365097045898</v>
+        <v>3.935223579406738</v>
       </c>
       <c r="H454" t="n">
-        <v>187.9000396728516</v>
+        <v>159.0822296142578</v>
       </c>
       <c r="I454" t="n">
-        <v>72.65641784667969</v>
+        <v>49.23567962646484</v>
       </c>
     </row>
     <row r="455">
@@ -13634,16 +13634,16 @@
         <v>2.266666666666672</v>
       </c>
       <c r="F455" t="n">
-        <v>174.8910522460938</v>
+        <v>98.6209716796875</v>
       </c>
       <c r="G455" t="n">
-        <v>64.06002044677734</v>
+        <v>4.296804428100586</v>
       </c>
       <c r="H455" t="n">
-        <v>260.5215759277344</v>
+        <v>247.4248657226562</v>
       </c>
       <c r="I455" t="n">
-        <v>14.90118598937988</v>
+        <v>36.89643478393555</v>
       </c>
     </row>
     <row r="456">
@@ -13663,16 +13663,16 @@
         <v>14.43333333333335</v>
       </c>
       <c r="F456" t="n">
-        <v>172.6015014648438</v>
+        <v>94.43093109130859</v>
       </c>
       <c r="G456" t="n">
-        <v>57.58284759521484</v>
+        <v>2.665527105331421</v>
       </c>
       <c r="H456" t="n">
-        <v>-67.78562164306641</v>
+        <v>-68.46622467041016</v>
       </c>
       <c r="I456" t="n">
-        <v>19.55569648742676</v>
+        <v>42.24628448486328</v>
       </c>
     </row>
     <row r="457">
@@ -13692,16 +13692,16 @@
         <v>12.00000000000002</v>
       </c>
       <c r="F457" t="n">
-        <v>172.0856475830078</v>
+        <v>94.80960083007812</v>
       </c>
       <c r="G457" t="n">
-        <v>58.74285507202148</v>
+        <v>2.79562783241272</v>
       </c>
       <c r="H457" t="n">
-        <v>-62.11026000976562</v>
+        <v>-77.38968658447266</v>
       </c>
       <c r="I457" t="n">
-        <v>19.66000175476074</v>
+        <v>46.03166198730469</v>
       </c>
     </row>
     <row r="458">
@@ -13721,16 +13721,16 @@
         <v>9.566666666666682</v>
       </c>
       <c r="F458" t="n">
-        <v>171.7519989013672</v>
+        <v>95.22975921630859</v>
       </c>
       <c r="G458" t="n">
-        <v>60.2900276184082</v>
+        <v>2.960076808929443</v>
       </c>
       <c r="H458" t="n">
-        <v>-55.40254592895508</v>
+        <v>-73.08864593505859</v>
       </c>
       <c r="I458" t="n">
-        <v>22.12346267700195</v>
+        <v>44.2253532409668</v>
       </c>
     </row>
     <row r="459">
@@ -13750,16 +13750,16 @@
         <v>7.13333333333335</v>
       </c>
       <c r="F459" t="n">
-        <v>171.1666717529297</v>
+        <v>95.69692993164062</v>
       </c>
       <c r="G459" t="n">
-        <v>61.47823333740234</v>
+        <v>3.163658380508423</v>
       </c>
       <c r="H459" t="n">
-        <v>-37.00322723388672</v>
+        <v>-34.8249626159668</v>
       </c>
       <c r="I459" t="n">
-        <v>38.35228729248047</v>
+        <v>35.10543441772461</v>
       </c>
     </row>
     <row r="460">
@@ -13779,16 +13779,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F460" t="n">
-        <v>171.1058349609375</v>
+        <v>96.21749114990234</v>
       </c>
       <c r="G460" t="n">
-        <v>62.84126281738281</v>
+        <v>3.411408424377441</v>
       </c>
       <c r="H460" t="n">
-        <v>42.38678359985352</v>
+        <v>52.38224411010742</v>
       </c>
       <c r="I460" t="n">
-        <v>96.06044006347656</v>
+        <v>38.44384765625</v>
       </c>
     </row>
     <row r="461">
@@ -13808,16 +13808,16 @@
         <v>2.266666666666683</v>
       </c>
       <c r="F461" t="n">
-        <v>171.2041473388672</v>
+        <v>96.79871368408203</v>
       </c>
       <c r="G461" t="n">
-        <v>64.32472991943359</v>
+        <v>3.708775997161865</v>
       </c>
       <c r="H461" t="n">
-        <v>184.9319610595703</v>
+        <v>164.4807586669922</v>
       </c>
       <c r="I461" t="n">
-        <v>69.92702484130859</v>
+        <v>51.2675666809082</v>
       </c>
     </row>
     <row r="462">
@@ -13837,16 +13837,16 @@
         <v>12.00000000000001</v>
       </c>
       <c r="F462" t="n">
-        <v>168.0235443115234</v>
+        <v>93.67191314697266</v>
       </c>
       <c r="G462" t="n">
-        <v>57.80694198608398</v>
+        <v>2.447859048843384</v>
       </c>
       <c r="H462" t="n">
-        <v>-71.03664398193359</v>
+        <v>-71.36507415771484</v>
       </c>
       <c r="I462" t="n">
-        <v>17.67413330078125</v>
+        <v>40.60017776489258</v>
       </c>
     </row>
     <row r="463">
@@ -13866,16 +13866,16 @@
         <v>9.566666666666679</v>
       </c>
       <c r="F463" t="n">
-        <v>167.6288604736328</v>
+        <v>94.01342010498047</v>
       </c>
       <c r="G463" t="n">
-        <v>59.03963851928711</v>
+        <v>2.583119630813599</v>
       </c>
       <c r="H463" t="n">
-        <v>-66.71756744384766</v>
+        <v>-79.55609130859375</v>
       </c>
       <c r="I463" t="n">
-        <v>17.22673606872559</v>
+        <v>44.29025268554688</v>
       </c>
     </row>
     <row r="464">
@@ -13895,16 +13895,16 @@
         <v>7.133333333333345</v>
       </c>
       <c r="F464" t="n">
-        <v>167.5228729248047</v>
+        <v>94.39300537109375</v>
       </c>
       <c r="G464" t="n">
-        <v>61.02981185913086</v>
+        <v>2.750679731369019</v>
       </c>
       <c r="H464" t="n">
-        <v>-61.81312942504883</v>
+        <v>-73.17987823486328</v>
       </c>
       <c r="I464" t="n">
-        <v>17.16770935058594</v>
+        <v>42.31588363647461</v>
       </c>
     </row>
     <row r="465">
@@ -13924,16 +13924,16 @@
         <v>4.700000000000013</v>
       </c>
       <c r="F465" t="n">
-        <v>167.6480712890625</v>
+        <v>94.81581878662109</v>
       </c>
       <c r="G465" t="n">
-        <v>62.80659866333008</v>
+        <v>2.954773187637329</v>
       </c>
       <c r="H465" t="n">
-        <v>-49.75541305541992</v>
+        <v>-31.17637634277344</v>
       </c>
       <c r="I465" t="n">
-        <v>23.21390151977539</v>
+        <v>34.03701400756836</v>
       </c>
     </row>
     <row r="466">
@@ -13953,16 +13953,16 @@
         <v>2.266666666666679</v>
       </c>
       <c r="F466" t="n">
-        <v>167.7293701171875</v>
+        <v>95.28780364990234</v>
       </c>
       <c r="G466" t="n">
-        <v>64.29563140869141</v>
+        <v>3.199955701828003</v>
       </c>
       <c r="H466" t="n">
-        <v>24.81112670898438</v>
+        <v>58.96918106079102</v>
       </c>
       <c r="I466" t="n">
-        <v>71.22417449951172</v>
+        <v>42.63904571533203</v>
       </c>
     </row>
     <row r="467">
@@ -13982,16 +13982,16 @@
         <v>9.566666666666675</v>
       </c>
       <c r="F467" t="n">
-        <v>163.8811492919922</v>
+        <v>93.00320434570312</v>
       </c>
       <c r="G467" t="n">
-        <v>57.97048568725586</v>
+        <v>2.249981641769409</v>
       </c>
       <c r="H467" t="n">
-        <v>-74.04584503173828</v>
+        <v>-73.79105377197266</v>
       </c>
       <c r="I467" t="n">
-        <v>16.96734809875488</v>
+        <v>39.37821197509766</v>
       </c>
     </row>
     <row r="468">
@@ -14011,16 +14011,16 @@
         <v>7.133333333333342</v>
       </c>
       <c r="F468" t="n">
-        <v>163.6991119384766</v>
+        <v>93.31119537353516</v>
       </c>
       <c r="G468" t="n">
-        <v>59.57221984863281</v>
+        <v>2.387835741043091</v>
       </c>
       <c r="H468" t="n">
-        <v>-70.42967224121094</v>
+        <v>-81.13091278076172</v>
       </c>
       <c r="I468" t="n">
-        <v>15.93513488769531</v>
+        <v>42.87110137939453</v>
       </c>
     </row>
     <row r="469">
@@ -14040,16 +14040,16 @@
         <v>4.700000000000008</v>
       </c>
       <c r="F469" t="n">
-        <v>163.9681854248047</v>
+        <v>93.65415191650391</v>
       </c>
       <c r="G469" t="n">
-        <v>61.86704254150391</v>
+        <v>2.55597710609436</v>
       </c>
       <c r="H469" t="n">
-        <v>-66.66695404052734</v>
+        <v>-72.64468383789062</v>
       </c>
       <c r="I469" t="n">
-        <v>14.97410011291504</v>
+        <v>40.56172943115234</v>
       </c>
     </row>
     <row r="470">
@@ -14069,16 +14069,16 @@
         <v>2.266666666666675</v>
       </c>
       <c r="F470" t="n">
-        <v>164.2278289794922</v>
+        <v>94.03687286376953</v>
       </c>
       <c r="G470" t="n">
-        <v>63.70818710327148</v>
+        <v>2.758247852325439</v>
       </c>
       <c r="H470" t="n">
-        <v>-58.12750244140625</v>
+        <v>-27.08574104309082</v>
       </c>
       <c r="I470" t="n">
-        <v>17.64046096801758</v>
+        <v>33.91376495361328</v>
       </c>
     </row>
     <row r="471">
@@ -14098,16 +14098,16 @@
         <v>7.133333333333338</v>
       </c>
       <c r="F471" t="n">
-        <v>160.2066955566406</v>
+        <v>92.41458892822266</v>
       </c>
       <c r="G471" t="n">
-        <v>58.29379653930664</v>
+        <v>2.069476366043091</v>
       </c>
       <c r="H471" t="n">
-        <v>-76.62168121337891</v>
+        <v>-75.77972412109375</v>
       </c>
       <c r="I471" t="n">
-        <v>16.75895690917969</v>
+        <v>38.49135589599609</v>
       </c>
     </row>
     <row r="472">
@@ -14127,16 +14127,16 @@
         <v>4.700000000000005</v>
       </c>
       <c r="F472" t="n">
-        <v>160.2496337890625</v>
+        <v>92.69243621826172</v>
       </c>
       <c r="G472" t="n">
-        <v>60.21310424804688</v>
+        <v>2.207792282104492</v>
       </c>
       <c r="H472" t="n">
-        <v>-73.72039031982422</v>
+        <v>-82.23013305664062</v>
       </c>
       <c r="I472" t="n">
-        <v>15.69204902648926</v>
+        <v>41.67952728271484</v>
       </c>
     </row>
     <row r="473">
@@ -14156,16 +14156,16 @@
         <v>2.26666666666667</v>
       </c>
       <c r="F473" t="n">
-        <v>160.7124176025391</v>
+        <v>93.00238800048828</v>
       </c>
       <c r="G473" t="n">
-        <v>62.49556350708008</v>
+        <v>2.374489068984985</v>
       </c>
       <c r="H473" t="n">
-        <v>-70.60902404785156</v>
+        <v>-71.58303070068359</v>
       </c>
       <c r="I473" t="n">
-        <v>14.3704137802124</v>
+        <v>38.92031860351562</v>
       </c>
     </row>
     <row r="474">
@@ -14185,16 +14185,16 @@
         <v>4.700000000000001</v>
       </c>
       <c r="F474" t="n">
-        <v>156.9917144775391</v>
+        <v>91.89684295654297</v>
       </c>
       <c r="G474" t="n">
-        <v>58.75954055786133</v>
+        <v>1.904317617416382</v>
       </c>
       <c r="H474" t="n">
-        <v>-78.71336364746094</v>
+        <v>-77.41484832763672</v>
       </c>
       <c r="I474" t="n">
-        <v>16.50292205810547</v>
+        <v>37.86310577392578</v>
       </c>
     </row>
     <row r="475">
@@ -14214,16 +14214,16 @@
         <v>2.266666666666667</v>
       </c>
       <c r="F475" t="n">
-        <v>157.4537353515625</v>
+        <v>92.14760589599609</v>
       </c>
       <c r="G475" t="n">
-        <v>61.2060546875</v>
+        <v>2.041372776031494</v>
       </c>
       <c r="H475" t="n">
-        <v>-76.67655181884766</v>
+        <v>-82.96329498291016</v>
       </c>
       <c r="I475" t="n">
-        <v>15.92084217071533</v>
+        <v>40.62683868408203</v>
       </c>
     </row>
   </sheetData>
